--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1466"/>
+  <dimension ref="A1:E1474"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28295,6 +28295,158 @@
         <v>61.06999999999999</v>
       </c>
     </row>
+    <row r="1467">
+      <c r="A1467" t="inlineStr">
+        <is>
+          <t>05/01/2024</t>
+        </is>
+      </c>
+      <c r="B1467" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1467" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1467" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1467" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1468">
+      <c r="A1468" t="inlineStr">
+        <is>
+          <t>06/01/2024</t>
+        </is>
+      </c>
+      <c r="B1468" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1468" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1468" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1468" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1469">
+      <c r="A1469" t="inlineStr">
+        <is>
+          <t>07/01/2024</t>
+        </is>
+      </c>
+      <c r="B1469" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1469" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1469" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1469" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1470">
+      <c r="A1470" t="inlineStr">
+        <is>
+          <t>08/01/2024</t>
+        </is>
+      </c>
+      <c r="B1470" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1470" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1470" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1470" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1471">
+      <c r="A1471" t="inlineStr">
+        <is>
+          <t>09/01/2024</t>
+        </is>
+      </c>
+      <c r="B1471" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1471" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1471" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1471" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1472">
+      <c r="A1472" t="inlineStr">
+        <is>
+          <t>10/01/2024</t>
+        </is>
+      </c>
+      <c r="B1472" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1472" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1472" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1472" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1473">
+      <c r="A1473" t="inlineStr">
+        <is>
+          <t>11/01/2024</t>
+        </is>
+      </c>
+      <c r="B1473" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1473" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1473" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1473" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1474">
+      <c r="A1474" t="inlineStr">
+        <is>
+          <t>12/01/2024</t>
+        </is>
+      </c>
+      <c r="B1474" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1474" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1474" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1474" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1474"/>
+  <dimension ref="A1:E1479"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28447,6 +28447,101 @@
         <v>61.06999999999999</v>
       </c>
     </row>
+    <row r="1475">
+      <c r="A1475" t="inlineStr">
+        <is>
+          <t>13/01/2024</t>
+        </is>
+      </c>
+      <c r="B1475" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1475" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1475" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1475" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1476">
+      <c r="A1476" t="inlineStr">
+        <is>
+          <t>14/01/2024</t>
+        </is>
+      </c>
+      <c r="B1476" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1476" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1476" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1476" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1477">
+      <c r="A1477" t="inlineStr">
+        <is>
+          <t>15/01/2024</t>
+        </is>
+      </c>
+      <c r="B1477" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1477" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1477" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1477" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1478">
+      <c r="A1478" t="inlineStr">
+        <is>
+          <t>16/01/2024</t>
+        </is>
+      </c>
+      <c r="B1478" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1478" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1478" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1478" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1479">
+      <c r="A1479" t="inlineStr">
+        <is>
+          <t>17/01/2024</t>
+        </is>
+      </c>
+      <c r="B1479" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1479" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1479" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1479" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1479"/>
+  <dimension ref="A1:E1481"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28542,6 +28542,44 @@
         <v>61.06999999999999</v>
       </c>
     </row>
+    <row r="1480">
+      <c r="A1480" t="inlineStr">
+        <is>
+          <t>18/01/2024</t>
+        </is>
+      </c>
+      <c r="B1480" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1480" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1480" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1480" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1481">
+      <c r="A1481" t="inlineStr">
+        <is>
+          <t>19/01/2024</t>
+        </is>
+      </c>
+      <c r="B1481" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1481" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1481" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1481" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1481"/>
+  <dimension ref="A1:E1484"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28580,6 +28580,63 @@
         <v>61.06999999999999</v>
       </c>
     </row>
+    <row r="1482">
+      <c r="A1482" t="inlineStr">
+        <is>
+          <t>20/01/2024</t>
+        </is>
+      </c>
+      <c r="B1482" t="n">
+        <v>63.26291666666666</v>
+      </c>
+      <c r="C1482" t="n">
+        <v>63.26291666666666</v>
+      </c>
+      <c r="D1482" t="n">
+        <v>63.26374999999999</v>
+      </c>
+      <c r="E1482" t="n">
+        <v>63.26291666666666</v>
+      </c>
+    </row>
+    <row r="1483">
+      <c r="A1483" t="inlineStr">
+        <is>
+          <t>21/01/2024</t>
+        </is>
+      </c>
+      <c r="B1483" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1483" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1483" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1483" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1484">
+      <c r="A1484" t="inlineStr">
+        <is>
+          <t>22/01/2024</t>
+        </is>
+      </c>
+      <c r="B1484" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1484" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1484" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1484" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1484"/>
+  <dimension ref="A1:E1487"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28637,6 +28637,63 @@
         <v>61.06999999999999</v>
       </c>
     </row>
+    <row r="1485">
+      <c r="A1485" t="inlineStr">
+        <is>
+          <t>23/01/2024</t>
+        </is>
+      </c>
+      <c r="B1485" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1485" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1485" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1485" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1486">
+      <c r="A1486" t="inlineStr">
+        <is>
+          <t>24/01/2024</t>
+        </is>
+      </c>
+      <c r="B1486" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1486" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1486" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1486" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1487">
+      <c r="A1487" t="inlineStr">
+        <is>
+          <t>25/01/2024</t>
+        </is>
+      </c>
+      <c r="B1487" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1487" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1487" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1487" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1487"/>
+  <dimension ref="A1:E1488"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28694,6 +28694,25 @@
         <v>61.06999999999999</v>
       </c>
     </row>
+    <row r="1488">
+      <c r="A1488" t="inlineStr">
+        <is>
+          <t>26/01/2024</t>
+        </is>
+      </c>
+      <c r="B1488" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1488" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1488" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1488" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1488"/>
+  <dimension ref="A1:E1489"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28713,6 +28713,25 @@
         <v>61.06999999999999</v>
       </c>
     </row>
+    <row r="1489">
+      <c r="A1489" t="inlineStr">
+        <is>
+          <t>27/01/2024</t>
+        </is>
+      </c>
+      <c r="B1489" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1489" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1489" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1489" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1489"/>
+  <dimension ref="A1:E1491"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28732,6 +28732,44 @@
         <v>61.06999999999999</v>
       </c>
     </row>
+    <row r="1490">
+      <c r="A1490" t="inlineStr">
+        <is>
+          <t>28/01/2024</t>
+        </is>
+      </c>
+      <c r="B1490" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1490" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1490" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1490" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1491">
+      <c r="A1491" t="inlineStr">
+        <is>
+          <t>29/01/2024</t>
+        </is>
+      </c>
+      <c r="B1491" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1491" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1491" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1491" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1491"/>
+  <dimension ref="A1:E1492"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28770,6 +28770,25 @@
         <v>61.06999999999999</v>
       </c>
     </row>
+    <row r="1492">
+      <c r="A1492" t="inlineStr">
+        <is>
+          <t>30/01/2024</t>
+        </is>
+      </c>
+      <c r="B1492" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1492" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1492" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1492" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1492"/>
+  <dimension ref="A1:E1495"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28789,6 +28789,63 @@
         <v>61.06999999999999</v>
       </c>
     </row>
+    <row r="1493">
+      <c r="A1493" t="inlineStr">
+        <is>
+          <t>31/01/2024</t>
+        </is>
+      </c>
+      <c r="B1493" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1493" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1493" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1493" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1494">
+      <c r="A1494" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
+        </is>
+      </c>
+      <c r="B1494" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1494" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1494" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1494" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1495">
+      <c r="A1495" t="inlineStr">
+        <is>
+          <t>02/02/2024</t>
+        </is>
+      </c>
+      <c r="B1495" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1495" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1495" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1495" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1495"/>
+  <dimension ref="A1:E1498"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28846,6 +28846,63 @@
         <v>61.06999999999999</v>
       </c>
     </row>
+    <row r="1496">
+      <c r="A1496" t="inlineStr">
+        <is>
+          <t>03/02/2024</t>
+        </is>
+      </c>
+      <c r="B1496" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1496" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1496" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1496" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1497">
+      <c r="A1497" t="inlineStr">
+        <is>
+          <t>04/02/2024</t>
+        </is>
+      </c>
+      <c r="B1497" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1497" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1497" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1497" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1498">
+      <c r="A1498" t="inlineStr">
+        <is>
+          <t>05/02/2024</t>
+        </is>
+      </c>
+      <c r="B1498" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1498" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1498" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1498" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1498"/>
+  <dimension ref="A1:E1500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28903,6 +28903,44 @@
         <v>61.06999999999999</v>
       </c>
     </row>
+    <row r="1499">
+      <c r="A1499" t="inlineStr">
+        <is>
+          <t>06/02/2024</t>
+        </is>
+      </c>
+      <c r="B1499" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1499" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1499" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1499" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1500">
+      <c r="A1500" t="inlineStr">
+        <is>
+          <t>07/02/2024</t>
+        </is>
+      </c>
+      <c r="B1500" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1500" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1500" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1500" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1500"/>
+  <dimension ref="A1:E1501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28941,6 +28941,25 @@
         <v>61.06999999999999</v>
       </c>
     </row>
+    <row r="1501">
+      <c r="A1501" t="inlineStr">
+        <is>
+          <t>08/02/2024</t>
+        </is>
+      </c>
+      <c r="B1501" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1501" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1501" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1501" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1501"/>
+  <dimension ref="A1:E1502"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28960,6 +28960,25 @@
         <v>61.06999999999999</v>
       </c>
     </row>
+    <row r="1502">
+      <c r="A1502" t="inlineStr">
+        <is>
+          <t>09/02/2024</t>
+        </is>
+      </c>
+      <c r="B1502" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1502" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1502" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1502" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1502"/>
+  <dimension ref="A1:E1508"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28979,6 +28979,120 @@
         <v>61.06999999999999</v>
       </c>
     </row>
+    <row r="1503">
+      <c r="A1503" t="inlineStr">
+        <is>
+          <t>10/02/2024</t>
+        </is>
+      </c>
+      <c r="B1503" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1503" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1503" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1503" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1504">
+      <c r="A1504" t="inlineStr">
+        <is>
+          <t>11/02/2024</t>
+        </is>
+      </c>
+      <c r="B1504" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1504" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1504" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1504" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1505">
+      <c r="A1505" t="inlineStr">
+        <is>
+          <t>12/02/2024</t>
+        </is>
+      </c>
+      <c r="B1505" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1505" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1505" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1505" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1506">
+      <c r="A1506" t="inlineStr">
+        <is>
+          <t>13/02/2024</t>
+        </is>
+      </c>
+      <c r="B1506" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1506" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1506" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1506" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1507">
+      <c r="A1507" t="inlineStr">
+        <is>
+          <t>14/02/2024</t>
+        </is>
+      </c>
+      <c r="B1507" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1507" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1507" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1507" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1508">
+      <c r="A1508" t="inlineStr">
+        <is>
+          <t>15/02/2024</t>
+        </is>
+      </c>
+      <c r="B1508" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1508" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1508" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1508" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1508"/>
+  <dimension ref="A1:E1509"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29093,6 +29093,25 @@
         <v>61.06999999999999</v>
       </c>
     </row>
+    <row r="1509">
+      <c r="A1509" t="inlineStr">
+        <is>
+          <t>16/02/2024</t>
+        </is>
+      </c>
+      <c r="B1509" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1509" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1509" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1509" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1509"/>
+  <dimension ref="A1:E1512"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29112,6 +29112,63 @@
         <v>61.06999999999999</v>
       </c>
     </row>
+    <row r="1510">
+      <c r="A1510" t="inlineStr">
+        <is>
+          <t>17/02/2024</t>
+        </is>
+      </c>
+      <c r="B1510" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1510" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1510" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1510" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1511">
+      <c r="A1511" t="inlineStr">
+        <is>
+          <t>18/02/2024</t>
+        </is>
+      </c>
+      <c r="B1511" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1511" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1511" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1511" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1512">
+      <c r="A1512" t="inlineStr">
+        <is>
+          <t>19/02/2024</t>
+        </is>
+      </c>
+      <c r="B1512" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1512" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1512" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1512" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1512"/>
+  <dimension ref="A1:E1515"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29169,6 +29169,63 @@
         <v>61.06999999999999</v>
       </c>
     </row>
+    <row r="1513">
+      <c r="A1513" t="inlineStr">
+        <is>
+          <t>20/02/2024</t>
+        </is>
+      </c>
+      <c r="B1513" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1513" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1513" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1513" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1514">
+      <c r="A1514" t="inlineStr">
+        <is>
+          <t>21/02/2024</t>
+        </is>
+      </c>
+      <c r="B1514" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1514" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1514" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1514" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1515">
+      <c r="A1515" t="inlineStr">
+        <is>
+          <t>22/02/2024</t>
+        </is>
+      </c>
+      <c r="B1515" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1515" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1515" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1515" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1515"/>
+  <dimension ref="A1:E1519"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29226,6 +29226,82 @@
         <v>61.06999999999999</v>
       </c>
     </row>
+    <row r="1516">
+      <c r="A1516" t="inlineStr">
+        <is>
+          <t>23/02/2024</t>
+        </is>
+      </c>
+      <c r="B1516" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1516" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1516" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1516" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1517">
+      <c r="A1517" t="inlineStr">
+        <is>
+          <t>24/02/2024</t>
+        </is>
+      </c>
+      <c r="B1517" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1517" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1517" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1517" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1518">
+      <c r="A1518" t="inlineStr">
+        <is>
+          <t>25/02/2024</t>
+        </is>
+      </c>
+      <c r="B1518" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1518" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1518" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1518" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1519">
+      <c r="A1519" t="inlineStr">
+        <is>
+          <t>26/02/2024</t>
+        </is>
+      </c>
+      <c r="B1519" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1519" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1519" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1519" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1519"/>
+  <dimension ref="A1:E1520"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29302,6 +29302,25 @@
         <v>61.06999999999999</v>
       </c>
     </row>
+    <row r="1520">
+      <c r="A1520" t="inlineStr">
+        <is>
+          <t>27/02/2024</t>
+        </is>
+      </c>
+      <c r="B1520" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1520" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1520" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1520" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1520"/>
+  <dimension ref="A1:E1528"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29321,6 +29321,158 @@
         <v>61.06999999999999</v>
       </c>
     </row>
+    <row r="1521">
+      <c r="A1521" t="inlineStr">
+        <is>
+          <t>28/02/2024</t>
+        </is>
+      </c>
+      <c r="B1521" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1521" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1521" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1521" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1522">
+      <c r="A1522" t="inlineStr">
+        <is>
+          <t>29/02/2024</t>
+        </is>
+      </c>
+      <c r="B1522" t="n">
+        <v>64.77124999999999</v>
+      </c>
+      <c r="C1522" t="n">
+        <v>64.77124999999999</v>
+      </c>
+      <c r="D1522" t="n">
+        <v>64.77124999999999</v>
+      </c>
+      <c r="E1522" t="n">
+        <v>64.76916666666666</v>
+      </c>
+    </row>
+    <row r="1523">
+      <c r="A1523" t="inlineStr">
+        <is>
+          <t>01/03/2024</t>
+        </is>
+      </c>
+      <c r="B1523" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1523" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1523" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1523" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1524">
+      <c r="A1524" t="inlineStr">
+        <is>
+          <t>02/03/2024</t>
+        </is>
+      </c>
+      <c r="B1524" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1524" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1524" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1524" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1525">
+      <c r="A1525" t="inlineStr">
+        <is>
+          <t>03/03/2024</t>
+        </is>
+      </c>
+      <c r="B1525" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1525" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1525" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1525" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1526">
+      <c r="A1526" t="inlineStr">
+        <is>
+          <t>04/03/2024</t>
+        </is>
+      </c>
+      <c r="B1526" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1526" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1526" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1526" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1527">
+      <c r="A1527" t="inlineStr">
+        <is>
+          <t>05/03/2024</t>
+        </is>
+      </c>
+      <c r="B1527" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1527" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1527" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1527" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1528">
+      <c r="A1528" t="inlineStr">
+        <is>
+          <t>06/03/2024</t>
+        </is>
+      </c>
+      <c r="B1528" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1528" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1528" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1528" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1528"/>
+  <dimension ref="A1:E1533"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29473,6 +29473,101 @@
         <v>61.06999999999999</v>
       </c>
     </row>
+    <row r="1529">
+      <c r="A1529" t="inlineStr">
+        <is>
+          <t>07/03/2024</t>
+        </is>
+      </c>
+      <c r="B1529" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1529" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1529" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1529" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1530">
+      <c r="A1530" t="inlineStr">
+        <is>
+          <t>08/03/2024</t>
+        </is>
+      </c>
+      <c r="B1530" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1530" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1530" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1530" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1531">
+      <c r="A1531" t="inlineStr">
+        <is>
+          <t>09/03/2024</t>
+        </is>
+      </c>
+      <c r="B1531" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1531" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1531" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1531" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1532">
+      <c r="A1532" t="inlineStr">
+        <is>
+          <t>10/03/2024</t>
+        </is>
+      </c>
+      <c r="B1532" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1532" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1532" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1532" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1533">
+      <c r="A1533" t="inlineStr">
+        <is>
+          <t>11/03/2024</t>
+        </is>
+      </c>
+      <c r="B1533" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1533" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1533" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1533" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1533"/>
+  <dimension ref="A1:E1536"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29568,6 +29568,63 @@
         <v>61.06999999999999</v>
       </c>
     </row>
+    <row r="1534">
+      <c r="A1534" t="inlineStr">
+        <is>
+          <t>12/03/2024</t>
+        </is>
+      </c>
+      <c r="B1534" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1534" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1534" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1534" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1535">
+      <c r="A1535" t="inlineStr">
+        <is>
+          <t>13/03/2024</t>
+        </is>
+      </c>
+      <c r="B1535" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1535" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1535" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1535" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1536">
+      <c r="A1536" t="inlineStr">
+        <is>
+          <t>14/03/2024</t>
+        </is>
+      </c>
+      <c r="B1536" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1536" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1536" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1536" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1536"/>
+  <dimension ref="A1:E1544"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29625,6 +29625,158 @@
         <v>61.06999999999999</v>
       </c>
     </row>
+    <row r="1537">
+      <c r="A1537" t="inlineStr">
+        <is>
+          <t>15/03/2024</t>
+        </is>
+      </c>
+      <c r="B1537" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1537" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1537" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1537" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1538">
+      <c r="A1538" t="inlineStr">
+        <is>
+          <t>16/03/2024</t>
+        </is>
+      </c>
+      <c r="B1538" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1538" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1538" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1538" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1539">
+      <c r="A1539" t="inlineStr">
+        <is>
+          <t>17/03/2024</t>
+        </is>
+      </c>
+      <c r="B1539" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1539" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1539" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1539" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1540">
+      <c r="A1540" t="inlineStr">
+        <is>
+          <t>18/03/2024</t>
+        </is>
+      </c>
+      <c r="B1540" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1540" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1540" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1540" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1541">
+      <c r="A1541" t="inlineStr">
+        <is>
+          <t>19/03/2024</t>
+        </is>
+      </c>
+      <c r="B1541" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1541" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1541" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1541" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1542">
+      <c r="A1542" t="inlineStr">
+        <is>
+          <t>20/03/2024</t>
+        </is>
+      </c>
+      <c r="B1542" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1542" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1542" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1542" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1543">
+      <c r="A1543" t="inlineStr">
+        <is>
+          <t>21/03/2024</t>
+        </is>
+      </c>
+      <c r="B1543" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1543" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1543" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1543" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1544">
+      <c r="A1544" t="inlineStr">
+        <is>
+          <t>22/03/2024</t>
+        </is>
+      </c>
+      <c r="B1544" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1544" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1544" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1544" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1544"/>
+  <dimension ref="A1:E1550"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29777,6 +29777,120 @@
         <v>61.06999999999999</v>
       </c>
     </row>
+    <row r="1545">
+      <c r="A1545" t="inlineStr">
+        <is>
+          <t>23/03/2024</t>
+        </is>
+      </c>
+      <c r="B1545" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1545" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1545" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1545" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1546">
+      <c r="A1546" t="inlineStr">
+        <is>
+          <t>24/03/2024</t>
+        </is>
+      </c>
+      <c r="B1546" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1546" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1546" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1546" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1547">
+      <c r="A1547" t="inlineStr">
+        <is>
+          <t>25/03/2024</t>
+        </is>
+      </c>
+      <c r="B1547" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1547" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1547" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1547" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1548">
+      <c r="A1548" t="inlineStr">
+        <is>
+          <t>26/03/2024</t>
+        </is>
+      </c>
+      <c r="B1548" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1548" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1548" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1548" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1549">
+      <c r="A1549" t="inlineStr">
+        <is>
+          <t>27/03/2024</t>
+        </is>
+      </c>
+      <c r="B1549" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1549" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1549" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1549" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1550">
+      <c r="A1550" t="inlineStr">
+        <is>
+          <t>28/03/2024</t>
+        </is>
+      </c>
+      <c r="B1550" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1550" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1550" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1550" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1550"/>
+  <dimension ref="A1:E1554"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29891,6 +29891,82 @@
         <v>61.06999999999999</v>
       </c>
     </row>
+    <row r="1551">
+      <c r="A1551" t="inlineStr">
+        <is>
+          <t>29/03/2024</t>
+        </is>
+      </c>
+      <c r="B1551" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1551" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1551" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1551" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1552">
+      <c r="A1552" t="inlineStr">
+        <is>
+          <t>30/03/2024</t>
+        </is>
+      </c>
+      <c r="B1552" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1552" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1552" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1552" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1553">
+      <c r="A1553" t="inlineStr">
+        <is>
+          <t>31/03/2024</t>
+        </is>
+      </c>
+      <c r="B1553" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1553" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1553" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1553" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1554">
+      <c r="A1554" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+      <c r="B1554" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1554" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1554" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1554" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1554"/>
+  <dimension ref="A1:E1557"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29967,6 +29967,63 @@
         <v>61.06999999999999</v>
       </c>
     </row>
+    <row r="1555">
+      <c r="A1555" t="inlineStr">
+        <is>
+          <t>02/04/2024</t>
+        </is>
+      </c>
+      <c r="B1555" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1555" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1555" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1555" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1556">
+      <c r="A1556" t="inlineStr">
+        <is>
+          <t>03/04/2024</t>
+        </is>
+      </c>
+      <c r="B1556" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1556" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1556" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1556" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1557">
+      <c r="A1557" t="inlineStr">
+        <is>
+          <t>04/04/2024</t>
+        </is>
+      </c>
+      <c r="B1557" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1557" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1557" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1557" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1557"/>
+  <dimension ref="A1:E1562"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30024,6 +30024,101 @@
         <v>61.06999999999999</v>
       </c>
     </row>
+    <row r="1558">
+      <c r="A1558" t="inlineStr">
+        <is>
+          <t>05/04/2024</t>
+        </is>
+      </c>
+      <c r="B1558" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1558" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1558" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1558" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1559">
+      <c r="A1559" t="inlineStr">
+        <is>
+          <t>06/04/2024</t>
+        </is>
+      </c>
+      <c r="B1559" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1559" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1559" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1559" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1560">
+      <c r="A1560" t="inlineStr">
+        <is>
+          <t>07/04/2024</t>
+        </is>
+      </c>
+      <c r="B1560" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1560" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1560" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1560" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1561">
+      <c r="A1561" t="inlineStr">
+        <is>
+          <t>08/04/2024</t>
+        </is>
+      </c>
+      <c r="B1561" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1561" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1561" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1561" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1562">
+      <c r="A1562" t="inlineStr">
+        <is>
+          <t>09/04/2024</t>
+        </is>
+      </c>
+      <c r="B1562" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1562" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1562" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1562" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1562"/>
+  <dimension ref="A1:E1565"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30119,6 +30119,63 @@
         <v>61.06999999999999</v>
       </c>
     </row>
+    <row r="1563">
+      <c r="A1563" t="inlineStr">
+        <is>
+          <t>10/04/2024</t>
+        </is>
+      </c>
+      <c r="B1563" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1563" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1563" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1563" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1564">
+      <c r="A1564" t="inlineStr">
+        <is>
+          <t>11/04/2024</t>
+        </is>
+      </c>
+      <c r="B1564" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1564" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1564" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1564" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1565">
+      <c r="A1565" t="inlineStr">
+        <is>
+          <t>12/04/2024</t>
+        </is>
+      </c>
+      <c r="B1565" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1565" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1565" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1565" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1565"/>
+  <dimension ref="A1:E1572"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30176,6 +30176,139 @@
         <v>61.06999999999999</v>
       </c>
     </row>
+    <row r="1566">
+      <c r="A1566" t="inlineStr">
+        <is>
+          <t>13/04/2024</t>
+        </is>
+      </c>
+      <c r="B1566" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1566" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1566" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1566" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1567">
+      <c r="A1567" t="inlineStr">
+        <is>
+          <t>14/04/2024</t>
+        </is>
+      </c>
+      <c r="B1567" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1567" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1567" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1567" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1568">
+      <c r="A1568" t="inlineStr">
+        <is>
+          <t>15/04/2024</t>
+        </is>
+      </c>
+      <c r="B1568" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1568" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1568" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1568" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1569">
+      <c r="A1569" t="inlineStr">
+        <is>
+          <t>16/04/2024</t>
+        </is>
+      </c>
+      <c r="B1569" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1569" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1569" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1569" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1570">
+      <c r="A1570" t="inlineStr">
+        <is>
+          <t>17/04/2024</t>
+        </is>
+      </c>
+      <c r="B1570" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1570" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1570" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1570" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1571">
+      <c r="A1571" t="inlineStr">
+        <is>
+          <t>18/04/2024</t>
+        </is>
+      </c>
+      <c r="B1571" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1571" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1571" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1571" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1572">
+      <c r="A1572" t="inlineStr">
+        <is>
+          <t>19/04/2024</t>
+        </is>
+      </c>
+      <c r="B1572" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1572" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1572" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1572" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1572"/>
+  <dimension ref="A1:E1585"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30309,6 +30309,253 @@
         <v>61.06999999999999</v>
       </c>
     </row>
+    <row r="1573">
+      <c r="A1573" t="inlineStr">
+        <is>
+          <t>20/04/2024</t>
+        </is>
+      </c>
+      <c r="B1573" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1573" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1573" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1573" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1574">
+      <c r="A1574" t="inlineStr">
+        <is>
+          <t>21/04/2024</t>
+        </is>
+      </c>
+      <c r="B1574" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1574" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1574" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1574" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1575">
+      <c r="A1575" t="inlineStr">
+        <is>
+          <t>22/04/2024</t>
+        </is>
+      </c>
+      <c r="B1575" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1575" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1575" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1575" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1576">
+      <c r="A1576" t="inlineStr">
+        <is>
+          <t>23/04/2024</t>
+        </is>
+      </c>
+      <c r="B1576" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1576" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1576" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1576" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1577">
+      <c r="A1577" t="inlineStr">
+        <is>
+          <t>24/04/2024</t>
+        </is>
+      </c>
+      <c r="B1577" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1577" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1577" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1577" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1578">
+      <c r="A1578" t="inlineStr">
+        <is>
+          <t>25/04/2024</t>
+        </is>
+      </c>
+      <c r="B1578" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1578" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1578" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1578" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1579">
+      <c r="A1579" t="inlineStr">
+        <is>
+          <t>26/04/2024</t>
+        </is>
+      </c>
+      <c r="B1579" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1579" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1579" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1579" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1580">
+      <c r="A1580" t="inlineStr">
+        <is>
+          <t>27/04/2024</t>
+        </is>
+      </c>
+      <c r="B1580" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1580" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1580" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1580" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1581">
+      <c r="A1581" t="inlineStr">
+        <is>
+          <t>28/04/2024</t>
+        </is>
+      </c>
+      <c r="B1581" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1581" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1581" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1581" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1582">
+      <c r="A1582" t="inlineStr">
+        <is>
+          <t>29/04/2024</t>
+        </is>
+      </c>
+      <c r="B1582" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1582" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1582" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1582" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1583">
+      <c r="A1583" t="inlineStr">
+        <is>
+          <t>30/04/2024</t>
+        </is>
+      </c>
+      <c r="B1583" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1583" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1583" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1583" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1584">
+      <c r="A1584" t="inlineStr">
+        <is>
+          <t>01/05/2024</t>
+        </is>
+      </c>
+      <c r="B1584" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1584" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1584" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1584" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1585">
+      <c r="A1585" t="inlineStr">
+        <is>
+          <t>02/05/2024</t>
+        </is>
+      </c>
+      <c r="B1585" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1585" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1585" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1585" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1585"/>
+  <dimension ref="A1:E1591"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30556,6 +30556,120 @@
         <v>61.06999999999999</v>
       </c>
     </row>
+    <row r="1586">
+      <c r="A1586" t="inlineStr">
+        <is>
+          <t>03/05/2024</t>
+        </is>
+      </c>
+      <c r="B1586" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1586" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1586" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1586" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1587">
+      <c r="A1587" t="inlineStr">
+        <is>
+          <t>04/05/2024</t>
+        </is>
+      </c>
+      <c r="B1587" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1587" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1587" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1587" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1588">
+      <c r="A1588" t="inlineStr">
+        <is>
+          <t>05/05/2024</t>
+        </is>
+      </c>
+      <c r="B1588" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1588" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1588" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1588" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1589">
+      <c r="A1589" t="inlineStr">
+        <is>
+          <t>06/05/2024</t>
+        </is>
+      </c>
+      <c r="B1589" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1589" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1589" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1589" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1590">
+      <c r="A1590" t="inlineStr">
+        <is>
+          <t>07/05/2024</t>
+        </is>
+      </c>
+      <c r="B1590" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1590" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1590" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1590" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1591">
+      <c r="A1591" t="inlineStr">
+        <is>
+          <t>08/05/2024</t>
+        </is>
+      </c>
+      <c r="B1591" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1591" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1591" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1591" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1591"/>
+  <dimension ref="A1:E1600"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30670,6 +30670,177 @@
         <v>61.06999999999999</v>
       </c>
     </row>
+    <row r="1592">
+      <c r="A1592" t="inlineStr">
+        <is>
+          <t>09/05/2024</t>
+        </is>
+      </c>
+      <c r="B1592" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1592" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1592" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1592" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1593">
+      <c r="A1593" t="inlineStr">
+        <is>
+          <t>10/05/2024</t>
+        </is>
+      </c>
+      <c r="B1593" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1593" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1593" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1593" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1594">
+      <c r="A1594" t="inlineStr">
+        <is>
+          <t>11/05/2024</t>
+        </is>
+      </c>
+      <c r="B1594" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1594" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1594" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1594" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1595">
+      <c r="A1595" t="inlineStr">
+        <is>
+          <t>12/05/2024</t>
+        </is>
+      </c>
+      <c r="B1595" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1595" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1595" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1595" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1596">
+      <c r="A1596" t="inlineStr">
+        <is>
+          <t>13/05/2024</t>
+        </is>
+      </c>
+      <c r="B1596" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1596" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1596" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1596" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1597">
+      <c r="A1597" t="inlineStr">
+        <is>
+          <t>14/05/2024</t>
+        </is>
+      </c>
+      <c r="B1597" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1597" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1597" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1597" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1598">
+      <c r="A1598" t="inlineStr">
+        <is>
+          <t>15/05/2024</t>
+        </is>
+      </c>
+      <c r="B1598" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1598" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1598" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1598" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1599">
+      <c r="A1599" t="inlineStr">
+        <is>
+          <t>16/05/2024</t>
+        </is>
+      </c>
+      <c r="B1599" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1599" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1599" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1599" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1600">
+      <c r="A1600" t="inlineStr">
+        <is>
+          <t>17/05/2024</t>
+        </is>
+      </c>
+      <c r="B1600" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1600" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1600" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1600" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1600"/>
+  <dimension ref="A1:E1603"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30841,6 +30841,63 @@
         <v>61.06999999999999</v>
       </c>
     </row>
+    <row r="1601">
+      <c r="A1601" t="inlineStr">
+        <is>
+          <t>18/05/2024</t>
+        </is>
+      </c>
+      <c r="B1601" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1601" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1601" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1601" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1602">
+      <c r="A1602" t="inlineStr">
+        <is>
+          <t>19/05/2024</t>
+        </is>
+      </c>
+      <c r="B1602" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1602" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1602" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1602" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1603">
+      <c r="A1603" t="inlineStr">
+        <is>
+          <t>20/05/2024</t>
+        </is>
+      </c>
+      <c r="B1603" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1603" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1603" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1603" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1603"/>
+  <dimension ref="A1:E1606"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30898,6 +30898,63 @@
         <v>61.06999999999999</v>
       </c>
     </row>
+    <row r="1604">
+      <c r="A1604" t="inlineStr">
+        <is>
+          <t>21/05/2024</t>
+        </is>
+      </c>
+      <c r="B1604" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1604" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1604" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1604" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1605">
+      <c r="A1605" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="B1605" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1605" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1605" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1605" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1606">
+      <c r="A1606" t="inlineStr">
+        <is>
+          <t>23/05/2024</t>
+        </is>
+      </c>
+      <c r="B1606" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1606" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1606" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1606" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1606"/>
+  <dimension ref="A1:E1612"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30955,6 +30955,120 @@
         <v>61.06999999999999</v>
       </c>
     </row>
+    <row r="1607">
+      <c r="A1607" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="B1607" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1607" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1607" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1607" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1608">
+      <c r="A1608" t="inlineStr">
+        <is>
+          <t>25/05/2024</t>
+        </is>
+      </c>
+      <c r="B1608" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1608" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1608" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1608" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1609">
+      <c r="A1609" t="inlineStr">
+        <is>
+          <t>26/05/2024</t>
+        </is>
+      </c>
+      <c r="B1609" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1609" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1609" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1609" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1610">
+      <c r="A1610" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="B1610" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1610" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1610" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1610" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1611">
+      <c r="A1611" t="inlineStr">
+        <is>
+          <t>28/05/2024</t>
+        </is>
+      </c>
+      <c r="B1611" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1611" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1611" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1611" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1612">
+      <c r="A1612" t="inlineStr">
+        <is>
+          <t>29/05/2024</t>
+        </is>
+      </c>
+      <c r="B1612" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1612" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1612" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1612" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1612"/>
+  <dimension ref="A1:E1617"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31069,6 +31069,101 @@
         <v>61.06999999999999</v>
       </c>
     </row>
+    <row r="1613">
+      <c r="A1613" t="inlineStr">
+        <is>
+          <t>30/05/2024</t>
+        </is>
+      </c>
+      <c r="B1613" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1613" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1613" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1613" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1614">
+      <c r="A1614" t="inlineStr">
+        <is>
+          <t>31/05/2024</t>
+        </is>
+      </c>
+      <c r="B1614" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1614" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1614" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1614" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1615">
+      <c r="A1615" t="inlineStr">
+        <is>
+          <t>01/06/2024</t>
+        </is>
+      </c>
+      <c r="B1615" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1615" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1615" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1615" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1616">
+      <c r="A1616" t="inlineStr">
+        <is>
+          <t>02/06/2024</t>
+        </is>
+      </c>
+      <c r="B1616" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1616" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1616" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1616" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1617">
+      <c r="A1617" t="inlineStr">
+        <is>
+          <t>03/06/2024</t>
+        </is>
+      </c>
+      <c r="B1617" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1617" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1617" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1617" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1617"/>
+  <dimension ref="A1:E1620"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31164,6 +31164,63 @@
         <v>61.06999999999999</v>
       </c>
     </row>
+    <row r="1618">
+      <c r="A1618" t="inlineStr">
+        <is>
+          <t>04/06/2024</t>
+        </is>
+      </c>
+      <c r="B1618" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1618" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1618" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1618" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1619">
+      <c r="A1619" t="inlineStr">
+        <is>
+          <t>05/06/2024</t>
+        </is>
+      </c>
+      <c r="B1619" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1619" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1619" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1619" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1620">
+      <c r="A1620" t="inlineStr">
+        <is>
+          <t>06/06/2024</t>
+        </is>
+      </c>
+      <c r="B1620" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1620" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1620" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1620" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1620"/>
+  <dimension ref="A1:E1625"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31221,6 +31221,101 @@
         <v>61.06999999999999</v>
       </c>
     </row>
+    <row r="1621">
+      <c r="A1621" t="inlineStr">
+        <is>
+          <t>07/06/2024</t>
+        </is>
+      </c>
+      <c r="B1621" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1621" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1621" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1621" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1622">
+      <c r="A1622" t="inlineStr">
+        <is>
+          <t>08/06/2024</t>
+        </is>
+      </c>
+      <c r="B1622" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1622" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1622" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1622" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1623">
+      <c r="A1623" t="inlineStr">
+        <is>
+          <t>09/06/2024</t>
+        </is>
+      </c>
+      <c r="B1623" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1623" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1623" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1623" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1624">
+      <c r="A1624" t="inlineStr">
+        <is>
+          <t>10/06/2024</t>
+        </is>
+      </c>
+      <c r="B1624" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1624" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1624" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1624" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1625">
+      <c r="A1625" t="inlineStr">
+        <is>
+          <t>11/06/2024</t>
+        </is>
+      </c>
+      <c r="B1625" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1625" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1625" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1625" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1625"/>
+  <dimension ref="A1:E1640"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31316,6 +31316,291 @@
         <v>61.06999999999999</v>
       </c>
     </row>
+    <row r="1626">
+      <c r="A1626" t="inlineStr">
+        <is>
+          <t>12/06/2024</t>
+        </is>
+      </c>
+      <c r="B1626" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1626" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1626" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1626" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1627">
+      <c r="A1627" t="inlineStr">
+        <is>
+          <t>13/06/2024</t>
+        </is>
+      </c>
+      <c r="B1627" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1627" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1627" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1627" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1628">
+      <c r="A1628" t="inlineStr">
+        <is>
+          <t>14/06/2024</t>
+        </is>
+      </c>
+      <c r="B1628" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1628" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1628" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1628" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1629">
+      <c r="A1629" t="inlineStr">
+        <is>
+          <t>15/06/2024</t>
+        </is>
+      </c>
+      <c r="B1629" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1629" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1629" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1629" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1630">
+      <c r="A1630" t="inlineStr">
+        <is>
+          <t>16/06/2024</t>
+        </is>
+      </c>
+      <c r="B1630" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1630" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1630" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1630" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1631">
+      <c r="A1631" t="inlineStr">
+        <is>
+          <t>17/06/2024</t>
+        </is>
+      </c>
+      <c r="B1631" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1631" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1631" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1631" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1632">
+      <c r="A1632" t="inlineStr">
+        <is>
+          <t>18/06/2024</t>
+        </is>
+      </c>
+      <c r="B1632" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1632" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1632" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1632" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1633">
+      <c r="A1633" t="inlineStr">
+        <is>
+          <t>19/06/2024</t>
+        </is>
+      </c>
+      <c r="B1633" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1633" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1633" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1633" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1634">
+      <c r="A1634" t="inlineStr">
+        <is>
+          <t>20/06/2024</t>
+        </is>
+      </c>
+      <c r="B1634" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1634" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1634" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1634" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1635">
+      <c r="A1635" t="inlineStr">
+        <is>
+          <t>21/06/2024</t>
+        </is>
+      </c>
+      <c r="B1635" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1635" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1635" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1635" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1636">
+      <c r="A1636" t="inlineStr">
+        <is>
+          <t>22/06/2024</t>
+        </is>
+      </c>
+      <c r="B1636" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1636" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1636" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1636" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1637">
+      <c r="A1637" t="inlineStr">
+        <is>
+          <t>23/06/2024</t>
+        </is>
+      </c>
+      <c r="B1637" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1637" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1637" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1637" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1638">
+      <c r="A1638" t="inlineStr">
+        <is>
+          <t>24/06/2024</t>
+        </is>
+      </c>
+      <c r="B1638" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1638" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1638" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1638" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1639">
+      <c r="A1639" t="inlineStr">
+        <is>
+          <t>25/06/2024</t>
+        </is>
+      </c>
+      <c r="B1639" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1639" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1639" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1639" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1640">
+      <c r="A1640" t="inlineStr">
+        <is>
+          <t>26/06/2024</t>
+        </is>
+      </c>
+      <c r="B1640" t="n">
+        <v>64.08083333333333</v>
+      </c>
+      <c r="C1640" t="n">
+        <v>64.08083333333333</v>
+      </c>
+      <c r="D1640" t="n">
+        <v>64.08</v>
+      </c>
+      <c r="E1640" t="n">
+        <v>64.08083333333333</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1640"/>
+  <dimension ref="A1:E1645"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31601,6 +31601,101 @@
         <v>64.08083333333333</v>
       </c>
     </row>
+    <row r="1641">
+      <c r="A1641" t="inlineStr">
+        <is>
+          <t>27/06/2024</t>
+        </is>
+      </c>
+      <c r="B1641" t="n">
+        <v>68.91375000000001</v>
+      </c>
+      <c r="C1641" t="n">
+        <v>68.91375000000001</v>
+      </c>
+      <c r="D1641" t="n">
+        <v>68.91208333333334</v>
+      </c>
+      <c r="E1641" t="n">
+        <v>68.91375000000001</v>
+      </c>
+    </row>
+    <row r="1642">
+      <c r="A1642" t="inlineStr">
+        <is>
+          <t>28/06/2024</t>
+        </is>
+      </c>
+      <c r="B1642" t="n">
+        <v>122.4770833333334</v>
+      </c>
+      <c r="C1642" t="n">
+        <v>122.4754166666667</v>
+      </c>
+      <c r="D1642" t="n">
+        <v>122.47625</v>
+      </c>
+      <c r="E1642" t="n">
+        <v>122.4770833333334</v>
+      </c>
+    </row>
+    <row r="1643">
+      <c r="A1643" t="inlineStr">
+        <is>
+          <t>29/06/2024</t>
+        </is>
+      </c>
+      <c r="B1643" t="n">
+        <v>111.8075</v>
+      </c>
+      <c r="C1643" t="n">
+        <v>111.77</v>
+      </c>
+      <c r="D1643" t="n">
+        <v>111.7879166666667</v>
+      </c>
+      <c r="E1643" t="n">
+        <v>111.8258333333333</v>
+      </c>
+    </row>
+    <row r="1644">
+      <c r="A1644" t="inlineStr">
+        <is>
+          <t>30/06/2024</t>
+        </is>
+      </c>
+      <c r="B1644" t="n">
+        <v>98.12708333333335</v>
+      </c>
+      <c r="C1644" t="n">
+        <v>98.09708333333333</v>
+      </c>
+      <c r="D1644" t="n">
+        <v>98.11291666666665</v>
+      </c>
+      <c r="E1644" t="n">
+        <v>98.1425</v>
+      </c>
+    </row>
+    <row r="1645">
+      <c r="A1645" t="inlineStr">
+        <is>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="B1645" t="n">
+        <v>112.5145833333333</v>
+      </c>
+      <c r="C1645" t="n">
+        <v>112.4929166666667</v>
+      </c>
+      <c r="D1645" t="n">
+        <v>106.4508333333333</v>
+      </c>
+      <c r="E1645" t="n">
+        <v>112.5270833333333</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1645"/>
+  <dimension ref="A1:E1648"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31696,6 +31696,63 @@
         <v>112.5270833333333</v>
       </c>
     </row>
+    <row r="1646">
+      <c r="A1646" t="inlineStr">
+        <is>
+          <t>02/07/2024</t>
+        </is>
+      </c>
+      <c r="B1646" t="n">
+        <v>112.6866666666667</v>
+      </c>
+      <c r="C1646" t="n">
+        <v>112.6691666666667</v>
+      </c>
+      <c r="D1646" t="n">
+        <v>102.78</v>
+      </c>
+      <c r="E1646" t="n">
+        <v>112.6983333333333</v>
+      </c>
+    </row>
+    <row r="1647">
+      <c r="A1647" t="inlineStr">
+        <is>
+          <t>03/07/2024</t>
+        </is>
+      </c>
+      <c r="B1647" t="n">
+        <v>115.9766666666666</v>
+      </c>
+      <c r="C1647" t="n">
+        <v>115.9604166666667</v>
+      </c>
+      <c r="D1647" t="n">
+        <v>107.8995833333333</v>
+      </c>
+      <c r="E1647" t="n">
+        <v>115.9883333333333</v>
+      </c>
+    </row>
+    <row r="1648">
+      <c r="A1648" t="inlineStr">
+        <is>
+          <t>04/07/2024</t>
+        </is>
+      </c>
+      <c r="B1648" t="n">
+        <v>122.2829166666667</v>
+      </c>
+      <c r="C1648" t="n">
+        <v>122.2704166666667</v>
+      </c>
+      <c r="D1648" t="n">
+        <v>116.135</v>
+      </c>
+      <c r="E1648" t="n">
+        <v>122.295</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1648"/>
+  <dimension ref="A1:E1653"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31753,6 +31753,101 @@
         <v>122.295</v>
       </c>
     </row>
+    <row r="1649">
+      <c r="A1649" t="inlineStr">
+        <is>
+          <t>05/07/2024</t>
+        </is>
+      </c>
+      <c r="B1649" t="n">
+        <v>117.3275</v>
+      </c>
+      <c r="C1649" t="n">
+        <v>117.31</v>
+      </c>
+      <c r="D1649" t="n">
+        <v>117.30625</v>
+      </c>
+      <c r="E1649" t="n">
+        <v>117.3429166666667</v>
+      </c>
+    </row>
+    <row r="1650">
+      <c r="A1650" t="inlineStr">
+        <is>
+          <t>06/07/2024</t>
+        </is>
+      </c>
+      <c r="B1650" t="n">
+        <v>96.1075</v>
+      </c>
+      <c r="C1650" t="n">
+        <v>96.07583333333334</v>
+      </c>
+      <c r="D1650" t="n">
+        <v>96.08749999999999</v>
+      </c>
+      <c r="E1650" t="n">
+        <v>96.125</v>
+      </c>
+    </row>
+    <row r="1651">
+      <c r="A1651" t="inlineStr">
+        <is>
+          <t>07/07/2024</t>
+        </is>
+      </c>
+      <c r="B1651" t="n">
+        <v>84.18916666666667</v>
+      </c>
+      <c r="C1651" t="n">
+        <v>84.16166666666666</v>
+      </c>
+      <c r="D1651" t="n">
+        <v>84.17541666666666</v>
+      </c>
+      <c r="E1651" t="n">
+        <v>84.20291666666667</v>
+      </c>
+    </row>
+    <row r="1652">
+      <c r="A1652" t="inlineStr">
+        <is>
+          <t>08/07/2024</t>
+        </is>
+      </c>
+      <c r="B1652" t="n">
+        <v>99.14041666666668</v>
+      </c>
+      <c r="C1652" t="n">
+        <v>99.12875000000001</v>
+      </c>
+      <c r="D1652" t="n">
+        <v>99.11833333333335</v>
+      </c>
+      <c r="E1652" t="n">
+        <v>99.15458333333333</v>
+      </c>
+    </row>
+    <row r="1653">
+      <c r="A1653" t="inlineStr">
+        <is>
+          <t>09/07/2024</t>
+        </is>
+      </c>
+      <c r="B1653" t="n">
+        <v>99.26583333333333</v>
+      </c>
+      <c r="C1653" t="n">
+        <v>99.26166666666666</v>
+      </c>
+      <c r="D1653" t="n">
+        <v>99.24583333333334</v>
+      </c>
+      <c r="E1653" t="n">
+        <v>99.28166666666665</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1653"/>
+  <dimension ref="A1:E1662"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31848,6 +31848,177 @@
         <v>99.28166666666665</v>
       </c>
     </row>
+    <row r="1654">
+      <c r="A1654" t="inlineStr">
+        <is>
+          <t>10/07/2024</t>
+        </is>
+      </c>
+      <c r="B1654" t="n">
+        <v>99.9825</v>
+      </c>
+      <c r="C1654" t="n">
+        <v>99.98291666666667</v>
+      </c>
+      <c r="D1654" t="n">
+        <v>99.96125000000001</v>
+      </c>
+      <c r="E1654" t="n">
+        <v>99.99833333333332</v>
+      </c>
+    </row>
+    <row r="1655">
+      <c r="A1655" t="inlineStr">
+        <is>
+          <t>11/07/2024</t>
+        </is>
+      </c>
+      <c r="B1655" t="n">
+        <v>100.9716666666667</v>
+      </c>
+      <c r="C1655" t="n">
+        <v>100.9758333333333</v>
+      </c>
+      <c r="D1655" t="n">
+        <v>95.10875</v>
+      </c>
+      <c r="E1655" t="n">
+        <v>100.9816666666667</v>
+      </c>
+    </row>
+    <row r="1656">
+      <c r="A1656" t="inlineStr">
+        <is>
+          <t>12/07/2024</t>
+        </is>
+      </c>
+      <c r="B1656" t="n">
+        <v>96.74791666666665</v>
+      </c>
+      <c r="C1656" t="n">
+        <v>96.75083333333333</v>
+      </c>
+      <c r="D1656" t="n">
+        <v>87.04166666666667</v>
+      </c>
+      <c r="E1656" t="n">
+        <v>96.75624999999998</v>
+      </c>
+    </row>
+    <row r="1657">
+      <c r="A1657" t="inlineStr">
+        <is>
+          <t>13/07/2024</t>
+        </is>
+      </c>
+      <c r="B1657" t="n">
+        <v>77.71833333333333</v>
+      </c>
+      <c r="C1657" t="n">
+        <v>77.71833333333333</v>
+      </c>
+      <c r="D1657" t="n">
+        <v>77.71833333333333</v>
+      </c>
+      <c r="E1657" t="n">
+        <v>77.71833333333333</v>
+      </c>
+    </row>
+    <row r="1658">
+      <c r="A1658" t="inlineStr">
+        <is>
+          <t>14/07/2024</t>
+        </is>
+      </c>
+      <c r="B1658" t="n">
+        <v>69.52875000000002</v>
+      </c>
+      <c r="C1658" t="n">
+        <v>69.51791666666668</v>
+      </c>
+      <c r="D1658" t="n">
+        <v>69.51958333333334</v>
+      </c>
+      <c r="E1658" t="n">
+        <v>69.53750000000001</v>
+      </c>
+    </row>
+    <row r="1659">
+      <c r="A1659" t="inlineStr">
+        <is>
+          <t>15/07/2024</t>
+        </is>
+      </c>
+      <c r="B1659" t="n">
+        <v>79.41916666666667</v>
+      </c>
+      <c r="C1659" t="n">
+        <v>79.41416666666666</v>
+      </c>
+      <c r="D1659" t="n">
+        <v>75.40458333333335</v>
+      </c>
+      <c r="E1659" t="n">
+        <v>79.43041666666666</v>
+      </c>
+    </row>
+    <row r="1660">
+      <c r="A1660" t="inlineStr">
+        <is>
+          <t>16/07/2024</t>
+        </is>
+      </c>
+      <c r="B1660" t="n">
+        <v>79.80291666666666</v>
+      </c>
+      <c r="C1660" t="n">
+        <v>79.78749999999999</v>
+      </c>
+      <c r="D1660" t="n">
+        <v>74.80291666666668</v>
+      </c>
+      <c r="E1660" t="n">
+        <v>79.81291666666668</v>
+      </c>
+    </row>
+    <row r="1661">
+      <c r="A1661" t="inlineStr">
+        <is>
+          <t>17/07/2024</t>
+        </is>
+      </c>
+      <c r="B1661" t="n">
+        <v>80.96833333333332</v>
+      </c>
+      <c r="C1661" t="n">
+        <v>80.95624999999998</v>
+      </c>
+      <c r="D1661" t="n">
+        <v>76.5825</v>
+      </c>
+      <c r="E1661" t="n">
+        <v>80.97708333333331</v>
+      </c>
+    </row>
+    <row r="1662">
+      <c r="A1662" t="inlineStr">
+        <is>
+          <t>18/07/2024</t>
+        </is>
+      </c>
+      <c r="B1662" t="n">
+        <v>84.77291666666666</v>
+      </c>
+      <c r="C1662" t="n">
+        <v>84.75</v>
+      </c>
+      <c r="D1662" t="n">
+        <v>84.06666666666668</v>
+      </c>
+      <c r="E1662" t="n">
+        <v>84.78458333333334</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1662"/>
+  <dimension ref="A1:E1667"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32019,6 +32019,101 @@
         <v>84.78458333333334</v>
       </c>
     </row>
+    <row r="1663">
+      <c r="A1663" t="inlineStr">
+        <is>
+          <t>19/07/2024</t>
+        </is>
+      </c>
+      <c r="B1663" t="n">
+        <v>79.48375</v>
+      </c>
+      <c r="C1663" t="n">
+        <v>79.46166666666667</v>
+      </c>
+      <c r="D1663" t="n">
+        <v>77.36583333333334</v>
+      </c>
+      <c r="E1663" t="n">
+        <v>79.49500000000002</v>
+      </c>
+    </row>
+    <row r="1664">
+      <c r="A1664" t="inlineStr">
+        <is>
+          <t>20/07/2024</t>
+        </is>
+      </c>
+      <c r="B1664" t="n">
+        <v>69.36041666666667</v>
+      </c>
+      <c r="C1664" t="n">
+        <v>69.33375000000001</v>
+      </c>
+      <c r="D1664" t="n">
+        <v>68.95666666666668</v>
+      </c>
+      <c r="E1664" t="n">
+        <v>69.37208333333332</v>
+      </c>
+    </row>
+    <row r="1665">
+      <c r="A1665" t="inlineStr">
+        <is>
+          <t>21/07/2024</t>
+        </is>
+      </c>
+      <c r="B1665" t="n">
+        <v>67.84833333333334</v>
+      </c>
+      <c r="C1665" t="n">
+        <v>67.82666666666667</v>
+      </c>
+      <c r="D1665" t="n">
+        <v>67.83583333333333</v>
+      </c>
+      <c r="E1665" t="n">
+        <v>67.86000000000003</v>
+      </c>
+    </row>
+    <row r="1666">
+      <c r="A1666" t="inlineStr">
+        <is>
+          <t>22/07/2024</t>
+        </is>
+      </c>
+      <c r="B1666" t="n">
+        <v>72.90083333333334</v>
+      </c>
+      <c r="C1666" t="n">
+        <v>72.8875</v>
+      </c>
+      <c r="D1666" t="n">
+        <v>70.13083333333333</v>
+      </c>
+      <c r="E1666" t="n">
+        <v>72.91541666666667</v>
+      </c>
+    </row>
+    <row r="1667">
+      <c r="A1667" t="inlineStr">
+        <is>
+          <t>23/07/2024</t>
+        </is>
+      </c>
+      <c r="B1667" t="n">
+        <v>73.61583333333336</v>
+      </c>
+      <c r="C1667" t="n">
+        <v>73.59625000000001</v>
+      </c>
+      <c r="D1667" t="n">
+        <v>69.59291666666668</v>
+      </c>
+      <c r="E1667" t="n">
+        <v>73.62750000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1667"/>
+  <dimension ref="A1:E1675"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32114,6 +32114,158 @@
         <v>73.62750000000001</v>
       </c>
     </row>
+    <row r="1668">
+      <c r="A1668" t="inlineStr">
+        <is>
+          <t>24/07/2024</t>
+        </is>
+      </c>
+      <c r="B1668" t="n">
+        <v>75.25958333333334</v>
+      </c>
+      <c r="C1668" t="n">
+        <v>75.24166666666666</v>
+      </c>
+      <c r="D1668" t="n">
+        <v>72.07583333333335</v>
+      </c>
+      <c r="E1668" t="n">
+        <v>75.26833333333333</v>
+      </c>
+    </row>
+    <row r="1669">
+      <c r="A1669" t="inlineStr">
+        <is>
+          <t>25/07/2024</t>
+        </is>
+      </c>
+      <c r="B1669" t="n">
+        <v>82.46333333333335</v>
+      </c>
+      <c r="C1669" t="n">
+        <v>82.44250000000001</v>
+      </c>
+      <c r="D1669" t="n">
+        <v>80.31666666666669</v>
+      </c>
+      <c r="E1669" t="n">
+        <v>82.47333333333334</v>
+      </c>
+    </row>
+    <row r="1670">
+      <c r="A1670" t="inlineStr">
+        <is>
+          <t>26/07/2024</t>
+        </is>
+      </c>
+      <c r="B1670" t="n">
+        <v>74.85916666666665</v>
+      </c>
+      <c r="C1670" t="n">
+        <v>74.83833333333332</v>
+      </c>
+      <c r="D1670" t="n">
+        <v>72.32416666666667</v>
+      </c>
+      <c r="E1670" t="n">
+        <v>74.87166666666666</v>
+      </c>
+    </row>
+    <row r="1671">
+      <c r="A1671" t="inlineStr">
+        <is>
+          <t>27/07/2024</t>
+        </is>
+      </c>
+      <c r="B1671" t="n">
+        <v>72.30833333333332</v>
+      </c>
+      <c r="C1671" t="n">
+        <v>72.28708333333333</v>
+      </c>
+      <c r="D1671" t="n">
+        <v>69.63416666666667</v>
+      </c>
+      <c r="E1671" t="n">
+        <v>72.32416666666664</v>
+      </c>
+    </row>
+    <row r="1672">
+      <c r="A1672" t="inlineStr">
+        <is>
+          <t>28/07/2024</t>
+        </is>
+      </c>
+      <c r="B1672" t="n">
+        <v>69.37000000000002</v>
+      </c>
+      <c r="C1672" t="n">
+        <v>69.34500000000003</v>
+      </c>
+      <c r="D1672" t="n">
+        <v>69.08708333333335</v>
+      </c>
+      <c r="E1672" t="n">
+        <v>69.3829166666667</v>
+      </c>
+    </row>
+    <row r="1673">
+      <c r="A1673" t="inlineStr">
+        <is>
+          <t>29/07/2024</t>
+        </is>
+      </c>
+      <c r="B1673" t="n">
+        <v>81.08499999999998</v>
+      </c>
+      <c r="C1673" t="n">
+        <v>81.06999999999999</v>
+      </c>
+      <c r="D1673" t="n">
+        <v>80.06208333333333</v>
+      </c>
+      <c r="E1673" t="n">
+        <v>81.09999999999998</v>
+      </c>
+    </row>
+    <row r="1674">
+      <c r="A1674" t="inlineStr">
+        <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B1674" t="n">
+        <v>76.92875000000002</v>
+      </c>
+      <c r="C1674" t="n">
+        <v>76.90375</v>
+      </c>
+      <c r="D1674" t="n">
+        <v>76.90583333333336</v>
+      </c>
+      <c r="E1674" t="n">
+        <v>76.94541666666669</v>
+      </c>
+    </row>
+    <row r="1675">
+      <c r="A1675" t="inlineStr">
+        <is>
+          <t>31/07/2024</t>
+        </is>
+      </c>
+      <c r="B1675" t="n">
+        <v>74.265</v>
+      </c>
+      <c r="C1675" t="n">
+        <v>74.24624999999997</v>
+      </c>
+      <c r="D1675" t="n">
+        <v>69.02125000000002</v>
+      </c>
+      <c r="E1675" t="n">
+        <v>74.28083333333335</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1675"/>
+  <dimension ref="A1:E1682"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32266,6 +32266,139 @@
         <v>74.28083333333335</v>
       </c>
     </row>
+    <row r="1676">
+      <c r="A1676" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B1676" t="n">
+        <v>74.30541666666667</v>
+      </c>
+      <c r="C1676" t="n">
+        <v>74.28333333333335</v>
+      </c>
+      <c r="D1676" t="n">
+        <v>70.18500000000002</v>
+      </c>
+      <c r="E1676" t="n">
+        <v>74.32000000000001</v>
+      </c>
+    </row>
+    <row r="1677">
+      <c r="A1677" t="inlineStr">
+        <is>
+          <t>02/08/2024</t>
+        </is>
+      </c>
+      <c r="B1677" t="n">
+        <v>73.63458333333334</v>
+      </c>
+      <c r="C1677" t="n">
+        <v>73.60708333333334</v>
+      </c>
+      <c r="D1677" t="n">
+        <v>69.56708333333334</v>
+      </c>
+      <c r="E1677" t="n">
+        <v>73.65000000000001</v>
+      </c>
+    </row>
+    <row r="1678">
+      <c r="A1678" t="inlineStr">
+        <is>
+          <t>03/08/2024</t>
+        </is>
+      </c>
+      <c r="B1678" t="n">
+        <v>100.2133333333334</v>
+      </c>
+      <c r="C1678" t="n">
+        <v>100.1866666666667</v>
+      </c>
+      <c r="D1678" t="n">
+        <v>81.33874999999999</v>
+      </c>
+      <c r="E1678" t="n">
+        <v>100.2283333333333</v>
+      </c>
+    </row>
+    <row r="1679">
+      <c r="A1679" t="inlineStr">
+        <is>
+          <t>04/08/2024</t>
+        </is>
+      </c>
+      <c r="B1679" t="n">
+        <v>93.54708333333332</v>
+      </c>
+      <c r="C1679" t="n">
+        <v>93.54625</v>
+      </c>
+      <c r="D1679" t="n">
+        <v>75.59124999999999</v>
+      </c>
+      <c r="E1679" t="n">
+        <v>93.56249999999999</v>
+      </c>
+    </row>
+    <row r="1680">
+      <c r="A1680" t="inlineStr">
+        <is>
+          <t>05/08/2024</t>
+        </is>
+      </c>
+      <c r="B1680" t="n">
+        <v>110.09625</v>
+      </c>
+      <c r="C1680" t="n">
+        <v>110.0916666666667</v>
+      </c>
+      <c r="D1680" t="n">
+        <v>92.40708333333333</v>
+      </c>
+      <c r="E1680" t="n">
+        <v>110.1079166666667</v>
+      </c>
+    </row>
+    <row r="1681">
+      <c r="A1681" t="inlineStr">
+        <is>
+          <t>06/08/2024</t>
+        </is>
+      </c>
+      <c r="B1681" t="n">
+        <v>110.3558333333333</v>
+      </c>
+      <c r="C1681" t="n">
+        <v>110.35375</v>
+      </c>
+      <c r="D1681" t="n">
+        <v>84.27416666666669</v>
+      </c>
+      <c r="E1681" t="n">
+        <v>110.36875</v>
+      </c>
+    </row>
+    <row r="1682">
+      <c r="A1682" t="inlineStr">
+        <is>
+          <t>07/08/2024</t>
+        </is>
+      </c>
+      <c r="B1682" t="n">
+        <v>128.6116666666667</v>
+      </c>
+      <c r="C1682" t="n">
+        <v>128.6029166666667</v>
+      </c>
+      <c r="D1682" t="n">
+        <v>119.0066666666667</v>
+      </c>
+      <c r="E1682" t="n">
+        <v>128.62375</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1682"/>
+  <dimension ref="A1:E1687"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32399,6 +32399,101 @@
         <v>128.62375</v>
       </c>
     </row>
+    <row r="1683">
+      <c r="A1683" t="inlineStr">
+        <is>
+          <t>08/08/2024</t>
+        </is>
+      </c>
+      <c r="B1683" t="n">
+        <v>112.15375</v>
+      </c>
+      <c r="C1683" t="n">
+        <v>112.14</v>
+      </c>
+      <c r="D1683" t="n">
+        <v>112.1304166666666</v>
+      </c>
+      <c r="E1683" t="n">
+        <v>112.1695833333333</v>
+      </c>
+    </row>
+    <row r="1684">
+      <c r="A1684" t="inlineStr">
+        <is>
+          <t>09/08/2024</t>
+        </is>
+      </c>
+      <c r="B1684" t="n">
+        <v>110.85125</v>
+      </c>
+      <c r="C1684" t="n">
+        <v>110.8216666666667</v>
+      </c>
+      <c r="D1684" t="n">
+        <v>110.83125</v>
+      </c>
+      <c r="E1684" t="n">
+        <v>110.8691666666667</v>
+      </c>
+    </row>
+    <row r="1685">
+      <c r="A1685" t="inlineStr">
+        <is>
+          <t>10/08/2024</t>
+        </is>
+      </c>
+      <c r="B1685" t="n">
+        <v>122.5433333333333</v>
+      </c>
+      <c r="C1685" t="n">
+        <v>122.5391666666666</v>
+      </c>
+      <c r="D1685" t="n">
+        <v>122.5233333333333</v>
+      </c>
+      <c r="E1685" t="n">
+        <v>122.5604166666667</v>
+      </c>
+    </row>
+    <row r="1686">
+      <c r="A1686" t="inlineStr">
+        <is>
+          <t>11/08/2024</t>
+        </is>
+      </c>
+      <c r="B1686" t="n">
+        <v>104.3333333333333</v>
+      </c>
+      <c r="C1686" t="n">
+        <v>104.3166666666667</v>
+      </c>
+      <c r="D1686" t="n">
+        <v>104.3179166666667</v>
+      </c>
+      <c r="E1686" t="n">
+        <v>104.3483333333333</v>
+      </c>
+    </row>
+    <row r="1687">
+      <c r="A1687" t="inlineStr">
+        <is>
+          <t>12/08/2024</t>
+        </is>
+      </c>
+      <c r="B1687" t="n">
+        <v>163.86125</v>
+      </c>
+      <c r="C1687" t="n">
+        <v>163.8683333333333</v>
+      </c>
+      <c r="D1687" t="n">
+        <v>163.84125</v>
+      </c>
+      <c r="E1687" t="n">
+        <v>163.8770833333333</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1687"/>
+  <dimension ref="A1:E1689"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32494,6 +32494,44 @@
         <v>163.8770833333333</v>
       </c>
     </row>
+    <row r="1688">
+      <c r="A1688" t="inlineStr">
+        <is>
+          <t>13/08/2024</t>
+        </is>
+      </c>
+      <c r="B1688" t="n">
+        <v>120.3333333333333</v>
+      </c>
+      <c r="C1688" t="n">
+        <v>120.345</v>
+      </c>
+      <c r="D1688" t="n">
+        <v>120.3104166666667</v>
+      </c>
+      <c r="E1688" t="n">
+        <v>120.3520833333333</v>
+      </c>
+    </row>
+    <row r="1689">
+      <c r="A1689" t="inlineStr">
+        <is>
+          <t>14/08/2024</t>
+        </is>
+      </c>
+      <c r="B1689" t="n">
+        <v>121.5083333333333</v>
+      </c>
+      <c r="C1689" t="n">
+        <v>121.5308333333333</v>
+      </c>
+      <c r="D1689" t="n">
+        <v>81.84375000000001</v>
+      </c>
+      <c r="E1689" t="n">
+        <v>121.5216666666667</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1689"/>
+  <dimension ref="A1:E1696"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32532,6 +32532,139 @@
         <v>121.5216666666667</v>
       </c>
     </row>
+    <row r="1690">
+      <c r="A1690" t="inlineStr">
+        <is>
+          <t>15/08/2024</t>
+        </is>
+      </c>
+      <c r="B1690" t="n">
+        <v>119.7154166666667</v>
+      </c>
+      <c r="C1690" t="n">
+        <v>119.7320833333334</v>
+      </c>
+      <c r="D1690" t="n">
+        <v>101.4358333333333</v>
+      </c>
+      <c r="E1690" t="n">
+        <v>119.7304166666667</v>
+      </c>
+    </row>
+    <row r="1691">
+      <c r="A1691" t="inlineStr">
+        <is>
+          <t>16/08/2024</t>
+        </is>
+      </c>
+      <c r="B1691" t="n">
+        <v>124.1108333333333</v>
+      </c>
+      <c r="C1691" t="n">
+        <v>124.1170833333334</v>
+      </c>
+      <c r="D1691" t="n">
+        <v>103.7845833333333</v>
+      </c>
+      <c r="E1691" t="n">
+        <v>124.1233333333333</v>
+      </c>
+    </row>
+    <row r="1692">
+      <c r="A1692" t="inlineStr">
+        <is>
+          <t>17/08/2024</t>
+        </is>
+      </c>
+      <c r="B1692" t="n">
+        <v>108.9966666666667</v>
+      </c>
+      <c r="C1692" t="n">
+        <v>108.9970833333334</v>
+      </c>
+      <c r="D1692" t="n">
+        <v>96.76000000000001</v>
+      </c>
+      <c r="E1692" t="n">
+        <v>109.01125</v>
+      </c>
+    </row>
+    <row r="1693">
+      <c r="A1693" t="inlineStr">
+        <is>
+          <t>18/08/2024</t>
+        </is>
+      </c>
+      <c r="B1693" t="n">
+        <v>97.16833333333334</v>
+      </c>
+      <c r="C1693" t="n">
+        <v>97.15833333333332</v>
+      </c>
+      <c r="D1693" t="n">
+        <v>92.89125</v>
+      </c>
+      <c r="E1693" t="n">
+        <v>97.18041666666666</v>
+      </c>
+    </row>
+    <row r="1694">
+      <c r="A1694" t="inlineStr">
+        <is>
+          <t>19/08/2024</t>
+        </is>
+      </c>
+      <c r="B1694" t="n">
+        <v>172.9295833333333</v>
+      </c>
+      <c r="C1694" t="n">
+        <v>172.9320833333333</v>
+      </c>
+      <c r="D1694" t="n">
+        <v>165.0595833333333</v>
+      </c>
+      <c r="E1694" t="n">
+        <v>172.94375</v>
+      </c>
+    </row>
+    <row r="1695">
+      <c r="A1695" t="inlineStr">
+        <is>
+          <t>20/08/2024</t>
+        </is>
+      </c>
+      <c r="B1695" t="n">
+        <v>123.69625</v>
+      </c>
+      <c r="C1695" t="n">
+        <v>123.6920833333333</v>
+      </c>
+      <c r="D1695" t="n">
+        <v>119.7108333333334</v>
+      </c>
+      <c r="E1695" t="n">
+        <v>123.7120833333333</v>
+      </c>
+    </row>
+    <row r="1696">
+      <c r="A1696" t="inlineStr">
+        <is>
+          <t>21/08/2024</t>
+        </is>
+      </c>
+      <c r="B1696" t="n">
+        <v>111.45625</v>
+      </c>
+      <c r="C1696" t="n">
+        <v>111.4570833333333</v>
+      </c>
+      <c r="D1696" t="n">
+        <v>100.6904166666667</v>
+      </c>
+      <c r="E1696" t="n">
+        <v>111.4691666666667</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1696"/>
+  <dimension ref="A1:E1701"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32665,6 +32665,101 @@
         <v>111.4691666666667</v>
       </c>
     </row>
+    <row r="1697">
+      <c r="A1697" t="inlineStr">
+        <is>
+          <t>22/08/2024</t>
+        </is>
+      </c>
+      <c r="B1697" t="n">
+        <v>118.4383333333333</v>
+      </c>
+      <c r="C1697" t="n">
+        <v>118.4441666666667</v>
+      </c>
+      <c r="D1697" t="n">
+        <v>86.24250000000001</v>
+      </c>
+      <c r="E1697" t="n">
+        <v>118.4508333333333</v>
+      </c>
+    </row>
+    <row r="1698">
+      <c r="A1698" t="inlineStr">
+        <is>
+          <t>23/08/2024</t>
+        </is>
+      </c>
+      <c r="B1698" t="n">
+        <v>118.385</v>
+      </c>
+      <c r="C1698" t="n">
+        <v>118.38375</v>
+      </c>
+      <c r="D1698" t="n">
+        <v>98.6425</v>
+      </c>
+      <c r="E1698" t="n">
+        <v>118.3979166666667</v>
+      </c>
+    </row>
+    <row r="1699">
+      <c r="A1699" t="inlineStr">
+        <is>
+          <t>24/08/2024</t>
+        </is>
+      </c>
+      <c r="B1699" t="n">
+        <v>106.79625</v>
+      </c>
+      <c r="C1699" t="n">
+        <v>106.7925</v>
+      </c>
+      <c r="D1699" t="n">
+        <v>97.22958333333337</v>
+      </c>
+      <c r="E1699" t="n">
+        <v>106.8120833333333</v>
+      </c>
+    </row>
+    <row r="1700">
+      <c r="A1700" t="inlineStr">
+        <is>
+          <t>25/08/2024</t>
+        </is>
+      </c>
+      <c r="B1700" t="n">
+        <v>95.94041666666668</v>
+      </c>
+      <c r="C1700" t="n">
+        <v>95.92291666666667</v>
+      </c>
+      <c r="D1700" t="n">
+        <v>94.78083333333335</v>
+      </c>
+      <c r="E1700" t="n">
+        <v>95.95708333333334</v>
+      </c>
+    </row>
+    <row r="1701">
+      <c r="A1701" t="inlineStr">
+        <is>
+          <t>26/08/2024</t>
+        </is>
+      </c>
+      <c r="B1701" t="n">
+        <v>110.425</v>
+      </c>
+      <c r="C1701" t="n">
+        <v>110.4329166666667</v>
+      </c>
+      <c r="D1701" t="n">
+        <v>104.5504166666667</v>
+      </c>
+      <c r="E1701" t="n">
+        <v>110.4433333333333</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1701"/>
+  <dimension ref="A1:E1704"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32760,6 +32760,63 @@
         <v>110.4433333333333</v>
       </c>
     </row>
+    <row r="1702">
+      <c r="A1702" t="inlineStr">
+        <is>
+          <t>27/08/2024</t>
+        </is>
+      </c>
+      <c r="B1702" t="n">
+        <v>116.0654166666667</v>
+      </c>
+      <c r="C1702" t="n">
+        <v>116.0791666666667</v>
+      </c>
+      <c r="D1702" t="n">
+        <v>82.94791666666667</v>
+      </c>
+      <c r="E1702" t="n">
+        <v>116.0820833333333</v>
+      </c>
+    </row>
+    <row r="1703">
+      <c r="A1703" t="inlineStr">
+        <is>
+          <t>28/08/2024</t>
+        </is>
+      </c>
+      <c r="B1703" t="n">
+        <v>108.1241666666667</v>
+      </c>
+      <c r="C1703" t="n">
+        <v>108.1345833333333</v>
+      </c>
+      <c r="D1703" t="n">
+        <v>83.24166666666667</v>
+      </c>
+      <c r="E1703" t="n">
+        <v>108.1429166666667</v>
+      </c>
+    </row>
+    <row r="1704">
+      <c r="A1704" t="inlineStr">
+        <is>
+          <t>29/08/2024</t>
+        </is>
+      </c>
+      <c r="B1704" t="n">
+        <v>116.4379166666667</v>
+      </c>
+      <c r="C1704" t="n">
+        <v>116.4504166666667</v>
+      </c>
+      <c r="D1704" t="n">
+        <v>83.8875</v>
+      </c>
+      <c r="E1704" t="n">
+        <v>116.455</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1704"/>
+  <dimension ref="A1:E1706"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32817,6 +32817,44 @@
         <v>116.455</v>
       </c>
     </row>
+    <row r="1705">
+      <c r="A1705" t="inlineStr">
+        <is>
+          <t>30/08/2024</t>
+        </is>
+      </c>
+      <c r="B1705" t="n">
+        <v>107.9441666666667</v>
+      </c>
+      <c r="C1705" t="n">
+        <v>107.9429166666667</v>
+      </c>
+      <c r="D1705" t="n">
+        <v>89.2925</v>
+      </c>
+      <c r="E1705" t="n">
+        <v>107.9616666666667</v>
+      </c>
+    </row>
+    <row r="1706">
+      <c r="A1706" t="inlineStr">
+        <is>
+          <t>31/08/2024</t>
+        </is>
+      </c>
+      <c r="B1706" t="n">
+        <v>279.475</v>
+      </c>
+      <c r="C1706" t="n">
+        <v>279.49625</v>
+      </c>
+      <c r="D1706" t="n">
+        <v>209.1645833333334</v>
+      </c>
+      <c r="E1706" t="n">
+        <v>279.4879166666666</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1706"/>
+  <dimension ref="A1:E1710"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32855,6 +32855,82 @@
         <v>279.4879166666666</v>
       </c>
     </row>
+    <row r="1707">
+      <c r="A1707" t="inlineStr">
+        <is>
+          <t>01/09/2024</t>
+        </is>
+      </c>
+      <c r="B1707" t="n">
+        <v>185.5083333333333</v>
+      </c>
+      <c r="C1707" t="n">
+        <v>185.5204166666667</v>
+      </c>
+      <c r="D1707" t="n">
+        <v>172.23375</v>
+      </c>
+      <c r="E1707" t="n">
+        <v>185.5208333333334</v>
+      </c>
+    </row>
+    <row r="1708">
+      <c r="A1708" t="inlineStr">
+        <is>
+          <t>02/09/2024</t>
+        </is>
+      </c>
+      <c r="B1708" t="n">
+        <v>252.0495833333333</v>
+      </c>
+      <c r="C1708" t="n">
+        <v>252.075</v>
+      </c>
+      <c r="D1708" t="n">
+        <v>221.6558333333333</v>
+      </c>
+      <c r="E1708" t="n">
+        <v>252.0629166666666</v>
+      </c>
+    </row>
+    <row r="1709">
+      <c r="A1709" t="inlineStr">
+        <is>
+          <t>03/09/2024</t>
+        </is>
+      </c>
+      <c r="B1709" t="n">
+        <v>250.9379166666666</v>
+      </c>
+      <c r="C1709" t="n">
+        <v>250.9625</v>
+      </c>
+      <c r="D1709" t="n">
+        <v>250.91375</v>
+      </c>
+      <c r="E1709" t="n">
+        <v>250.95375</v>
+      </c>
+    </row>
+    <row r="1710">
+      <c r="A1710" t="inlineStr">
+        <is>
+          <t>04/09/2024</t>
+        </is>
+      </c>
+      <c r="B1710" t="n">
+        <v>253.9291666666667</v>
+      </c>
+      <c r="C1710" t="n">
+        <v>253.945</v>
+      </c>
+      <c r="D1710" t="n">
+        <v>199.1083333333333</v>
+      </c>
+      <c r="E1710" t="n">
+        <v>253.94</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1710"/>
+  <dimension ref="A1:E1719"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32931,6 +32931,177 @@
         <v>253.94</v>
       </c>
     </row>
+    <row r="1711">
+      <c r="A1711" t="inlineStr">
+        <is>
+          <t>05/09/2024</t>
+        </is>
+      </c>
+      <c r="B1711" t="n">
+        <v>285.2808333333333</v>
+      </c>
+      <c r="C1711" t="n">
+        <v>285.295</v>
+      </c>
+      <c r="D1711" t="n">
+        <v>254.6954166666667</v>
+      </c>
+      <c r="E1711" t="n">
+        <v>285.29375</v>
+      </c>
+    </row>
+    <row r="1712">
+      <c r="A1712" t="inlineStr">
+        <is>
+          <t>06/09/2024</t>
+        </is>
+      </c>
+      <c r="B1712" t="n">
+        <v>250.9270833333334</v>
+      </c>
+      <c r="C1712" t="n">
+        <v>250.9358333333333</v>
+      </c>
+      <c r="D1712" t="n">
+        <v>244.6316666666667</v>
+      </c>
+      <c r="E1712" t="n">
+        <v>250.9425</v>
+      </c>
+    </row>
+    <row r="1713">
+      <c r="A1713" t="inlineStr">
+        <is>
+          <t>07/09/2024</t>
+        </is>
+      </c>
+      <c r="B1713" t="n">
+        <v>247.2675</v>
+      </c>
+      <c r="C1713" t="n">
+        <v>247.2983333333334</v>
+      </c>
+      <c r="D1713" t="n">
+        <v>158.9770833333333</v>
+      </c>
+      <c r="E1713" t="n">
+        <v>247.2783333333333</v>
+      </c>
+    </row>
+    <row r="1714">
+      <c r="A1714" t="inlineStr">
+        <is>
+          <t>08/09/2024</t>
+        </is>
+      </c>
+      <c r="B1714" t="n">
+        <v>208.1470833333334</v>
+      </c>
+      <c r="C1714" t="n">
+        <v>208.1637500000001</v>
+      </c>
+      <c r="D1714" t="n">
+        <v>159.4470833333333</v>
+      </c>
+      <c r="E1714" t="n">
+        <v>208.1541666666667</v>
+      </c>
+    </row>
+    <row r="1715">
+      <c r="A1715" t="inlineStr">
+        <is>
+          <t>09/09/2024</t>
+        </is>
+      </c>
+      <c r="B1715" t="n">
+        <v>280.6075000000001</v>
+      </c>
+      <c r="C1715" t="n">
+        <v>280.63625</v>
+      </c>
+      <c r="D1715" t="n">
+        <v>202.695</v>
+      </c>
+      <c r="E1715" t="n">
+        <v>280.61375</v>
+      </c>
+    </row>
+    <row r="1716">
+      <c r="A1716" t="inlineStr">
+        <is>
+          <t>10/09/2024</t>
+        </is>
+      </c>
+      <c r="B1716" t="n">
+        <v>349.1283333333333</v>
+      </c>
+      <c r="C1716" t="n">
+        <v>349.1566666666667</v>
+      </c>
+      <c r="D1716" t="n">
+        <v>207.5133333333333</v>
+      </c>
+      <c r="E1716" t="n">
+        <v>349.1345833333333</v>
+      </c>
+    </row>
+    <row r="1717">
+      <c r="A1717" t="inlineStr">
+        <is>
+          <t>11/09/2024</t>
+        </is>
+      </c>
+      <c r="B1717" t="n">
+        <v>291.3629166666666</v>
+      </c>
+      <c r="C1717" t="n">
+        <v>291.3895833333333</v>
+      </c>
+      <c r="D1717" t="n">
+        <v>189.34625</v>
+      </c>
+      <c r="E1717" t="n">
+        <v>292.8795833333333</v>
+      </c>
+    </row>
+    <row r="1718">
+      <c r="A1718" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B1718" t="n">
+        <v>284.8833333333333</v>
+      </c>
+      <c r="C1718" t="n">
+        <v>284.9083333333333</v>
+      </c>
+      <c r="D1718" t="n">
+        <v>186.5783333333333</v>
+      </c>
+      <c r="E1718" t="n">
+        <v>286.88625</v>
+      </c>
+    </row>
+    <row r="1719">
+      <c r="A1719" t="inlineStr">
+        <is>
+          <t>13/09/2024</t>
+        </is>
+      </c>
+      <c r="B1719" t="n">
+        <v>287.7991666666666</v>
+      </c>
+      <c r="C1719" t="n">
+        <v>287.82375</v>
+      </c>
+      <c r="D1719" t="n">
+        <v>196.1904166666667</v>
+      </c>
+      <c r="E1719" t="n">
+        <v>290.8670833333334</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1719"/>
+  <dimension ref="A1:E1723"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33102,6 +33102,82 @@
         <v>290.8670833333334</v>
       </c>
     </row>
+    <row r="1720">
+      <c r="A1720" t="inlineStr">
+        <is>
+          <t>14/09/2024</t>
+        </is>
+      </c>
+      <c r="B1720" t="n">
+        <v>388.7683333333334</v>
+      </c>
+      <c r="C1720" t="n">
+        <v>391.7825</v>
+      </c>
+      <c r="D1720" t="n">
+        <v>279.9133333333334</v>
+      </c>
+      <c r="E1720" t="n">
+        <v>423.8437500000001</v>
+      </c>
+    </row>
+    <row r="1721">
+      <c r="A1721" t="inlineStr">
+        <is>
+          <t>15/09/2024</t>
+        </is>
+      </c>
+      <c r="B1721" t="n">
+        <v>302.6491666666666</v>
+      </c>
+      <c r="C1721" t="n">
+        <v>302.6458333333334</v>
+      </c>
+      <c r="D1721" t="n">
+        <v>253.4375</v>
+      </c>
+      <c r="E1721" t="n">
+        <v>302.6633333333334</v>
+      </c>
+    </row>
+    <row r="1722">
+      <c r="A1722" t="inlineStr">
+        <is>
+          <t>16/09/2024</t>
+        </is>
+      </c>
+      <c r="B1722" t="n">
+        <v>394.4137499999999</v>
+      </c>
+      <c r="C1722" t="n">
+        <v>396.9645833333334</v>
+      </c>
+      <c r="D1722" t="n">
+        <v>303.95875</v>
+      </c>
+      <c r="E1722" t="n">
+        <v>602.5095833333334</v>
+      </c>
+    </row>
+    <row r="1723">
+      <c r="A1723" t="inlineStr">
+        <is>
+          <t>17/09/2024</t>
+        </is>
+      </c>
+      <c r="B1723" t="n">
+        <v>313.4729166666667</v>
+      </c>
+      <c r="C1723" t="n">
+        <v>313.4725</v>
+      </c>
+      <c r="D1723" t="n">
+        <v>271.8079166666667</v>
+      </c>
+      <c r="E1723" t="n">
+        <v>313.9783333333333</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1723"/>
+  <dimension ref="A1:E1725"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33178,6 +33178,44 @@
         <v>313.9783333333333</v>
       </c>
     </row>
+    <row r="1724">
+      <c r="A1724" t="inlineStr">
+        <is>
+          <t>18/09/2024</t>
+        </is>
+      </c>
+      <c r="B1724" t="n">
+        <v>263.8375</v>
+      </c>
+      <c r="C1724" t="n">
+        <v>263.84</v>
+      </c>
+      <c r="D1724" t="n">
+        <v>189.3883333333333</v>
+      </c>
+      <c r="E1724" t="n">
+        <v>263.8520833333333</v>
+      </c>
+    </row>
+    <row r="1725">
+      <c r="A1725" t="inlineStr">
+        <is>
+          <t>19/09/2024</t>
+        </is>
+      </c>
+      <c r="B1725" t="n">
+        <v>267.0475</v>
+      </c>
+      <c r="C1725" t="n">
+        <v>267.0483333333332</v>
+      </c>
+      <c r="D1725" t="n">
+        <v>213.7266666666667</v>
+      </c>
+      <c r="E1725" t="n">
+        <v>267.26875</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1725"/>
+  <dimension ref="A1:E1730"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33216,6 +33216,101 @@
         <v>267.26875</v>
       </c>
     </row>
+    <row r="1726">
+      <c r="A1726" t="inlineStr">
+        <is>
+          <t>20/09/2024</t>
+        </is>
+      </c>
+      <c r="B1726" t="n">
+        <v>269.1966666666666</v>
+      </c>
+      <c r="C1726" t="n">
+        <v>269.2008333333333</v>
+      </c>
+      <c r="D1726" t="n">
+        <v>223.5308333333334</v>
+      </c>
+      <c r="E1726" t="n">
+        <v>269.4770833333333</v>
+      </c>
+    </row>
+    <row r="1727">
+      <c r="A1727" t="inlineStr">
+        <is>
+          <t>21/09/2024</t>
+        </is>
+      </c>
+      <c r="B1727" t="n">
+        <v>247.645</v>
+      </c>
+      <c r="C1727" t="n">
+        <v>247.62</v>
+      </c>
+      <c r="D1727" t="n">
+        <v>220.4529166666667</v>
+      </c>
+      <c r="E1727" t="n">
+        <v>247.7666666666666</v>
+      </c>
+    </row>
+    <row r="1728">
+      <c r="A1728" t="inlineStr">
+        <is>
+          <t>22/09/2024</t>
+        </is>
+      </c>
+      <c r="B1728" t="n">
+        <v>205.6904166666667</v>
+      </c>
+      <c r="C1728" t="n">
+        <v>205.6641666666667</v>
+      </c>
+      <c r="D1728" t="n">
+        <v>190.2508333333333</v>
+      </c>
+      <c r="E1728" t="n">
+        <v>205.7029166666667</v>
+      </c>
+    </row>
+    <row r="1729">
+      <c r="A1729" t="inlineStr">
+        <is>
+          <t>23/09/2024</t>
+        </is>
+      </c>
+      <c r="B1729" t="n">
+        <v>260.4641666666666</v>
+      </c>
+      <c r="C1729" t="n">
+        <v>260.44125</v>
+      </c>
+      <c r="D1729" t="n">
+        <v>227.9733333333334</v>
+      </c>
+      <c r="E1729" t="n">
+        <v>262.2483333333334</v>
+      </c>
+    </row>
+    <row r="1730">
+      <c r="A1730" t="inlineStr">
+        <is>
+          <t>24/09/2024</t>
+        </is>
+      </c>
+      <c r="B1730" t="n">
+        <v>308.5937500000001</v>
+      </c>
+      <c r="C1730" t="n">
+        <v>308.5754166666667</v>
+      </c>
+      <c r="D1730" t="n">
+        <v>236.6233333333333</v>
+      </c>
+      <c r="E1730" t="n">
+        <v>310.89625</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1730"/>
+  <dimension ref="A1:E1732"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33311,6 +33311,44 @@
         <v>310.89625</v>
       </c>
     </row>
+    <row r="1731">
+      <c r="A1731" t="inlineStr">
+        <is>
+          <t>25/09/2024</t>
+        </is>
+      </c>
+      <c r="B1731" t="n">
+        <v>300.6054166666667</v>
+      </c>
+      <c r="C1731" t="n">
+        <v>300.585</v>
+      </c>
+      <c r="D1731" t="n">
+        <v>226.6354166666666</v>
+      </c>
+      <c r="E1731" t="n">
+        <v>305.2320833333333</v>
+      </c>
+    </row>
+    <row r="1732">
+      <c r="A1732" t="inlineStr">
+        <is>
+          <t>26/09/2024</t>
+        </is>
+      </c>
+      <c r="B1732" t="n">
+        <v>314.6645833333334</v>
+      </c>
+      <c r="C1732" t="n">
+        <v>314.6491666666666</v>
+      </c>
+      <c r="D1732" t="n">
+        <v>243.7845833333333</v>
+      </c>
+      <c r="E1732" t="n">
+        <v>317.0425</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1732"/>
+  <dimension ref="A1:E1746"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33349,6 +33349,272 @@
         <v>317.0425</v>
       </c>
     </row>
+    <row r="1733">
+      <c r="A1733" t="inlineStr">
+        <is>
+          <t>27/09/2024</t>
+        </is>
+      </c>
+      <c r="B1733" t="n">
+        <v>321.1454166666667</v>
+      </c>
+      <c r="C1733" t="n">
+        <v>321.12625</v>
+      </c>
+      <c r="D1733" t="n">
+        <v>292.6745833333334</v>
+      </c>
+      <c r="E1733" t="n">
+        <v>323.4345833333334</v>
+      </c>
+    </row>
+    <row r="1734">
+      <c r="A1734" t="inlineStr">
+        <is>
+          <t>28/09/2024</t>
+        </is>
+      </c>
+      <c r="B1734" t="n">
+        <v>612.1533333333333</v>
+      </c>
+      <c r="C1734" t="n">
+        <v>612.1424999999999</v>
+      </c>
+      <c r="D1734" t="n">
+        <v>564.0745833333333</v>
+      </c>
+      <c r="E1734" t="n">
+        <v>612.2066666666666</v>
+      </c>
+    </row>
+    <row r="1735">
+      <c r="A1735" t="inlineStr">
+        <is>
+          <t>29/09/2024</t>
+        </is>
+      </c>
+      <c r="B1735" t="n">
+        <v>421.24</v>
+      </c>
+      <c r="C1735" t="n">
+        <v>421.2266666666665</v>
+      </c>
+      <c r="D1735" t="n">
+        <v>374.8358333333334</v>
+      </c>
+      <c r="E1735" t="n">
+        <v>421.2495833333332</v>
+      </c>
+    </row>
+    <row r="1736">
+      <c r="A1736" t="inlineStr">
+        <is>
+          <t>30/09/2024</t>
+        </is>
+      </c>
+      <c r="B1736" t="n">
+        <v>608.3470833333333</v>
+      </c>
+      <c r="C1736" t="n">
+        <v>608.3524999999998</v>
+      </c>
+      <c r="D1736" t="n">
+        <v>341.8270833333333</v>
+      </c>
+      <c r="E1736" t="n">
+        <v>608.5004166666666</v>
+      </c>
+    </row>
+    <row r="1737">
+      <c r="A1737" t="inlineStr">
+        <is>
+          <t>01/10/2024</t>
+        </is>
+      </c>
+      <c r="B1737" t="n">
+        <v>609.4787499999999</v>
+      </c>
+      <c r="C1737" t="n">
+        <v>609.4825</v>
+      </c>
+      <c r="D1737" t="n">
+        <v>460.0354166666667</v>
+      </c>
+      <c r="E1737" t="n">
+        <v>609.5637499999999</v>
+      </c>
+    </row>
+    <row r="1738">
+      <c r="A1738" t="inlineStr">
+        <is>
+          <t>02/10/2024</t>
+        </is>
+      </c>
+      <c r="B1738" t="n">
+        <v>716.7962499999999</v>
+      </c>
+      <c r="C1738" t="n">
+        <v>716.7949999999997</v>
+      </c>
+      <c r="D1738" t="n">
+        <v>618.6166666666668</v>
+      </c>
+      <c r="E1738" t="n">
+        <v>716.7995833333333</v>
+      </c>
+    </row>
+    <row r="1739">
+      <c r="A1739" t="inlineStr">
+        <is>
+          <t>03/10/2024</t>
+        </is>
+      </c>
+      <c r="B1739" t="n">
+        <v>716.7983333333332</v>
+      </c>
+      <c r="C1739" t="n">
+        <v>716.8012500000001</v>
+      </c>
+      <c r="D1739" t="n">
+        <v>625.72375</v>
+      </c>
+      <c r="E1739" t="n">
+        <v>716.8041666666667</v>
+      </c>
+    </row>
+    <row r="1740">
+      <c r="A1740" t="inlineStr">
+        <is>
+          <t>04/10/2024</t>
+        </is>
+      </c>
+      <c r="B1740" t="n">
+        <v>607.6925</v>
+      </c>
+      <c r="C1740" t="n">
+        <v>607.6691666666667</v>
+      </c>
+      <c r="D1740" t="n">
+        <v>598.9304166666666</v>
+      </c>
+      <c r="E1740" t="n">
+        <v>607.9087499999999</v>
+      </c>
+    </row>
+    <row r="1741">
+      <c r="A1741" t="inlineStr">
+        <is>
+          <t>05/10/2024</t>
+        </is>
+      </c>
+      <c r="B1741" t="n">
+        <v>437.5529166666667</v>
+      </c>
+      <c r="C1741" t="n">
+        <v>437.5345833333333</v>
+      </c>
+      <c r="D1741" t="n">
+        <v>410.4829166666668</v>
+      </c>
+      <c r="E1741" t="n">
+        <v>437.56875</v>
+      </c>
+    </row>
+    <row r="1742">
+      <c r="A1742" t="inlineStr">
+        <is>
+          <t>06/10/2024</t>
+        </is>
+      </c>
+      <c r="B1742" t="n">
+        <v>358.5491666666667</v>
+      </c>
+      <c r="C1742" t="n">
+        <v>358.5279166666667</v>
+      </c>
+      <c r="D1742" t="n">
+        <v>351.6516666666667</v>
+      </c>
+      <c r="E1742" t="n">
+        <v>358.5608333333334</v>
+      </c>
+    </row>
+    <row r="1743">
+      <c r="A1743" t="inlineStr">
+        <is>
+          <t>07/10/2024</t>
+        </is>
+      </c>
+      <c r="B1743" t="n">
+        <v>541.1087499999999</v>
+      </c>
+      <c r="C1743" t="n">
+        <v>541.0845833333334</v>
+      </c>
+      <c r="D1743" t="n">
+        <v>540.7645833333333</v>
+      </c>
+      <c r="E1743" t="n">
+        <v>541.3108333333333</v>
+      </c>
+    </row>
+    <row r="1744">
+      <c r="A1744" t="inlineStr">
+        <is>
+          <t>08/10/2024</t>
+        </is>
+      </c>
+      <c r="B1744" t="n">
+        <v>622.8083333333333</v>
+      </c>
+      <c r="C1744" t="n">
+        <v>622.7808333333334</v>
+      </c>
+      <c r="D1744" t="n">
+        <v>621.4304166666667</v>
+      </c>
+      <c r="E1744" t="n">
+        <v>623.1304166666666</v>
+      </c>
+    </row>
+    <row r="1745">
+      <c r="A1745" t="inlineStr">
+        <is>
+          <t>09/10/2024</t>
+        </is>
+      </c>
+      <c r="B1745" t="n">
+        <v>662.5079166666667</v>
+      </c>
+      <c r="C1745" t="n">
+        <v>662.4679166666666</v>
+      </c>
+      <c r="D1745" t="n">
+        <v>662.4879166666666</v>
+      </c>
+      <c r="E1745" t="n">
+        <v>662.5208333333334</v>
+      </c>
+    </row>
+    <row r="1746">
+      <c r="A1746" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+      <c r="B1746" t="n">
+        <v>561.7208333333333</v>
+      </c>
+      <c r="C1746" t="n">
+        <v>561.6808333333333</v>
+      </c>
+      <c r="D1746" t="n">
+        <v>559.1625</v>
+      </c>
+      <c r="E1746" t="n">
+        <v>563.2550000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1746"/>
+  <dimension ref="A1:E1752"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33615,6 +33615,120 @@
         <v>563.2550000000001</v>
       </c>
     </row>
+    <row r="1747">
+      <c r="A1747" t="inlineStr">
+        <is>
+          <t>11/10/2024</t>
+        </is>
+      </c>
+      <c r="B1747" t="n">
+        <v>549.1754166666666</v>
+      </c>
+      <c r="C1747" t="n">
+        <v>549.15</v>
+      </c>
+      <c r="D1747" t="n">
+        <v>489.4129166666667</v>
+      </c>
+      <c r="E1747" t="n">
+        <v>549.1900000000001</v>
+      </c>
+    </row>
+    <row r="1748">
+      <c r="A1748" t="inlineStr">
+        <is>
+          <t>12/10/2024</t>
+        </is>
+      </c>
+      <c r="B1748" t="n">
+        <v>435.7679166666667</v>
+      </c>
+      <c r="C1748" t="n">
+        <v>435.7474999999999</v>
+      </c>
+      <c r="D1748" t="n">
+        <v>417.4683333333333</v>
+      </c>
+      <c r="E1748" t="n">
+        <v>435.7866666666667</v>
+      </c>
+    </row>
+    <row r="1749">
+      <c r="A1749" t="inlineStr">
+        <is>
+          <t>13/10/2024</t>
+        </is>
+      </c>
+      <c r="B1749" t="n">
+        <v>347.8445833333333</v>
+      </c>
+      <c r="C1749" t="n">
+        <v>347.8187500000001</v>
+      </c>
+      <c r="D1749" t="n">
+        <v>347.8308333333334</v>
+      </c>
+      <c r="E1749" t="n">
+        <v>347.8575000000001</v>
+      </c>
+    </row>
+    <row r="1750">
+      <c r="A1750" t="inlineStr">
+        <is>
+          <t>14/10/2024</t>
+        </is>
+      </c>
+      <c r="B1750" t="n">
+        <v>525.2058333333333</v>
+      </c>
+      <c r="C1750" t="n">
+        <v>525.1758333333333</v>
+      </c>
+      <c r="D1750" t="n">
+        <v>414.6966666666667</v>
+      </c>
+      <c r="E1750" t="n">
+        <v>525.6620833333333</v>
+      </c>
+    </row>
+    <row r="1751">
+      <c r="A1751" t="inlineStr">
+        <is>
+          <t>15/10/2024</t>
+        </is>
+      </c>
+      <c r="B1751" t="n">
+        <v>556.0424999999999</v>
+      </c>
+      <c r="C1751" t="n">
+        <v>556.0091666666667</v>
+      </c>
+      <c r="D1751" t="n">
+        <v>530.1066666666667</v>
+      </c>
+      <c r="E1751" t="n">
+        <v>556.4699999999999</v>
+      </c>
+    </row>
+    <row r="1752">
+      <c r="A1752" t="inlineStr">
+        <is>
+          <t>16/10/2024</t>
+        </is>
+      </c>
+      <c r="B1752" t="n">
+        <v>597.5433333333334</v>
+      </c>
+      <c r="C1752" t="n">
+        <v>597.5033333333333</v>
+      </c>
+      <c r="D1752" t="n">
+        <v>597.5233333333334</v>
+      </c>
+      <c r="E1752" t="n">
+        <v>597.55625</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1752"/>
+  <dimension ref="A1:E1758"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33729,6 +33729,120 @@
         <v>597.55625</v>
       </c>
     </row>
+    <row r="1753">
+      <c r="A1753" t="inlineStr">
+        <is>
+          <t>17/10/2024</t>
+        </is>
+      </c>
+      <c r="B1753" t="n">
+        <v>649.5958333333334</v>
+      </c>
+      <c r="C1753" t="n">
+        <v>649.5558333333332</v>
+      </c>
+      <c r="D1753" t="n">
+        <v>649.5795833333333</v>
+      </c>
+      <c r="E1753" t="n">
+        <v>649.6087500000001</v>
+      </c>
+    </row>
+    <row r="1754">
+      <c r="A1754" t="inlineStr">
+        <is>
+          <t>18/10/2024</t>
+        </is>
+      </c>
+      <c r="B1754" t="n">
+        <v>587.92125</v>
+      </c>
+      <c r="C1754" t="n">
+        <v>587.8837499999998</v>
+      </c>
+      <c r="D1754" t="n">
+        <v>587.9112500000001</v>
+      </c>
+      <c r="E1754" t="n">
+        <v>587.9320833333334</v>
+      </c>
+    </row>
+    <row r="1755">
+      <c r="A1755" t="inlineStr">
+        <is>
+          <t>19/10/2024</t>
+        </is>
+      </c>
+      <c r="B1755" t="n">
+        <v>458.0116666666666</v>
+      </c>
+      <c r="C1755" t="n">
+        <v>457.9716666666666</v>
+      </c>
+      <c r="D1755" t="n">
+        <v>457.9929166666668</v>
+      </c>
+      <c r="E1755" t="n">
+        <v>458.0304166666666</v>
+      </c>
+    </row>
+    <row r="1756">
+      <c r="A1756" t="inlineStr">
+        <is>
+          <t>20/10/2024</t>
+        </is>
+      </c>
+      <c r="B1756" t="n">
+        <v>377.4529166666666</v>
+      </c>
+      <c r="C1756" t="n">
+        <v>377.4245833333334</v>
+      </c>
+      <c r="D1756" t="n">
+        <v>377.4324999999999</v>
+      </c>
+      <c r="E1756" t="n">
+        <v>377.47125</v>
+      </c>
+    </row>
+    <row r="1757">
+      <c r="A1757" t="inlineStr">
+        <is>
+          <t>21/10/2024</t>
+        </is>
+      </c>
+      <c r="B1757" t="n">
+        <v>450.3899999999999</v>
+      </c>
+      <c r="C1757" t="n">
+        <v>450.3574999999999</v>
+      </c>
+      <c r="D1757" t="n">
+        <v>407.65</v>
+      </c>
+      <c r="E1757" t="n">
+        <v>451.5154166666667</v>
+      </c>
+    </row>
+    <row r="1758">
+      <c r="A1758" t="inlineStr">
+        <is>
+          <t>22/10/2024</t>
+        </is>
+      </c>
+      <c r="B1758" t="n">
+        <v>450.9525</v>
+      </c>
+      <c r="C1758" t="n">
+        <v>450.9354166666667</v>
+      </c>
+      <c r="D1758" t="n">
+        <v>285.9354166666666</v>
+      </c>
+      <c r="E1758" t="n">
+        <v>452.89875</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1758"/>
+  <dimension ref="A1:E1765"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33843,6 +33843,139 @@
         <v>452.89875</v>
       </c>
     </row>
+    <row r="1759">
+      <c r="A1759" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="B1759" t="n">
+        <v>465.2958333333334</v>
+      </c>
+      <c r="C1759" t="n">
+        <v>465.2641666666667</v>
+      </c>
+      <c r="D1759" t="n">
+        <v>418.9508333333334</v>
+      </c>
+      <c r="E1759" t="n">
+        <v>468.3945833333333</v>
+      </c>
+    </row>
+    <row r="1760">
+      <c r="A1760" t="inlineStr">
+        <is>
+          <t>24/10/2024</t>
+        </is>
+      </c>
+      <c r="B1760" t="n">
+        <v>482.9429166666667</v>
+      </c>
+      <c r="C1760" t="n">
+        <v>482.9283333333333</v>
+      </c>
+      <c r="D1760" t="n">
+        <v>463.7408333333333</v>
+      </c>
+      <c r="E1760" t="n">
+        <v>490.8862500000001</v>
+      </c>
+    </row>
+    <row r="1761">
+      <c r="A1761" t="inlineStr">
+        <is>
+          <t>25/10/2024</t>
+        </is>
+      </c>
+      <c r="B1761" t="n">
+        <v>462.4479166666666</v>
+      </c>
+      <c r="C1761" t="n">
+        <v>462.4129166666667</v>
+      </c>
+      <c r="D1761" t="n">
+        <v>460.8233333333334</v>
+      </c>
+      <c r="E1761" t="n">
+        <v>463.4074999999999</v>
+      </c>
+    </row>
+    <row r="1762">
+      <c r="A1762" t="inlineStr">
+        <is>
+          <t>26/10/2024</t>
+        </is>
+      </c>
+      <c r="B1762" t="n">
+        <v>287.4283333333333</v>
+      </c>
+      <c r="C1762" t="n">
+        <v>287.41375</v>
+      </c>
+      <c r="D1762" t="n">
+        <v>287.4079166666667</v>
+      </c>
+      <c r="E1762" t="n">
+        <v>287.4475</v>
+      </c>
+    </row>
+    <row r="1763">
+      <c r="A1763" t="inlineStr">
+        <is>
+          <t>27/10/2024</t>
+        </is>
+      </c>
+      <c r="B1763" t="n">
+        <v>242.1841666666667</v>
+      </c>
+      <c r="C1763" t="n">
+        <v>242.16625</v>
+      </c>
+      <c r="D1763" t="n">
+        <v>242.165</v>
+      </c>
+      <c r="E1763" t="n">
+        <v>242.2025</v>
+      </c>
+    </row>
+    <row r="1764">
+      <c r="A1764" t="inlineStr">
+        <is>
+          <t>28/10/2024</t>
+        </is>
+      </c>
+      <c r="B1764" t="n">
+        <v>286.1708333333333</v>
+      </c>
+      <c r="C1764" t="n">
+        <v>286.1845833333334</v>
+      </c>
+      <c r="D1764" t="n">
+        <v>234.5404166666667</v>
+      </c>
+      <c r="E1764" t="n">
+        <v>315.6366666666666</v>
+      </c>
+    </row>
+    <row r="1765">
+      <c r="A1765" t="inlineStr">
+        <is>
+          <t>29/10/2024</t>
+        </is>
+      </c>
+      <c r="B1765" t="n">
+        <v>279.47875</v>
+      </c>
+      <c r="C1765" t="n">
+        <v>279.5020833333334</v>
+      </c>
+      <c r="D1765" t="n">
+        <v>246.8420833333333</v>
+      </c>
+      <c r="E1765" t="n">
+        <v>285.8749999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1765"/>
+  <dimension ref="A1:E1779"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33976,6 +33976,272 @@
         <v>285.8749999999999</v>
       </c>
     </row>
+    <row r="1766">
+      <c r="A1766" t="inlineStr">
+        <is>
+          <t>30/10/2024</t>
+        </is>
+      </c>
+      <c r="B1766" t="n">
+        <v>288.1308333333333</v>
+      </c>
+      <c r="C1766" t="n">
+        <v>288.1379166666666</v>
+      </c>
+      <c r="D1766" t="n">
+        <v>288.1108333333333</v>
+      </c>
+      <c r="E1766" t="n">
+        <v>288.1508333333334</v>
+      </c>
+    </row>
+    <row r="1767">
+      <c r="A1767" t="inlineStr">
+        <is>
+          <t>31/10/2024</t>
+        </is>
+      </c>
+      <c r="B1767" t="n">
+        <v>289.3225</v>
+      </c>
+      <c r="C1767" t="n">
+        <v>289.3245833333334</v>
+      </c>
+      <c r="D1767" t="n">
+        <v>289.3025</v>
+      </c>
+      <c r="E1767" t="n">
+        <v>289.3416666666667</v>
+      </c>
+    </row>
+    <row r="1768">
+      <c r="A1768" t="inlineStr">
+        <is>
+          <t>01/11/2024</t>
+        </is>
+      </c>
+      <c r="B1768" t="n">
+        <v>282.6233333333333</v>
+      </c>
+      <c r="C1768" t="n">
+        <v>282.635</v>
+      </c>
+      <c r="D1768" t="n">
+        <v>282.6016666666667</v>
+      </c>
+      <c r="E1768" t="n">
+        <v>282.6429166666667</v>
+      </c>
+    </row>
+    <row r="1769">
+      <c r="A1769" t="inlineStr">
+        <is>
+          <t>02/11/2024</t>
+        </is>
+      </c>
+      <c r="B1769" t="n">
+        <v>108.605</v>
+      </c>
+      <c r="C1769" t="n">
+        <v>108.62875</v>
+      </c>
+      <c r="D1769" t="n">
+        <v>101.3129166666667</v>
+      </c>
+      <c r="E1769" t="n">
+        <v>111.8879166666667</v>
+      </c>
+    </row>
+    <row r="1770">
+      <c r="A1770" t="inlineStr">
+        <is>
+          <t>03/11/2024</t>
+        </is>
+      </c>
+      <c r="B1770" t="n">
+        <v>95.99250000000001</v>
+      </c>
+      <c r="C1770" t="n">
+        <v>96.00083333333333</v>
+      </c>
+      <c r="D1770" t="n">
+        <v>95.97791666666667</v>
+      </c>
+      <c r="E1770" t="n">
+        <v>96.005</v>
+      </c>
+    </row>
+    <row r="1771">
+      <c r="A1771" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="B1771" t="n">
+        <v>116.5529166666667</v>
+      </c>
+      <c r="C1771" t="n">
+        <v>116.5658333333334</v>
+      </c>
+      <c r="D1771" t="n">
+        <v>112.14</v>
+      </c>
+      <c r="E1771" t="n">
+        <v>116.6295833333333</v>
+      </c>
+    </row>
+    <row r="1772">
+      <c r="A1772" t="inlineStr">
+        <is>
+          <t>05/11/2024</t>
+        </is>
+      </c>
+      <c r="B1772" t="n">
+        <v>122.6391666666667</v>
+      </c>
+      <c r="C1772" t="n">
+        <v>122.6491666666667</v>
+      </c>
+      <c r="D1772" t="n">
+        <v>116.9683333333333</v>
+      </c>
+      <c r="E1772" t="n">
+        <v>123.4679166666667</v>
+      </c>
+    </row>
+    <row r="1773">
+      <c r="A1773" t="inlineStr">
+        <is>
+          <t>06/11/2024</t>
+        </is>
+      </c>
+      <c r="B1773" t="n">
+        <v>120.8891666666667</v>
+      </c>
+      <c r="C1773" t="n">
+        <v>120.9016666666667</v>
+      </c>
+      <c r="D1773" t="n">
+        <v>120.8641666666667</v>
+      </c>
+      <c r="E1773" t="n">
+        <v>120.90625</v>
+      </c>
+    </row>
+    <row r="1774">
+      <c r="A1774" t="inlineStr">
+        <is>
+          <t>07/11/2024</t>
+        </is>
+      </c>
+      <c r="B1774" t="n">
+        <v>126.7075</v>
+      </c>
+      <c r="C1774" t="n">
+        <v>126.7108333333333</v>
+      </c>
+      <c r="D1774" t="n">
+        <v>126.68125</v>
+      </c>
+      <c r="E1774" t="n">
+        <v>126.7233333333333</v>
+      </c>
+    </row>
+    <row r="1775">
+      <c r="A1775" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="B1775" t="n">
+        <v>191.22125</v>
+      </c>
+      <c r="C1775" t="n">
+        <v>191.1995833333334</v>
+      </c>
+      <c r="D1775" t="n">
+        <v>191.2008333333333</v>
+      </c>
+      <c r="E1775" t="n">
+        <v>191.2354166666667</v>
+      </c>
+    </row>
+    <row r="1776">
+      <c r="A1776" t="inlineStr">
+        <is>
+          <t>09/11/2024</t>
+        </is>
+      </c>
+      <c r="B1776" t="n">
+        <v>61.08375</v>
+      </c>
+      <c r="C1776" t="n">
+        <v>61.08208333333332</v>
+      </c>
+      <c r="D1776" t="n">
+        <v>61.08291666666667</v>
+      </c>
+      <c r="E1776" t="n">
+        <v>61.08375</v>
+      </c>
+    </row>
+    <row r="1777">
+      <c r="A1777" t="inlineStr">
+        <is>
+          <t>10/11/2024</t>
+        </is>
+      </c>
+      <c r="B1777" t="n">
+        <v>61.2525</v>
+      </c>
+      <c r="C1777" t="n">
+        <v>61.24583333333334</v>
+      </c>
+      <c r="D1777" t="n">
+        <v>61.25208333333333</v>
+      </c>
+      <c r="E1777" t="n">
+        <v>61.25833333333333</v>
+      </c>
+    </row>
+    <row r="1778">
+      <c r="A1778" t="inlineStr">
+        <is>
+          <t>11/11/2024</t>
+        </is>
+      </c>
+      <c r="B1778" t="n">
+        <v>125.5095833333334</v>
+      </c>
+      <c r="C1778" t="n">
+        <v>125.5070833333334</v>
+      </c>
+      <c r="D1778" t="n">
+        <v>125.5029166666667</v>
+      </c>
+      <c r="E1778" t="n">
+        <v>125.5116666666667</v>
+      </c>
+    </row>
+    <row r="1779">
+      <c r="A1779" t="inlineStr">
+        <is>
+          <t>12/11/2024</t>
+        </is>
+      </c>
+      <c r="B1779" t="n">
+        <v>166.6958333333333</v>
+      </c>
+      <c r="C1779" t="n">
+        <v>166.6875</v>
+      </c>
+      <c r="D1779" t="n">
+        <v>166.6883333333333</v>
+      </c>
+      <c r="E1779" t="n">
+        <v>166.6979166666667</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1779"/>
+  <dimension ref="A1:E1781"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34242,6 +34242,44 @@
         <v>166.6979166666667</v>
       </c>
     </row>
+    <row r="1780">
+      <c r="A1780" t="inlineStr">
+        <is>
+          <t>13/11/2024</t>
+        </is>
+      </c>
+      <c r="B1780" t="n">
+        <v>65.73083333333334</v>
+      </c>
+      <c r="C1780" t="n">
+        <v>65.73083333333334</v>
+      </c>
+      <c r="D1780" t="n">
+        <v>65.72500000000001</v>
+      </c>
+      <c r="E1780" t="n">
+        <v>65.73541666666668</v>
+      </c>
+    </row>
+    <row r="1781">
+      <c r="A1781" t="inlineStr">
+        <is>
+          <t>14/11/2024</t>
+        </is>
+      </c>
+      <c r="B1781" t="n">
+        <v>61.21041666666667</v>
+      </c>
+      <c r="C1781" t="n">
+        <v>61.21041666666667</v>
+      </c>
+      <c r="D1781" t="n">
+        <v>61.20666666666667</v>
+      </c>
+      <c r="E1781" t="n">
+        <v>61.21166666666667</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1781"/>
+  <dimension ref="A1:E1786"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34280,6 +34280,101 @@
         <v>61.21166666666667</v>
       </c>
     </row>
+    <row r="1782">
+      <c r="A1782" t="inlineStr">
+        <is>
+          <t>15/11/2024</t>
+        </is>
+      </c>
+      <c r="B1782" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1782" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1782" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1782" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1783">
+      <c r="A1783" t="inlineStr">
+        <is>
+          <t>16/11/2024</t>
+        </is>
+      </c>
+      <c r="B1783" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1783" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1783" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1783" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1784">
+      <c r="A1784" t="inlineStr">
+        <is>
+          <t>17/11/2024</t>
+        </is>
+      </c>
+      <c r="B1784" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1784" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1784" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1784" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1785">
+      <c r="A1785" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="B1785" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1785" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1785" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1785" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1786">
+      <c r="A1786" t="inlineStr">
+        <is>
+          <t>19/11/2024</t>
+        </is>
+      </c>
+      <c r="B1786" t="n">
+        <v>64.68416666666667</v>
+      </c>
+      <c r="C1786" t="n">
+        <v>64.68416666666667</v>
+      </c>
+      <c r="D1786" t="n">
+        <v>64.68083333333333</v>
+      </c>
+      <c r="E1786" t="n">
+        <v>64.68416666666667</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1786"/>
+  <dimension ref="A1:E1792"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34375,6 +34375,120 @@
         <v>64.68416666666667</v>
       </c>
     </row>
+    <row r="1787">
+      <c r="A1787" t="inlineStr">
+        <is>
+          <t>20/11/2024</t>
+        </is>
+      </c>
+      <c r="B1787" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1787" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1787" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1787" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1788">
+      <c r="A1788" t="inlineStr">
+        <is>
+          <t>21/11/2024</t>
+        </is>
+      </c>
+      <c r="B1788" t="n">
+        <v>67.06875000000001</v>
+      </c>
+      <c r="C1788" t="n">
+        <v>67.06375000000001</v>
+      </c>
+      <c r="D1788" t="n">
+        <v>67.06208333333335</v>
+      </c>
+      <c r="E1788" t="n">
+        <v>67.07166666666667</v>
+      </c>
+    </row>
+    <row r="1789">
+      <c r="A1789" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="B1789" t="n">
+        <v>82.75875000000001</v>
+      </c>
+      <c r="C1789" t="n">
+        <v>82.74666666666668</v>
+      </c>
+      <c r="D1789" t="n">
+        <v>82.75458333333334</v>
+      </c>
+      <c r="E1789" t="n">
+        <v>82.76041666666667</v>
+      </c>
+    </row>
+    <row r="1790">
+      <c r="A1790" t="inlineStr">
+        <is>
+          <t>23/11/2024</t>
+        </is>
+      </c>
+      <c r="B1790" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1790" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1790" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1790" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1791">
+      <c r="A1791" t="inlineStr">
+        <is>
+          <t>24/11/2024</t>
+        </is>
+      </c>
+      <c r="B1791" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1791" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1791" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1791" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1792">
+      <c r="A1792" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="B1792" t="n">
+        <v>61.49083333333335</v>
+      </c>
+      <c r="C1792" t="n">
+        <v>61.49125000000002</v>
+      </c>
+      <c r="D1792" t="n">
+        <v>61.48666666666668</v>
+      </c>
+      <c r="E1792" t="n">
+        <v>61.49291666666668</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1792"/>
+  <dimension ref="A1:E1793"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34489,6 +34489,25 @@
         <v>61.49291666666668</v>
       </c>
     </row>
+    <row r="1793">
+      <c r="A1793" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="B1793" t="n">
+        <v>72.09416666666668</v>
+      </c>
+      <c r="C1793" t="n">
+        <v>72.10083333333334</v>
+      </c>
+      <c r="D1793" t="n">
+        <v>72.08666666666669</v>
+      </c>
+      <c r="E1793" t="n">
+        <v>72.09958333333336</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1793"/>
+  <dimension ref="A1:E1795"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34508,6 +34508,44 @@
         <v>72.09958333333336</v>
       </c>
     </row>
+    <row r="1794">
+      <c r="A1794" t="inlineStr">
+        <is>
+          <t>27/11/2024</t>
+        </is>
+      </c>
+      <c r="B1794" t="n">
+        <v>70.84500000000001</v>
+      </c>
+      <c r="C1794" t="n">
+        <v>70.84625000000003</v>
+      </c>
+      <c r="D1794" t="n">
+        <v>70.83625000000001</v>
+      </c>
+      <c r="E1794" t="n">
+        <v>70.85000000000002</v>
+      </c>
+    </row>
+    <row r="1795">
+      <c r="A1795" t="inlineStr">
+        <is>
+          <t>28/11/2024</t>
+        </is>
+      </c>
+      <c r="B1795" t="n">
+        <v>243.7683333333333</v>
+      </c>
+      <c r="C1795" t="n">
+        <v>243.7708333333334</v>
+      </c>
+      <c r="D1795" t="n">
+        <v>243.7575</v>
+      </c>
+      <c r="E1795" t="n">
+        <v>243.77</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1795"/>
+  <dimension ref="A1:E1797"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34546,6 +34546,44 @@
         <v>243.77</v>
       </c>
     </row>
+    <row r="1796">
+      <c r="A1796" t="inlineStr">
+        <is>
+          <t>29/11/2024</t>
+        </is>
+      </c>
+      <c r="B1796" t="n">
+        <v>247.2370833333333</v>
+      </c>
+      <c r="C1796" t="n">
+        <v>247.2404166666667</v>
+      </c>
+      <c r="D1796" t="n">
+        <v>223.6679166666667</v>
+      </c>
+      <c r="E1796" t="n">
+        <v>247.3733333333333</v>
+      </c>
+    </row>
+    <row r="1797">
+      <c r="A1797" t="inlineStr">
+        <is>
+          <t>30/11/2024</t>
+        </is>
+      </c>
+      <c r="B1797" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1797" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1797" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1797" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1797"/>
+  <dimension ref="A1:E1799"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34584,6 +34584,44 @@
         <v>61.06999999999999</v>
       </c>
     </row>
+    <row r="1798">
+      <c r="A1798" t="inlineStr">
+        <is>
+          <t>01/12/2024</t>
+        </is>
+      </c>
+      <c r="B1798" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1798" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1798" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1798" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1799">
+      <c r="A1799" t="inlineStr">
+        <is>
+          <t>02/12/2024</t>
+        </is>
+      </c>
+      <c r="B1799" t="n">
+        <v>88.96083333333335</v>
+      </c>
+      <c r="C1799" t="n">
+        <v>88.96000000000002</v>
+      </c>
+      <c r="D1799" t="n">
+        <v>88.95375000000001</v>
+      </c>
+      <c r="E1799" t="n">
+        <v>88.96291666666667</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1799"/>
+  <dimension ref="A1:E1801"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34622,6 +34622,44 @@
         <v>88.96291666666667</v>
       </c>
     </row>
+    <row r="1800">
+      <c r="A1800" t="inlineStr">
+        <is>
+          <t>03/12/2024</t>
+        </is>
+      </c>
+      <c r="B1800" t="n">
+        <v>148.79</v>
+      </c>
+      <c r="C1800" t="n">
+        <v>148.79</v>
+      </c>
+      <c r="D1800" t="n">
+        <v>148.7841666666667</v>
+      </c>
+      <c r="E1800" t="n">
+        <v>148.79</v>
+      </c>
+    </row>
+    <row r="1801">
+      <c r="A1801" t="inlineStr">
+        <is>
+          <t>04/12/2024</t>
+        </is>
+      </c>
+      <c r="B1801" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1801" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1801" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1801" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1801"/>
+  <dimension ref="A1:E1806"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34660,6 +34660,101 @@
         <v>61.06999999999999</v>
       </c>
     </row>
+    <row r="1802">
+      <c r="A1802" t="inlineStr">
+        <is>
+          <t>05/12/2024</t>
+        </is>
+      </c>
+      <c r="B1802" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1802" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1802" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1802" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1803">
+      <c r="A1803" t="inlineStr">
+        <is>
+          <t>06/12/2024</t>
+        </is>
+      </c>
+      <c r="B1803" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1803" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1803" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1803" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1804">
+      <c r="A1804" t="inlineStr">
+        <is>
+          <t>07/12/2024</t>
+        </is>
+      </c>
+      <c r="B1804" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1804" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1804" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1804" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1805">
+      <c r="A1805" t="inlineStr">
+        <is>
+          <t>08/12/2024</t>
+        </is>
+      </c>
+      <c r="B1805" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1805" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1805" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1805" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1806">
+      <c r="A1806" t="inlineStr">
+        <is>
+          <t>09/12/2024</t>
+        </is>
+      </c>
+      <c r="B1806" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1806" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1806" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1806" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1806"/>
+  <dimension ref="A1:E1808"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34755,6 +34755,44 @@
         <v>61.06999999999999</v>
       </c>
     </row>
+    <row r="1807">
+      <c r="A1807" t="inlineStr">
+        <is>
+          <t>10/12/2024</t>
+        </is>
+      </c>
+      <c r="B1807" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1807" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1807" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1807" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1808">
+      <c r="A1808" t="inlineStr">
+        <is>
+          <t>11/12/2024</t>
+        </is>
+      </c>
+      <c r="B1808" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1808" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1808" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1808" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1808"/>
+  <dimension ref="A1:E1815"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34793,6 +34793,139 @@
         <v>61.06999999999999</v>
       </c>
     </row>
+    <row r="1809">
+      <c r="A1809" t="inlineStr">
+        <is>
+          <t>12/12/2024</t>
+        </is>
+      </c>
+      <c r="B1809" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1809" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1809" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1809" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1810">
+      <c r="A1810" t="inlineStr">
+        <is>
+          <t>13/12/2024</t>
+        </is>
+      </c>
+      <c r="B1810" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1810" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1810" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1810" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1811">
+      <c r="A1811" t="inlineStr">
+        <is>
+          <t>14/12/2024</t>
+        </is>
+      </c>
+      <c r="B1811" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1811" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1811" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1811" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1812">
+      <c r="A1812" t="inlineStr">
+        <is>
+          <t>15/12/2024</t>
+        </is>
+      </c>
+      <c r="B1812" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1812" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1812" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1812" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1813">
+      <c r="A1813" t="inlineStr">
+        <is>
+          <t>16/12/2024</t>
+        </is>
+      </c>
+      <c r="B1813" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1813" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1813" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1813" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1814">
+      <c r="A1814" t="inlineStr">
+        <is>
+          <t>17/12/2024</t>
+        </is>
+      </c>
+      <c r="B1814" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1814" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1814" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1814" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1815">
+      <c r="A1815" t="inlineStr">
+        <is>
+          <t>18/12/2024</t>
+        </is>
+      </c>
+      <c r="B1815" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1815" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1815" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1815" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1815"/>
+  <dimension ref="A1:E1817"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34926,6 +34926,44 @@
         <v>61.06999999999999</v>
       </c>
     </row>
+    <row r="1816">
+      <c r="A1816" t="inlineStr">
+        <is>
+          <t>19/12/2024</t>
+        </is>
+      </c>
+      <c r="B1816" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1816" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1816" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1816" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1817">
+      <c r="A1817" t="inlineStr">
+        <is>
+          <t>20/12/2024</t>
+        </is>
+      </c>
+      <c r="B1817" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1817" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1817" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1817" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1815"/>
+  <dimension ref="A1:E1823"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34926,6 +34926,158 @@
         <v>61.06999999999999</v>
       </c>
     </row>
+    <row r="1816">
+      <c r="A1816" t="inlineStr">
+        <is>
+          <t>19/12/2024</t>
+        </is>
+      </c>
+      <c r="B1816" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1816" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1816" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1816" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1817">
+      <c r="A1817" t="inlineStr">
+        <is>
+          <t>20/12/2024</t>
+        </is>
+      </c>
+      <c r="B1817" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1817" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1817" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1817" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1818">
+      <c r="A1818" t="inlineStr">
+        <is>
+          <t>21/12/2024</t>
+        </is>
+      </c>
+      <c r="B1818" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1818" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1818" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1818" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1819">
+      <c r="A1819" t="inlineStr">
+        <is>
+          <t>22/12/2024</t>
+        </is>
+      </c>
+      <c r="B1819" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1819" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1819" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1819" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1820">
+      <c r="A1820" t="inlineStr">
+        <is>
+          <t>23/12/2024</t>
+        </is>
+      </c>
+      <c r="B1820" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1820" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1820" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1820" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1821">
+      <c r="A1821" t="inlineStr">
+        <is>
+          <t>24/12/2024</t>
+        </is>
+      </c>
+      <c r="B1821" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1821" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1821" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1821" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1822">
+      <c r="A1822" t="inlineStr">
+        <is>
+          <t>25/12/2024</t>
+        </is>
+      </c>
+      <c r="B1822" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1822" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1822" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1822" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1823">
+      <c r="A1823" t="inlineStr">
+        <is>
+          <t>26/12/2024</t>
+        </is>
+      </c>
+      <c r="B1823" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1823" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1823" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1823" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1823"/>
+  <dimension ref="A1:E1824"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35078,6 +35078,25 @@
         <v>61.06999999999999</v>
       </c>
     </row>
+    <row r="1824">
+      <c r="A1824" t="inlineStr">
+        <is>
+          <t>27/12/2024</t>
+        </is>
+      </c>
+      <c r="B1824" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1824" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1824" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1824" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1824"/>
+  <dimension ref="A1:E1834"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35097,6 +35097,196 @@
         <v>61.06999999999999</v>
       </c>
     </row>
+    <row r="1825">
+      <c r="A1825" t="inlineStr">
+        <is>
+          <t>28/12/2024</t>
+        </is>
+      </c>
+      <c r="B1825" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1825" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1825" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1825" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1826">
+      <c r="A1826" t="inlineStr">
+        <is>
+          <t>29/12/2024</t>
+        </is>
+      </c>
+      <c r="B1826" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1826" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1826" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1826" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1827">
+      <c r="A1827" t="inlineStr">
+        <is>
+          <t>30/12/2024</t>
+        </is>
+      </c>
+      <c r="B1827" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1827" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1827" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1827" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1828">
+      <c r="A1828" t="inlineStr">
+        <is>
+          <t>31/12/2024</t>
+        </is>
+      </c>
+      <c r="B1828" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="C1828" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="D1828" t="n">
+        <v>61.06999999999999</v>
+      </c>
+      <c r="E1828" t="n">
+        <v>61.06999999999999</v>
+      </c>
+    </row>
+    <row r="1829">
+      <c r="A1829" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="B1829" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="C1829" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="D1829" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1829" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
+    <row r="1830">
+      <c r="A1830" t="inlineStr">
+        <is>
+          <t>02/01/2025</t>
+        </is>
+      </c>
+      <c r="B1830" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="C1830" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="D1830" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1830" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
+    <row r="1831">
+      <c r="A1831" t="inlineStr">
+        <is>
+          <t>03/01/2025</t>
+        </is>
+      </c>
+      <c r="B1831" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="C1831" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="D1831" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1831" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
+    <row r="1832">
+      <c r="A1832" t="inlineStr">
+        <is>
+          <t>04/01/2025</t>
+        </is>
+      </c>
+      <c r="B1832" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="C1832" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="D1832" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1832" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
+    <row r="1833">
+      <c r="A1833" t="inlineStr">
+        <is>
+          <t>05/01/2025</t>
+        </is>
+      </c>
+      <c r="B1833" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="C1833" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="D1833" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1833" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
+    <row r="1834">
+      <c r="A1834" t="inlineStr">
+        <is>
+          <t>06/01/2025</t>
+        </is>
+      </c>
+      <c r="B1834" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="C1834" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="D1834" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1834" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1834"/>
+  <dimension ref="A1:E1836"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35287,6 +35287,44 @@
         <v>58.59999999999999</v>
       </c>
     </row>
+    <row r="1835">
+      <c r="A1835" t="inlineStr">
+        <is>
+          <t>07/01/2025</t>
+        </is>
+      </c>
+      <c r="B1835" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="C1835" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="D1835" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1835" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
+    <row r="1836">
+      <c r="A1836" t="inlineStr">
+        <is>
+          <t>08/01/2025</t>
+        </is>
+      </c>
+      <c r="B1836" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="C1836" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="D1836" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1836" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1836"/>
+  <dimension ref="A1:E1841"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35325,6 +35325,101 @@
         <v>58.59999999999999</v>
       </c>
     </row>
+    <row r="1837">
+      <c r="A1837" t="inlineStr">
+        <is>
+          <t>09/01/2025</t>
+        </is>
+      </c>
+      <c r="B1837" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="C1837" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="D1837" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1837" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
+    <row r="1838">
+      <c r="A1838" t="inlineStr">
+        <is>
+          <t>10/01/2025</t>
+        </is>
+      </c>
+      <c r="B1838" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="C1838" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="D1838" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1838" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
+    <row r="1839">
+      <c r="A1839" t="inlineStr">
+        <is>
+          <t>11/01/2025</t>
+        </is>
+      </c>
+      <c r="B1839" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="C1839" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="D1839" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1839" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
+    <row r="1840">
+      <c r="A1840" t="inlineStr">
+        <is>
+          <t>12/01/2025</t>
+        </is>
+      </c>
+      <c r="B1840" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="C1840" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="D1840" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1840" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
+    <row r="1841">
+      <c r="A1841" t="inlineStr">
+        <is>
+          <t>13/01/2025</t>
+        </is>
+      </c>
+      <c r="B1841" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="C1841" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="D1841" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1841" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1841"/>
+  <dimension ref="A1:E1842"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35420,6 +35420,25 @@
         <v>58.59999999999999</v>
       </c>
     </row>
+    <row r="1842">
+      <c r="A1842" t="inlineStr">
+        <is>
+          <t>14/01/2025</t>
+        </is>
+      </c>
+      <c r="B1842" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="C1842" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="D1842" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1842" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1842"/>
+  <dimension ref="A1:E1843"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35439,6 +35439,25 @@
         <v>58.59999999999999</v>
       </c>
     </row>
+    <row r="1843">
+      <c r="A1843" t="inlineStr">
+        <is>
+          <t>15/01/2025</t>
+        </is>
+      </c>
+      <c r="B1843" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="C1843" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="D1843" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1843" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1843"/>
+  <dimension ref="A1:E1844"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35458,6 +35458,25 @@
         <v>58.59999999999999</v>
       </c>
     </row>
+    <row r="1844">
+      <c r="A1844" t="inlineStr">
+        <is>
+          <t>16/01/2025</t>
+        </is>
+      </c>
+      <c r="B1844" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="C1844" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="D1844" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1844" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1844"/>
+  <dimension ref="A1:E1850"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35477,6 +35477,120 @@
         <v>58.59999999999999</v>
       </c>
     </row>
+    <row r="1845">
+      <c r="A1845" t="inlineStr">
+        <is>
+          <t>17/01/2025</t>
+        </is>
+      </c>
+      <c r="B1845" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="C1845" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="D1845" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1845" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
+    <row r="1846">
+      <c r="A1846" t="inlineStr">
+        <is>
+          <t>18/01/2025</t>
+        </is>
+      </c>
+      <c r="B1846" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="C1846" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="D1846" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1846" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
+    <row r="1847">
+      <c r="A1847" t="inlineStr">
+        <is>
+          <t>19/01/2025</t>
+        </is>
+      </c>
+      <c r="B1847" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="C1847" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="D1847" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1847" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
+    <row r="1848">
+      <c r="A1848" t="inlineStr">
+        <is>
+          <t>20/01/2025</t>
+        </is>
+      </c>
+      <c r="B1848" t="n">
+        <v>68.09791666666666</v>
+      </c>
+      <c r="C1848" t="n">
+        <v>68.10125000000001</v>
+      </c>
+      <c r="D1848" t="n">
+        <v>68.09875000000001</v>
+      </c>
+      <c r="E1848" t="n">
+        <v>68.09208333333333</v>
+      </c>
+    </row>
+    <row r="1849">
+      <c r="A1849" t="inlineStr">
+        <is>
+          <t>21/01/2025</t>
+        </is>
+      </c>
+      <c r="B1849" t="n">
+        <v>58.67166666666665</v>
+      </c>
+      <c r="C1849" t="n">
+        <v>58.67166666666665</v>
+      </c>
+      <c r="D1849" t="n">
+        <v>58.67249999999999</v>
+      </c>
+      <c r="E1849" t="n">
+        <v>58.67083333333332</v>
+      </c>
+    </row>
+    <row r="1850">
+      <c r="A1850" t="inlineStr">
+        <is>
+          <t>22/01/2025</t>
+        </is>
+      </c>
+      <c r="B1850" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="C1850" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="D1850" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1850" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1850"/>
+  <dimension ref="A1:E1852"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35591,6 +35591,44 @@
         <v>58.59999999999999</v>
       </c>
     </row>
+    <row r="1851">
+      <c r="A1851" t="inlineStr">
+        <is>
+          <t>23/01/2025</t>
+        </is>
+      </c>
+      <c r="B1851" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="C1851" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="D1851" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1851" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
+    <row r="1852">
+      <c r="A1852" t="inlineStr">
+        <is>
+          <t>24/01/2025</t>
+        </is>
+      </c>
+      <c r="B1852" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="C1852" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="D1852" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1852" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1852"/>
+  <dimension ref="A1:E1855"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35629,6 +35629,63 @@
         <v>58.59999999999999</v>
       </c>
     </row>
+    <row r="1853">
+      <c r="A1853" t="inlineStr">
+        <is>
+          <t>25/01/2025</t>
+        </is>
+      </c>
+      <c r="B1853" t="n">
+        <v>60.06083333333333</v>
+      </c>
+      <c r="C1853" t="n">
+        <v>60.0625</v>
+      </c>
+      <c r="D1853" t="n">
+        <v>59.71791666666667</v>
+      </c>
+      <c r="E1853" t="n">
+        <v>59.71125000000001</v>
+      </c>
+    </row>
+    <row r="1854">
+      <c r="A1854" t="inlineStr">
+        <is>
+          <t>26/01/2025</t>
+        </is>
+      </c>
+      <c r="B1854" t="n">
+        <v>59.88583333333333</v>
+      </c>
+      <c r="C1854" t="n">
+        <v>59.88625</v>
+      </c>
+      <c r="D1854" t="n">
+        <v>59.77875</v>
+      </c>
+      <c r="E1854" t="n">
+        <v>59.76958333333334</v>
+      </c>
+    </row>
+    <row r="1855">
+      <c r="A1855" t="inlineStr">
+        <is>
+          <t>27/01/2025</t>
+        </is>
+      </c>
+      <c r="B1855" t="n">
+        <v>60.15166666666667</v>
+      </c>
+      <c r="C1855" t="n">
+        <v>60.15750000000001</v>
+      </c>
+      <c r="D1855" t="n">
+        <v>60.11583333333334</v>
+      </c>
+      <c r="E1855" t="n">
+        <v>60.10416666666669</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1855"/>
+  <dimension ref="A1:E1856"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35686,6 +35686,25 @@
         <v>60.10416666666669</v>
       </c>
     </row>
+    <row r="1856">
+      <c r="A1856" t="inlineStr">
+        <is>
+          <t>28/01/2025</t>
+        </is>
+      </c>
+      <c r="B1856" t="n">
+        <v>60.41916666666668</v>
+      </c>
+      <c r="C1856" t="n">
+        <v>60.42458333333334</v>
+      </c>
+      <c r="D1856" t="n">
+        <v>60.17916666666667</v>
+      </c>
+      <c r="E1856" t="n">
+        <v>60.16583333333335</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1856"/>
+  <dimension ref="A1:E1857"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35705,6 +35705,25 @@
         <v>60.16583333333335</v>
       </c>
     </row>
+    <row r="1857">
+      <c r="A1857" t="inlineStr">
+        <is>
+          <t>29/01/2025</t>
+        </is>
+      </c>
+      <c r="B1857" t="n">
+        <v>60.32791666666667</v>
+      </c>
+      <c r="C1857" t="n">
+        <v>60.33166666666667</v>
+      </c>
+      <c r="D1857" t="n">
+        <v>60.32208333333335</v>
+      </c>
+      <c r="E1857" t="n">
+        <v>60.31041666666668</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1857"/>
+  <dimension ref="A1:E1865"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35724,6 +35724,158 @@
         <v>60.31041666666668</v>
       </c>
     </row>
+    <row r="1858">
+      <c r="A1858" t="inlineStr">
+        <is>
+          <t>30/01/2025</t>
+        </is>
+      </c>
+      <c r="B1858" t="n">
+        <v>59.64500000000001</v>
+      </c>
+      <c r="C1858" t="n">
+        <v>59.64791666666667</v>
+      </c>
+      <c r="D1858" t="n">
+        <v>59.63916666666668</v>
+      </c>
+      <c r="E1858" t="n">
+        <v>59.62583333333335</v>
+      </c>
+    </row>
+    <row r="1859">
+      <c r="A1859" t="inlineStr">
+        <is>
+          <t>31/01/2025</t>
+        </is>
+      </c>
+      <c r="B1859" t="n">
+        <v>59.09583333333333</v>
+      </c>
+      <c r="C1859" t="n">
+        <v>59.10166666666668</v>
+      </c>
+      <c r="D1859" t="n">
+        <v>58.81291666666666</v>
+      </c>
+      <c r="E1859" t="n">
+        <v>58.80708333333333</v>
+      </c>
+    </row>
+    <row r="1860">
+      <c r="A1860" t="inlineStr">
+        <is>
+          <t>01/02/2025</t>
+        </is>
+      </c>
+      <c r="B1860" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="C1860" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="D1860" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1860" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
+    <row r="1861">
+      <c r="A1861" t="inlineStr">
+        <is>
+          <t>02/02/2025</t>
+        </is>
+      </c>
+      <c r="B1861" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="C1861" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="D1861" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1861" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
+    <row r="1862">
+      <c r="A1862" t="inlineStr">
+        <is>
+          <t>03/02/2025</t>
+        </is>
+      </c>
+      <c r="B1862" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="C1862" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="D1862" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1862" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
+    <row r="1863">
+      <c r="A1863" t="inlineStr">
+        <is>
+          <t>04/02/2025</t>
+        </is>
+      </c>
+      <c r="B1863" t="n">
+        <v>58.78791666666667</v>
+      </c>
+      <c r="C1863" t="n">
+        <v>58.79291666666666</v>
+      </c>
+      <c r="D1863" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1863" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
+    <row r="1864">
+      <c r="A1864" t="inlineStr">
+        <is>
+          <t>05/02/2025</t>
+        </is>
+      </c>
+      <c r="B1864" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="C1864" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="D1864" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1864" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
+    <row r="1865">
+      <c r="A1865" t="inlineStr">
+        <is>
+          <t>06/02/2025</t>
+        </is>
+      </c>
+      <c r="B1865" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="C1865" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="D1865" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1865" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1865"/>
+  <dimension ref="A1:E1866"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35876,6 +35876,25 @@
         <v>58.59999999999999</v>
       </c>
     </row>
+    <row r="1866">
+      <c r="A1866" t="inlineStr">
+        <is>
+          <t>07/02/2025</t>
+        </is>
+      </c>
+      <c r="B1866" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="C1866" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="D1866" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1866" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1866"/>
+  <dimension ref="A1:E1870"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35895,6 +35895,82 @@
         <v>58.59999999999999</v>
       </c>
     </row>
+    <row r="1867">
+      <c r="A1867" t="inlineStr">
+        <is>
+          <t>08/02/2025</t>
+        </is>
+      </c>
+      <c r="B1867" t="n">
+        <v>78.69208333333334</v>
+      </c>
+      <c r="C1867" t="n">
+        <v>78.71333333333332</v>
+      </c>
+      <c r="D1867" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1867" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
+    <row r="1868">
+      <c r="A1868" t="inlineStr">
+        <is>
+          <t>09/02/2025</t>
+        </is>
+      </c>
+      <c r="B1868" t="n">
+        <v>78.56791666666666</v>
+      </c>
+      <c r="C1868" t="n">
+        <v>78.58833333333334</v>
+      </c>
+      <c r="D1868" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1868" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
+    <row r="1869">
+      <c r="A1869" t="inlineStr">
+        <is>
+          <t>10/02/2025</t>
+        </is>
+      </c>
+      <c r="B1869" t="n">
+        <v>98.42083333333333</v>
+      </c>
+      <c r="C1869" t="n">
+        <v>98.84166666666664</v>
+      </c>
+      <c r="D1869" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1869" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
+    <row r="1870">
+      <c r="A1870" t="inlineStr">
+        <is>
+          <t>11/02/2025</t>
+        </is>
+      </c>
+      <c r="B1870" t="n">
+        <v>99.99166666666667</v>
+      </c>
+      <c r="C1870" t="n">
+        <v>100.0945833333333</v>
+      </c>
+      <c r="D1870" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1870" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1870"/>
+  <dimension ref="A1:E1871"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35971,6 +35971,25 @@
         <v>58.59999999999999</v>
       </c>
     </row>
+    <row r="1871">
+      <c r="A1871" t="inlineStr">
+        <is>
+          <t>12/02/2025</t>
+        </is>
+      </c>
+      <c r="B1871" t="n">
+        <v>99.63500000000001</v>
+      </c>
+      <c r="C1871" t="n">
+        <v>99.84333333333335</v>
+      </c>
+      <c r="D1871" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1871" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1871"/>
+  <dimension ref="A1:E1872"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35990,6 +35990,25 @@
         <v>58.59999999999999</v>
       </c>
     </row>
+    <row r="1872">
+      <c r="A1872" t="inlineStr">
+        <is>
+          <t>13/02/2025</t>
+        </is>
+      </c>
+      <c r="B1872" t="n">
+        <v>98.72291666666665</v>
+      </c>
+      <c r="C1872" t="n">
+        <v>98.83416666666666</v>
+      </c>
+      <c r="D1872" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1872" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1872"/>
+  <dimension ref="A1:E1878"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36009,6 +36009,120 @@
         <v>58.59999999999999</v>
       </c>
     </row>
+    <row r="1873">
+      <c r="A1873" t="inlineStr">
+        <is>
+          <t>14/02/2025</t>
+        </is>
+      </c>
+      <c r="B1873" t="n">
+        <v>98.02541666666667</v>
+      </c>
+      <c r="C1873" t="n">
+        <v>98.08</v>
+      </c>
+      <c r="D1873" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1873" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
+    <row r="1874">
+      <c r="A1874" t="inlineStr">
+        <is>
+          <t>15/02/2025</t>
+        </is>
+      </c>
+      <c r="B1874" t="n">
+        <v>100.7025</v>
+      </c>
+      <c r="C1874" t="n">
+        <v>100.7291666666666</v>
+      </c>
+      <c r="D1874" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1874" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
+    <row r="1875">
+      <c r="A1875" t="inlineStr">
+        <is>
+          <t>16/02/2025</t>
+        </is>
+      </c>
+      <c r="B1875" t="n">
+        <v>94.48208333333332</v>
+      </c>
+      <c r="C1875" t="n">
+        <v>94.50416666666665</v>
+      </c>
+      <c r="D1875" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1875" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
+    <row r="1876">
+      <c r="A1876" t="inlineStr">
+        <is>
+          <t>17/02/2025</t>
+        </is>
+      </c>
+      <c r="B1876" t="n">
+        <v>118.6766666666667</v>
+      </c>
+      <c r="C1876" t="n">
+        <v>118.7133333333334</v>
+      </c>
+      <c r="D1876" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1876" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
+    <row r="1877">
+      <c r="A1877" t="inlineStr">
+        <is>
+          <t>18/02/2025</t>
+        </is>
+      </c>
+      <c r="B1877" t="n">
+        <v>119.6683333333333</v>
+      </c>
+      <c r="C1877" t="n">
+        <v>119.7</v>
+      </c>
+      <c r="D1877" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1877" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
+    <row r="1878">
+      <c r="A1878" t="inlineStr">
+        <is>
+          <t>19/02/2025</t>
+        </is>
+      </c>
+      <c r="B1878" t="n">
+        <v>120.2579166666667</v>
+      </c>
+      <c r="C1878" t="n">
+        <v>120.2829166666667</v>
+      </c>
+      <c r="D1878" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1878" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1878"/>
+  <dimension ref="A1:E1884"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36123,6 +36123,120 @@
         <v>58.59999999999999</v>
       </c>
     </row>
+    <row r="1879">
+      <c r="A1879" t="inlineStr">
+        <is>
+          <t>20/02/2025</t>
+        </is>
+      </c>
+      <c r="B1879" t="n">
+        <v>116.7604166666667</v>
+      </c>
+      <c r="C1879" t="n">
+        <v>116.785</v>
+      </c>
+      <c r="D1879" t="n">
+        <v>58.62749999999999</v>
+      </c>
+      <c r="E1879" t="n">
+        <v>58.62666666666666</v>
+      </c>
+    </row>
+    <row r="1880">
+      <c r="A1880" t="inlineStr">
+        <is>
+          <t>21/02/2025</t>
+        </is>
+      </c>
+      <c r="B1880" t="n">
+        <v>116.8545833333333</v>
+      </c>
+      <c r="C1880" t="n">
+        <v>116.87625</v>
+      </c>
+      <c r="D1880" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1880" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
+    <row r="1881">
+      <c r="A1881" t="inlineStr">
+        <is>
+          <t>22/02/2025</t>
+        </is>
+      </c>
+      <c r="B1881" t="n">
+        <v>97.59249999999999</v>
+      </c>
+      <c r="C1881" t="n">
+        <v>97.61416666666666</v>
+      </c>
+      <c r="D1881" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1881" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
+    <row r="1882">
+      <c r="A1882" t="inlineStr">
+        <is>
+          <t>23/02/2025</t>
+        </is>
+      </c>
+      <c r="B1882" t="n">
+        <v>90.28791666666665</v>
+      </c>
+      <c r="C1882" t="n">
+        <v>90.30624999999998</v>
+      </c>
+      <c r="D1882" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1882" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
+    <row r="1883">
+      <c r="A1883" t="inlineStr">
+        <is>
+          <t>24/02/2025</t>
+        </is>
+      </c>
+      <c r="B1883" t="n">
+        <v>113.83</v>
+      </c>
+      <c r="C1883" t="n">
+        <v>114.0416666666666</v>
+      </c>
+      <c r="D1883" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1883" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
+    <row r="1884">
+      <c r="A1884" t="inlineStr">
+        <is>
+          <t>25/02/2025</t>
+        </is>
+      </c>
+      <c r="B1884" t="n">
+        <v>128.9316666666666</v>
+      </c>
+      <c r="C1884" t="n">
+        <v>128.9854166666667</v>
+      </c>
+      <c r="D1884" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1884" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1884"/>
+  <dimension ref="A1:E1887"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36237,6 +36237,63 @@
         <v>58.59999999999999</v>
       </c>
     </row>
+    <row r="1885">
+      <c r="A1885" t="inlineStr">
+        <is>
+          <t>26/02/2025</t>
+        </is>
+      </c>
+      <c r="B1885" t="n">
+        <v>116.9033333333334</v>
+      </c>
+      <c r="C1885" t="n">
+        <v>116.9341666666667</v>
+      </c>
+      <c r="D1885" t="n">
+        <v>58.61916666666665</v>
+      </c>
+      <c r="E1885" t="n">
+        <v>58.61791666666665</v>
+      </c>
+    </row>
+    <row r="1886">
+      <c r="A1886" t="inlineStr">
+        <is>
+          <t>27/02/2025</t>
+        </is>
+      </c>
+      <c r="B1886" t="n">
+        <v>116.0225</v>
+      </c>
+      <c r="C1886" t="n">
+        <v>116.0791666666667</v>
+      </c>
+      <c r="D1886" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1886" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
+    <row r="1887">
+      <c r="A1887" t="inlineStr">
+        <is>
+          <t>28/02/2025</t>
+        </is>
+      </c>
+      <c r="B1887" t="n">
+        <v>111.83125</v>
+      </c>
+      <c r="C1887" t="n">
+        <v>112.2620833333333</v>
+      </c>
+      <c r="D1887" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1887" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1887"/>
+  <dimension ref="A1:E1898"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36294,6 +36294,215 @@
         <v>58.59999999999999</v>
       </c>
     </row>
+    <row r="1888">
+      <c r="A1888" t="inlineStr">
+        <is>
+          <t>01/03/2025</t>
+        </is>
+      </c>
+      <c r="B1888" t="n">
+        <v>271.7629166666666</v>
+      </c>
+      <c r="C1888" t="n">
+        <v>278.7270833333333</v>
+      </c>
+      <c r="D1888" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1888" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
+    <row r="1889">
+      <c r="A1889" t="inlineStr">
+        <is>
+          <t>02/03/2025</t>
+        </is>
+      </c>
+      <c r="B1889" t="n">
+        <v>233.1808333333334</v>
+      </c>
+      <c r="C1889" t="n">
+        <v>233.20625</v>
+      </c>
+      <c r="D1889" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1889" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
+    <row r="1890">
+      <c r="A1890" t="inlineStr">
+        <is>
+          <t>03/03/2025</t>
+        </is>
+      </c>
+      <c r="B1890" t="n">
+        <v>274.6125</v>
+      </c>
+      <c r="C1890" t="n">
+        <v>319.0841666666667</v>
+      </c>
+      <c r="D1890" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1890" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
+    <row r="1891">
+      <c r="A1891" t="inlineStr">
+        <is>
+          <t>04/03/2025</t>
+        </is>
+      </c>
+      <c r="B1891" t="n">
+        <v>268.3491666666666</v>
+      </c>
+      <c r="C1891" t="n">
+        <v>318.2483333333334</v>
+      </c>
+      <c r="D1891" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1891" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
+    <row r="1892">
+      <c r="A1892" t="inlineStr">
+        <is>
+          <t>05/03/2025</t>
+        </is>
+      </c>
+      <c r="B1892" t="n">
+        <v>320.7295833333334</v>
+      </c>
+      <c r="C1892" t="n">
+        <v>321.4708333333333</v>
+      </c>
+      <c r="D1892" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1892" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
+    <row r="1893">
+      <c r="A1893" t="inlineStr">
+        <is>
+          <t>06/03/2025</t>
+        </is>
+      </c>
+      <c r="B1893" t="n">
+        <v>322.1716666666667</v>
+      </c>
+      <c r="C1893" t="n">
+        <v>322.4454166666667</v>
+      </c>
+      <c r="D1893" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1893" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
+    <row r="1894">
+      <c r="A1894" t="inlineStr">
+        <is>
+          <t>07/03/2025</t>
+        </is>
+      </c>
+      <c r="B1894" t="n">
+        <v>323.2645833333333</v>
+      </c>
+      <c r="C1894" t="n">
+        <v>323.5445833333334</v>
+      </c>
+      <c r="D1894" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1894" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
+    <row r="1895">
+      <c r="A1895" t="inlineStr">
+        <is>
+          <t>08/03/2025</t>
+        </is>
+      </c>
+      <c r="B1895" t="n">
+        <v>293.0470833333334</v>
+      </c>
+      <c r="C1895" t="n">
+        <v>344.9083333333333</v>
+      </c>
+      <c r="D1895" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1895" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
+    <row r="1896">
+      <c r="A1896" t="inlineStr">
+        <is>
+          <t>09/03/2025</t>
+        </is>
+      </c>
+      <c r="B1896" t="n">
+        <v>247.7933333333333</v>
+      </c>
+      <c r="C1896" t="n">
+        <v>247.8183333333333</v>
+      </c>
+      <c r="D1896" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1896" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
+    <row r="1897">
+      <c r="A1897" t="inlineStr">
+        <is>
+          <t>10/03/2025</t>
+        </is>
+      </c>
+      <c r="B1897" t="n">
+        <v>359.2404166666666</v>
+      </c>
+      <c r="C1897" t="n">
+        <v>361.1133333333333</v>
+      </c>
+      <c r="D1897" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1897" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
+    <row r="1898">
+      <c r="A1898" t="inlineStr">
+        <is>
+          <t>11/03/2025</t>
+        </is>
+      </c>
+      <c r="B1898" t="n">
+        <v>365.52375</v>
+      </c>
+      <c r="C1898" t="n">
+        <v>365.5558333333333</v>
+      </c>
+      <c r="D1898" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1898" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1898"/>
+  <dimension ref="A1:E1905"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36503,6 +36503,139 @@
         <v>58.59999999999999</v>
       </c>
     </row>
+    <row r="1899">
+      <c r="A1899" t="inlineStr">
+        <is>
+          <t>12/03/2025</t>
+        </is>
+      </c>
+      <c r="B1899" t="n">
+        <v>364.2025000000001</v>
+      </c>
+      <c r="C1899" t="n">
+        <v>364.2320833333334</v>
+      </c>
+      <c r="D1899" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1899" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
+    <row r="1900">
+      <c r="A1900" t="inlineStr">
+        <is>
+          <t>13/03/2025</t>
+        </is>
+      </c>
+      <c r="B1900" t="n">
+        <v>359.9020833333334</v>
+      </c>
+      <c r="C1900" t="n">
+        <v>359.93625</v>
+      </c>
+      <c r="D1900" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1900" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
+    <row r="1901">
+      <c r="A1901" t="inlineStr">
+        <is>
+          <t>14/03/2025</t>
+        </is>
+      </c>
+      <c r="B1901" t="n">
+        <v>359.11125</v>
+      </c>
+      <c r="C1901" t="n">
+        <v>359.1420833333332</v>
+      </c>
+      <c r="D1901" t="n">
+        <v>58.83291666666666</v>
+      </c>
+      <c r="E1901" t="n">
+        <v>58.83124999999999</v>
+      </c>
+    </row>
+    <row r="1902">
+      <c r="A1902" t="inlineStr">
+        <is>
+          <t>15/03/2025</t>
+        </is>
+      </c>
+      <c r="B1902" t="n">
+        <v>336.2541666666666</v>
+      </c>
+      <c r="C1902" t="n">
+        <v>336.2829166666666</v>
+      </c>
+      <c r="D1902" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1902" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
+    <row r="1903">
+      <c r="A1903" t="inlineStr">
+        <is>
+          <t>16/03/2025</t>
+        </is>
+      </c>
+      <c r="B1903" t="n">
+        <v>275.925</v>
+      </c>
+      <c r="C1903" t="n">
+        <v>275.9495833333333</v>
+      </c>
+      <c r="D1903" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1903" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
+    <row r="1904">
+      <c r="A1904" t="inlineStr">
+        <is>
+          <t>17/03/2025</t>
+        </is>
+      </c>
+      <c r="B1904" t="n">
+        <v>409.6899999999999</v>
+      </c>
+      <c r="C1904" t="n">
+        <v>409.7270833333333</v>
+      </c>
+      <c r="D1904" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1904" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
+    <row r="1905">
+      <c r="A1905" t="inlineStr">
+        <is>
+          <t>18/03/2025</t>
+        </is>
+      </c>
+      <c r="B1905" t="n">
+        <v>412.9062500000001</v>
+      </c>
+      <c r="C1905" t="n">
+        <v>412.9445833333332</v>
+      </c>
+      <c r="D1905" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1905" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1905"/>
+  <dimension ref="A1:E1906"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36636,6 +36636,25 @@
         <v>58.59999999999999</v>
       </c>
     </row>
+    <row r="1906">
+      <c r="A1906" t="inlineStr">
+        <is>
+          <t>19/03/2025</t>
+        </is>
+      </c>
+      <c r="B1906" t="n">
+        <v>406.6058333333333</v>
+      </c>
+      <c r="C1906" t="n">
+        <v>406.6433333333333</v>
+      </c>
+      <c r="D1906" t="n">
+        <v>58.95791666666666</v>
+      </c>
+      <c r="E1906" t="n">
+        <v>58.95624999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1906"/>
+  <dimension ref="A1:E1912"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36655,6 +36655,120 @@
         <v>58.95624999999999</v>
       </c>
     </row>
+    <row r="1907">
+      <c r="A1907" t="inlineStr">
+        <is>
+          <t>20/03/2025</t>
+        </is>
+      </c>
+      <c r="B1907" t="n">
+        <v>402.2137499999999</v>
+      </c>
+      <c r="C1907" t="n">
+        <v>402.3925</v>
+      </c>
+      <c r="D1907" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1907" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
+    <row r="1908">
+      <c r="A1908" t="inlineStr">
+        <is>
+          <t>21/03/2025</t>
+        </is>
+      </c>
+      <c r="B1908" t="n">
+        <v>395.1516666666666</v>
+      </c>
+      <c r="C1908" t="n">
+        <v>396.2129166666667</v>
+      </c>
+      <c r="D1908" t="n">
+        <v>64.54541666666664</v>
+      </c>
+      <c r="E1908" t="n">
+        <v>64.54374999999997</v>
+      </c>
+    </row>
+    <row r="1909">
+      <c r="A1909" t="inlineStr">
+        <is>
+          <t>22/03/2025</t>
+        </is>
+      </c>
+      <c r="B1909" t="n">
+        <v>286.55</v>
+      </c>
+      <c r="C1909" t="n">
+        <v>286.5816666666667</v>
+      </c>
+      <c r="D1909" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1909" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
+    <row r="1910">
+      <c r="A1910" t="inlineStr">
+        <is>
+          <t>23/03/2025</t>
+        </is>
+      </c>
+      <c r="B1910" t="n">
+        <v>253.20375</v>
+      </c>
+      <c r="C1910" t="n">
+        <v>253.2304166666667</v>
+      </c>
+      <c r="D1910" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1910" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
+    <row r="1911">
+      <c r="A1911" t="inlineStr">
+        <is>
+          <t>24/03/2025</t>
+        </is>
+      </c>
+      <c r="B1911" t="n">
+        <v>389.3608333333333</v>
+      </c>
+      <c r="C1911" t="n">
+        <v>389.8091666666666</v>
+      </c>
+      <c r="D1911" t="n">
+        <v>60.42916666666665</v>
+      </c>
+      <c r="E1911" t="n">
+        <v>60.42749999999998</v>
+      </c>
+    </row>
+    <row r="1912">
+      <c r="A1912" t="inlineStr">
+        <is>
+          <t>25/03/2025</t>
+        </is>
+      </c>
+      <c r="B1912" t="n">
+        <v>392.315</v>
+      </c>
+      <c r="C1912" t="n">
+        <v>392.3570833333333</v>
+      </c>
+      <c r="D1912" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1912" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1912"/>
+  <dimension ref="A1:E1914"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36769,6 +36769,44 @@
         <v>58.59999999999999</v>
       </c>
     </row>
+    <row r="1913">
+      <c r="A1913" t="inlineStr">
+        <is>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="B1913" t="n">
+        <v>385.6345833333334</v>
+      </c>
+      <c r="C1913" t="n">
+        <v>385.7408333333333</v>
+      </c>
+      <c r="D1913" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1913" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
+    <row r="1914">
+      <c r="A1914" t="inlineStr">
+        <is>
+          <t>27/03/2025</t>
+        </is>
+      </c>
+      <c r="B1914" t="n">
+        <v>386.6704166666667</v>
+      </c>
+      <c r="C1914" t="n">
+        <v>387.1916666666666</v>
+      </c>
+      <c r="D1914" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1914" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1914"/>
+  <dimension ref="A1:E1918"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36807,6 +36807,82 @@
         <v>58.59999999999999</v>
       </c>
     </row>
+    <row r="1915">
+      <c r="A1915" t="inlineStr">
+        <is>
+          <t>28/03/2025</t>
+        </is>
+      </c>
+      <c r="B1915" t="n">
+        <v>384.2387499999999</v>
+      </c>
+      <c r="C1915" t="n">
+        <v>384.5954166666668</v>
+      </c>
+      <c r="D1915" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1915" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
+    <row r="1916">
+      <c r="A1916" t="inlineStr">
+        <is>
+          <t>29/03/2025</t>
+        </is>
+      </c>
+      <c r="B1916" t="n">
+        <v>203.3837499999999</v>
+      </c>
+      <c r="C1916" t="n">
+        <v>205.0591666666667</v>
+      </c>
+      <c r="D1916" t="n">
+        <v>61.43458333333331</v>
+      </c>
+      <c r="E1916" t="n">
+        <v>61.43416666666665</v>
+      </c>
+    </row>
+    <row r="1917">
+      <c r="A1917" t="inlineStr">
+        <is>
+          <t>30/03/2025</t>
+        </is>
+      </c>
+      <c r="B1917" t="n">
+        <v>182.0545833333333</v>
+      </c>
+      <c r="C1917" t="n">
+        <v>182.0604166666666</v>
+      </c>
+      <c r="D1917" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1917" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
+    <row r="1918">
+      <c r="A1918" t="inlineStr">
+        <is>
+          <t>31/03/2025</t>
+        </is>
+      </c>
+      <c r="B1918" t="n">
+        <v>282.0054166666666</v>
+      </c>
+      <c r="C1918" t="n">
+        <v>283.1216666666667</v>
+      </c>
+      <c r="D1918" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1918" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1918"/>
+  <dimension ref="A1:E1920"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36883,6 +36883,44 @@
         <v>58.59999999999999</v>
       </c>
     </row>
+    <row r="1919">
+      <c r="A1919" t="inlineStr">
+        <is>
+          <t>01/04/2025</t>
+        </is>
+      </c>
+      <c r="B1919" t="n">
+        <v>281.39875</v>
+      </c>
+      <c r="C1919" t="n">
+        <v>282.0758333333333</v>
+      </c>
+      <c r="D1919" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1919" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
+    <row r="1920">
+      <c r="A1920" t="inlineStr">
+        <is>
+          <t>02/04/2025</t>
+        </is>
+      </c>
+      <c r="B1920" t="n">
+        <v>281.265</v>
+      </c>
+      <c r="C1920" t="n">
+        <v>282.3258333333333</v>
+      </c>
+      <c r="D1920" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1920" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1920"/>
+  <dimension ref="A1:E1927"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36921,6 +36921,139 @@
         <v>58.59999999999999</v>
       </c>
     </row>
+    <row r="1921">
+      <c r="A1921" t="inlineStr">
+        <is>
+          <t>03/04/2025</t>
+        </is>
+      </c>
+      <c r="B1921" t="n">
+        <v>278.9916666666667</v>
+      </c>
+      <c r="C1921" t="n">
+        <v>279.7408333333333</v>
+      </c>
+      <c r="D1921" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1921" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
+    <row r="1922">
+      <c r="A1922" t="inlineStr">
+        <is>
+          <t>04/04/2025</t>
+        </is>
+      </c>
+      <c r="B1922" t="n">
+        <v>278.6725</v>
+      </c>
+      <c r="C1922" t="n">
+        <v>278.68125</v>
+      </c>
+      <c r="D1922" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1922" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
+    <row r="1923">
+      <c r="A1923" t="inlineStr">
+        <is>
+          <t>05/04/2025</t>
+        </is>
+      </c>
+      <c r="B1923" t="n">
+        <v>204.7354166666667</v>
+      </c>
+      <c r="C1923" t="n">
+        <v>204.7425</v>
+      </c>
+      <c r="D1923" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1923" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
+    <row r="1924">
+      <c r="A1924" t="inlineStr">
+        <is>
+          <t>06/04/2025</t>
+        </is>
+      </c>
+      <c r="B1924" t="n">
+        <v>148.7966666666666</v>
+      </c>
+      <c r="C1924" t="n">
+        <v>148.8025</v>
+      </c>
+      <c r="D1924" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1924" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
+    <row r="1925">
+      <c r="A1925" t="inlineStr">
+        <is>
+          <t>07/04/2025</t>
+        </is>
+      </c>
+      <c r="B1925" t="n">
+        <v>174.3820833333333</v>
+      </c>
+      <c r="C1925" t="n">
+        <v>174.38875</v>
+      </c>
+      <c r="D1925" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1925" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
+    <row r="1926">
+      <c r="A1926" t="inlineStr">
+        <is>
+          <t>08/04/2025</t>
+        </is>
+      </c>
+      <c r="B1926" t="n">
+        <v>191.25125</v>
+      </c>
+      <c r="C1926" t="n">
+        <v>193.7741666666667</v>
+      </c>
+      <c r="D1926" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1926" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
+    <row r="1927">
+      <c r="A1927" t="inlineStr">
+        <is>
+          <t>09/04/2025</t>
+        </is>
+      </c>
+      <c r="B1927" t="n">
+        <v>245.9520833333333</v>
+      </c>
+      <c r="C1927" t="n">
+        <v>248.1883333333333</v>
+      </c>
+      <c r="D1927" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1927" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1927"/>
+  <dimension ref="A1:E1933"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37054,6 +37054,120 @@
         <v>58.59999999999999</v>
       </c>
     </row>
+    <row r="1928">
+      <c r="A1928" t="inlineStr">
+        <is>
+          <t>10/04/2025</t>
+        </is>
+      </c>
+      <c r="B1928" t="n">
+        <v>247.59625</v>
+      </c>
+      <c r="C1928" t="n">
+        <v>247.6604166666667</v>
+      </c>
+      <c r="D1928" t="n">
+        <v>202.07625</v>
+      </c>
+      <c r="E1928" t="n">
+        <v>202.0675</v>
+      </c>
+    </row>
+    <row r="1929">
+      <c r="A1929" t="inlineStr">
+        <is>
+          <t>11/04/2025</t>
+        </is>
+      </c>
+      <c r="B1929" t="n">
+        <v>258.8145833333334</v>
+      </c>
+      <c r="C1929" t="n">
+        <v>259.6379166666667</v>
+      </c>
+      <c r="D1929" t="n">
+        <v>257.2050000000001</v>
+      </c>
+      <c r="E1929" t="n">
+        <v>257.195</v>
+      </c>
+    </row>
+    <row r="1930">
+      <c r="A1930" t="inlineStr">
+        <is>
+          <t>12/04/2025</t>
+        </is>
+      </c>
+      <c r="B1930" t="n">
+        <v>169.5041666666666</v>
+      </c>
+      <c r="C1930" t="n">
+        <v>169.5108333333333</v>
+      </c>
+      <c r="D1930" t="n">
+        <v>147.52625</v>
+      </c>
+      <c r="E1930" t="n">
+        <v>147.5191666666666</v>
+      </c>
+    </row>
+    <row r="1931">
+      <c r="A1931" t="inlineStr">
+        <is>
+          <t>13/04/2025</t>
+        </is>
+      </c>
+      <c r="B1931" t="n">
+        <v>126.8854166666666</v>
+      </c>
+      <c r="C1931" t="n">
+        <v>126.89</v>
+      </c>
+      <c r="D1931" t="n">
+        <v>77.55499999999995</v>
+      </c>
+      <c r="E1931" t="n">
+        <v>77.55374999999995</v>
+      </c>
+    </row>
+    <row r="1932">
+      <c r="A1932" t="inlineStr">
+        <is>
+          <t>14/04/2025</t>
+        </is>
+      </c>
+      <c r="B1932" t="n">
+        <v>214.5516666666666</v>
+      </c>
+      <c r="C1932" t="n">
+        <v>216.67125</v>
+      </c>
+      <c r="D1932" t="n">
+        <v>111.5320833333333</v>
+      </c>
+      <c r="E1932" t="n">
+        <v>111.5233333333334</v>
+      </c>
+    </row>
+    <row r="1933">
+      <c r="A1933" t="inlineStr">
+        <is>
+          <t>15/04/2025</t>
+        </is>
+      </c>
+      <c r="B1933" t="n">
+        <v>217.0079166666667</v>
+      </c>
+      <c r="C1933" t="n">
+        <v>219.2683333333333</v>
+      </c>
+      <c r="D1933" t="n">
+        <v>188.73625</v>
+      </c>
+      <c r="E1933" t="n">
+        <v>188.7270833333333</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1933"/>
+  <dimension ref="A1:E1934"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37168,6 +37168,25 @@
         <v>188.7270833333333</v>
       </c>
     </row>
+    <row r="1934">
+      <c r="A1934" t="inlineStr">
+        <is>
+          <t>16/04/2025</t>
+        </is>
+      </c>
+      <c r="B1934" t="n">
+        <v>214.8983333333333</v>
+      </c>
+      <c r="C1934" t="n">
+        <v>214.9066666666667</v>
+      </c>
+      <c r="D1934" t="n">
+        <v>105.5770833333333</v>
+      </c>
+      <c r="E1934" t="n">
+        <v>105.57125</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1934"/>
+  <dimension ref="A1:E1941"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37187,6 +37187,139 @@
         <v>105.57125</v>
       </c>
     </row>
+    <row r="1935">
+      <c r="A1935" t="inlineStr">
+        <is>
+          <t>17/04/2025</t>
+        </is>
+      </c>
+      <c r="B1935" t="n">
+        <v>214.5966666666667</v>
+      </c>
+      <c r="C1935" t="n">
+        <v>214.6183333333333</v>
+      </c>
+      <c r="D1935" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1935" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
+    <row r="1936">
+      <c r="A1936" t="inlineStr">
+        <is>
+          <t>18/04/2025</t>
+        </is>
+      </c>
+      <c r="B1936" t="n">
+        <v>143.2025</v>
+      </c>
+      <c r="C1936" t="n">
+        <v>143.2083333333333</v>
+      </c>
+      <c r="D1936" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1936" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
+    <row r="1937">
+      <c r="A1937" t="inlineStr">
+        <is>
+          <t>19/04/2025</t>
+        </is>
+      </c>
+      <c r="B1937" t="n">
+        <v>126.48875</v>
+      </c>
+      <c r="C1937" t="n">
+        <v>126.4941666666667</v>
+      </c>
+      <c r="D1937" t="n">
+        <v>80.79000000000001</v>
+      </c>
+      <c r="E1937" t="n">
+        <v>80.78583333333334</v>
+      </c>
+    </row>
+    <row r="1938">
+      <c r="A1938" t="inlineStr">
+        <is>
+          <t>20/04/2025</t>
+        </is>
+      </c>
+      <c r="B1938" t="n">
+        <v>123.4891666666666</v>
+      </c>
+      <c r="C1938" t="n">
+        <v>123.4945833333333</v>
+      </c>
+      <c r="D1938" t="n">
+        <v>122.4441666666666</v>
+      </c>
+      <c r="E1938" t="n">
+        <v>122.43875</v>
+      </c>
+    </row>
+    <row r="1939">
+      <c r="A1939" t="inlineStr">
+        <is>
+          <t>21/04/2025</t>
+        </is>
+      </c>
+      <c r="B1939" t="n">
+        <v>130.5075</v>
+      </c>
+      <c r="C1939" t="n">
+        <v>130.5125</v>
+      </c>
+      <c r="D1939" t="n">
+        <v>124.9166666666667</v>
+      </c>
+      <c r="E1939" t="n">
+        <v>124.9104166666666</v>
+      </c>
+    </row>
+    <row r="1940">
+      <c r="A1940" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+      <c r="B1940" t="n">
+        <v>138.44375</v>
+      </c>
+      <c r="C1940" t="n">
+        <v>138.45875</v>
+      </c>
+      <c r="D1940" t="n">
+        <v>83.69166666666663</v>
+      </c>
+      <c r="E1940" t="n">
+        <v>83.68874999999997</v>
+      </c>
+    </row>
+    <row r="1941">
+      <c r="A1941" t="inlineStr">
+        <is>
+          <t>23/04/2025</t>
+        </is>
+      </c>
+      <c r="B1941" t="n">
+        <v>139.4791666666666</v>
+      </c>
+      <c r="C1941" t="n">
+        <v>146.5766666666667</v>
+      </c>
+      <c r="D1941" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1941" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1941"/>
+  <dimension ref="A1:E1947"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37320,6 +37320,120 @@
         <v>58.59999999999999</v>
       </c>
     </row>
+    <row r="1942">
+      <c r="A1942" t="inlineStr">
+        <is>
+          <t>24/04/2025</t>
+        </is>
+      </c>
+      <c r="B1942" t="n">
+        <v>180.8916666666667</v>
+      </c>
+      <c r="C1942" t="n">
+        <v>182.3829166666667</v>
+      </c>
+      <c r="D1942" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1942" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
+    <row r="1943">
+      <c r="A1943" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="B1943" t="n">
+        <v>178.7608333333334</v>
+      </c>
+      <c r="C1943" t="n">
+        <v>178.76875</v>
+      </c>
+      <c r="D1943" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1943" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
+    <row r="1944">
+      <c r="A1944" t="inlineStr">
+        <is>
+          <t>26/04/2025</t>
+        </is>
+      </c>
+      <c r="B1944" t="n">
+        <v>180.1508333333333</v>
+      </c>
+      <c r="C1944" t="n">
+        <v>180.1570833333334</v>
+      </c>
+      <c r="D1944" t="n">
+        <v>119.3216666666666</v>
+      </c>
+      <c r="E1944" t="n">
+        <v>119.3158333333333</v>
+      </c>
+    </row>
+    <row r="1945">
+      <c r="A1945" t="inlineStr">
+        <is>
+          <t>27/04/2025</t>
+        </is>
+      </c>
+      <c r="B1945" t="n">
+        <v>166.4045833333333</v>
+      </c>
+      <c r="C1945" t="n">
+        <v>166.4104166666666</v>
+      </c>
+      <c r="D1945" t="n">
+        <v>80.02875</v>
+      </c>
+      <c r="E1945" t="n">
+        <v>80.02458333333333</v>
+      </c>
+    </row>
+    <row r="1946">
+      <c r="A1946" t="inlineStr">
+        <is>
+          <t>28/04/2025</t>
+        </is>
+      </c>
+      <c r="B1946" t="n">
+        <v>277.27125</v>
+      </c>
+      <c r="C1946" t="n">
+        <v>277.5725</v>
+      </c>
+      <c r="D1946" t="n">
+        <v>268.7745833333333</v>
+      </c>
+      <c r="E1946" t="n">
+        <v>268.7675</v>
+      </c>
+    </row>
+    <row r="1947">
+      <c r="A1947" t="inlineStr">
+        <is>
+          <t>29/04/2025</t>
+        </is>
+      </c>
+      <c r="B1947" t="n">
+        <v>273.3470833333333</v>
+      </c>
+      <c r="C1947" t="n">
+        <v>275.3529166666667</v>
+      </c>
+      <c r="D1947" t="n">
+        <v>245.9320833333333</v>
+      </c>
+      <c r="E1947" t="n">
+        <v>245.9225</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1947"/>
+  <dimension ref="A1:E1948"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37434,6 +37434,25 @@
         <v>245.9225</v>
       </c>
     </row>
+    <row r="1948">
+      <c r="A1948" t="inlineStr">
+        <is>
+          <t>30/04/2025</t>
+        </is>
+      </c>
+      <c r="B1948" t="n">
+        <v>257.7737500000001</v>
+      </c>
+      <c r="C1948" t="n">
+        <v>258.1675</v>
+      </c>
+      <c r="D1948" t="n">
+        <v>181.7908333333334</v>
+      </c>
+      <c r="E1948" t="n">
+        <v>181.7825</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1948"/>
+  <dimension ref="A1:E1953"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37453,6 +37453,101 @@
         <v>181.7825</v>
       </c>
     </row>
+    <row r="1949">
+      <c r="A1949" t="inlineStr">
+        <is>
+          <t>01/05/2025</t>
+        </is>
+      </c>
+      <c r="B1949" t="n">
+        <v>140.5566666666666</v>
+      </c>
+      <c r="C1949" t="n">
+        <v>140.5604166666667</v>
+      </c>
+      <c r="D1949" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1949" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
+    <row r="1950">
+      <c r="A1950" t="inlineStr">
+        <is>
+          <t>02/05/2025</t>
+        </is>
+      </c>
+      <c r="B1950" t="n">
+        <v>136.3291666666667</v>
+      </c>
+      <c r="C1950" t="n">
+        <v>137.2220833333334</v>
+      </c>
+      <c r="D1950" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1950" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
+    <row r="1951">
+      <c r="A1951" t="inlineStr">
+        <is>
+          <t>03/05/2025</t>
+        </is>
+      </c>
+      <c r="B1951" t="n">
+        <v>113.50375</v>
+      </c>
+      <c r="C1951" t="n">
+        <v>113.5075</v>
+      </c>
+      <c r="D1951" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1951" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
+    <row r="1952">
+      <c r="A1952" t="inlineStr">
+        <is>
+          <t>04/05/2025</t>
+        </is>
+      </c>
+      <c r="B1952" t="n">
+        <v>119.5745833333334</v>
+      </c>
+      <c r="C1952" t="n">
+        <v>119.5775</v>
+      </c>
+      <c r="D1952" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1952" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
+    <row r="1953">
+      <c r="A1953" t="inlineStr">
+        <is>
+          <t>05/05/2025</t>
+        </is>
+      </c>
+      <c r="B1953" t="n">
+        <v>166.87375</v>
+      </c>
+      <c r="C1953" t="n">
+        <v>197.8645833333333</v>
+      </c>
+      <c r="D1953" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1953" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1953"/>
+  <dimension ref="A1:E1957"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37548,6 +37548,82 @@
         <v>58.59999999999999</v>
       </c>
     </row>
+    <row r="1954">
+      <c r="A1954" t="inlineStr">
+        <is>
+          <t>06/05/2025</t>
+        </is>
+      </c>
+      <c r="B1954" t="n">
+        <v>207.5133333333333</v>
+      </c>
+      <c r="C1954" t="n">
+        <v>244.4891666666667</v>
+      </c>
+      <c r="D1954" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1954" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
+    <row r="1955">
+      <c r="A1955" t="inlineStr">
+        <is>
+          <t>07/05/2025</t>
+        </is>
+      </c>
+      <c r="B1955" t="n">
+        <v>224.92625</v>
+      </c>
+      <c r="C1955" t="n">
+        <v>271.3625</v>
+      </c>
+      <c r="D1955" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1955" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
+    <row r="1956">
+      <c r="A1956" t="inlineStr">
+        <is>
+          <t>08/05/2025</t>
+        </is>
+      </c>
+      <c r="B1956" t="n">
+        <v>229.455</v>
+      </c>
+      <c r="C1956" t="n">
+        <v>273.1587500000001</v>
+      </c>
+      <c r="D1956" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1956" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
+    <row r="1957">
+      <c r="A1957" t="inlineStr">
+        <is>
+          <t>09/05/2025</t>
+        </is>
+      </c>
+      <c r="B1957" t="n">
+        <v>242.9508333333333</v>
+      </c>
+      <c r="C1957" t="n">
+        <v>274.6729166666667</v>
+      </c>
+      <c r="D1957" t="n">
+        <v>67.29916666666666</v>
+      </c>
+      <c r="E1957" t="n">
+        <v>67.29916666666666</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1957"/>
+  <dimension ref="A1:E1960"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37624,6 +37624,63 @@
         <v>67.29916666666666</v>
       </c>
     </row>
+    <row r="1958">
+      <c r="A1958" t="inlineStr">
+        <is>
+          <t>10/05/2025</t>
+        </is>
+      </c>
+      <c r="B1958" t="n">
+        <v>221.8091666666666</v>
+      </c>
+      <c r="C1958" t="n">
+        <v>222.1379166666667</v>
+      </c>
+      <c r="D1958" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1958" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
+    <row r="1959">
+      <c r="A1959" t="inlineStr">
+        <is>
+          <t>11/05/2025</t>
+        </is>
+      </c>
+      <c r="B1959" t="n">
+        <v>157.8075</v>
+      </c>
+      <c r="C1959" t="n">
+        <v>160.2833333333333</v>
+      </c>
+      <c r="D1959" t="n">
+        <v>82.99374999999993</v>
+      </c>
+      <c r="E1959" t="n">
+        <v>82.99458333333327</v>
+      </c>
+    </row>
+    <row r="1960">
+      <c r="A1960" t="inlineStr">
+        <is>
+          <t>12/05/2025</t>
+        </is>
+      </c>
+      <c r="B1960" t="n">
+        <v>222.0695833333333</v>
+      </c>
+      <c r="C1960" t="n">
+        <v>244.11375</v>
+      </c>
+      <c r="D1960" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1960" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1960"/>
+  <dimension ref="A1:E1962"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37681,6 +37681,44 @@
         <v>58.59999999999999</v>
       </c>
     </row>
+    <row r="1961">
+      <c r="A1961" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+      <c r="B1961" t="n">
+        <v>203.94375</v>
+      </c>
+      <c r="C1961" t="n">
+        <v>238.20125</v>
+      </c>
+      <c r="D1961" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1961" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
+    <row r="1962">
+      <c r="A1962" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+      <c r="B1962" t="n">
+        <v>209.9704166666666</v>
+      </c>
+      <c r="C1962" t="n">
+        <v>258.8404166666666</v>
+      </c>
+      <c r="D1962" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1962" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1962"/>
+  <dimension ref="A1:E1969"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37719,6 +37719,139 @@
         <v>58.59999999999999</v>
       </c>
     </row>
+    <row r="1963">
+      <c r="A1963" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+      <c r="B1963" t="n">
+        <v>233.5141666666666</v>
+      </c>
+      <c r="C1963" t="n">
+        <v>283.7045833333333</v>
+      </c>
+      <c r="D1963" t="n">
+        <v>59.52541666666665</v>
+      </c>
+      <c r="E1963" t="n">
+        <v>59.52499999999998</v>
+      </c>
+    </row>
+    <row r="1964">
+      <c r="A1964" t="inlineStr">
+        <is>
+          <t>16/05/2025</t>
+        </is>
+      </c>
+      <c r="B1964" t="n">
+        <v>233.5141666666666</v>
+      </c>
+      <c r="C1964" t="n">
+        <v>283.7045833333333</v>
+      </c>
+      <c r="D1964" t="n">
+        <v>59.52541666666665</v>
+      </c>
+      <c r="E1964" t="n">
+        <v>59.52499999999998</v>
+      </c>
+    </row>
+    <row r="1965">
+      <c r="A1965" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+      <c r="B1965" t="n">
+        <v>180.75875</v>
+      </c>
+      <c r="C1965" t="n">
+        <v>181.7979166666666</v>
+      </c>
+      <c r="D1965" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1965" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
+    <row r="1966">
+      <c r="A1966" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+      <c r="B1966" t="n">
+        <v>137.8695833333333</v>
+      </c>
+      <c r="C1966" t="n">
+        <v>141.0679166666667</v>
+      </c>
+      <c r="D1966" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1966" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
+    <row r="1967">
+      <c r="A1967" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+      <c r="B1967" t="n">
+        <v>192.6941666666667</v>
+      </c>
+      <c r="C1967" t="n">
+        <v>244.7066666666667</v>
+      </c>
+      <c r="D1967" t="n">
+        <v>147.6945833333334</v>
+      </c>
+      <c r="E1967" t="n">
+        <v>147.6958333333334</v>
+      </c>
+    </row>
+    <row r="1968">
+      <c r="A1968" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+      <c r="B1968" t="n">
+        <v>286.4825</v>
+      </c>
+      <c r="C1968" t="n">
+        <v>303.2704166666667</v>
+      </c>
+      <c r="D1968" t="n">
+        <v>280.2258333333332</v>
+      </c>
+      <c r="E1968" t="n">
+        <v>280.235</v>
+      </c>
+    </row>
+    <row r="1969">
+      <c r="A1969" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+      <c r="B1969" t="n">
+        <v>293.5479166666666</v>
+      </c>
+      <c r="C1969" t="n">
+        <v>321.0895833333334</v>
+      </c>
+      <c r="D1969" t="n">
+        <v>286.3508333333333</v>
+      </c>
+      <c r="E1969" t="n">
+        <v>286.3533333333334</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1969"/>
+  <dimension ref="A1:E1971"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37852,6 +37852,44 @@
         <v>286.3533333333334</v>
       </c>
     </row>
+    <row r="1970">
+      <c r="A1970" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+      <c r="B1970" t="n">
+        <v>292.9537500000001</v>
+      </c>
+      <c r="C1970" t="n">
+        <v>314.8916666666667</v>
+      </c>
+      <c r="D1970" t="n">
+        <v>288.6495833333334</v>
+      </c>
+      <c r="E1970" t="n">
+        <v>288.6529166666667</v>
+      </c>
+    </row>
+    <row r="1971">
+      <c r="A1971" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+      <c r="B1971" t="n">
+        <v>292.2520833333333</v>
+      </c>
+      <c r="C1971" t="n">
+        <v>319.5558333333333</v>
+      </c>
+      <c r="D1971" t="n">
+        <v>289.0887499999999</v>
+      </c>
+      <c r="E1971" t="n">
+        <v>289.0929166666667</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1971"/>
+  <dimension ref="A1:E1976"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37890,6 +37890,101 @@
         <v>289.0929166666667</v>
       </c>
     </row>
+    <row r="1972">
+      <c r="A1972" t="inlineStr">
+        <is>
+          <t>24/05/2025</t>
+        </is>
+      </c>
+      <c r="B1972" t="n">
+        <v>168.8491666666666</v>
+      </c>
+      <c r="C1972" t="n">
+        <v>168.9375</v>
+      </c>
+      <c r="D1972" t="n">
+        <v>96.34124999999996</v>
+      </c>
+      <c r="E1972" t="n">
+        <v>96.34458333333328</v>
+      </c>
+    </row>
+    <row r="1973">
+      <c r="A1973" t="inlineStr">
+        <is>
+          <t>25/05/2025</t>
+        </is>
+      </c>
+      <c r="B1973" t="n">
+        <v>133.4483333333334</v>
+      </c>
+      <c r="C1973" t="n">
+        <v>133.4595833333333</v>
+      </c>
+      <c r="D1973" t="n">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="E1973" t="n">
+        <v>58.59999999999999</v>
+      </c>
+    </row>
+    <row r="1974">
+      <c r="A1974" t="inlineStr">
+        <is>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+      <c r="B1974" t="n">
+        <v>193.8408333333333</v>
+      </c>
+      <c r="C1974" t="n">
+        <v>242.8191666666667</v>
+      </c>
+      <c r="D1974" t="n">
+        <v>100.2129166666667</v>
+      </c>
+      <c r="E1974" t="n">
+        <v>102.0212500000001</v>
+      </c>
+    </row>
+    <row r="1975">
+      <c r="A1975" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+      <c r="B1975" t="n">
+        <v>231.0866666666667</v>
+      </c>
+      <c r="C1975" t="n">
+        <v>270.7129166666666</v>
+      </c>
+      <c r="D1975" t="n">
+        <v>148.2375</v>
+      </c>
+      <c r="E1975" t="n">
+        <v>150.3129166666667</v>
+      </c>
+    </row>
+    <row r="1976">
+      <c r="A1976" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+      <c r="B1976" t="n">
+        <v>292.4558333333333</v>
+      </c>
+      <c r="C1976" t="n">
+        <v>297.9466666666667</v>
+      </c>
+      <c r="D1976" t="n">
+        <v>262.8529166666667</v>
+      </c>
+      <c r="E1976" t="n">
+        <v>265.3333333333333</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1976"/>
+  <dimension ref="A1:E1978"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37985,6 +37985,44 @@
         <v>265.3333333333333</v>
       </c>
     </row>
+    <row r="1977">
+      <c r="A1977" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+      <c r="B1977" t="n">
+        <v>296.4825</v>
+      </c>
+      <c r="C1977" t="n">
+        <v>297.8358333333334</v>
+      </c>
+      <c r="D1977" t="n">
+        <v>294.5391666666667</v>
+      </c>
+      <c r="E1977" t="n">
+        <v>294.5433333333334</v>
+      </c>
+    </row>
+    <row r="1978">
+      <c r="A1978" t="inlineStr">
+        <is>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+      <c r="B1978" t="n">
+        <v>297.9141666666666</v>
+      </c>
+      <c r="C1978" t="n">
+        <v>298.4329166666666</v>
+      </c>
+      <c r="D1978" t="n">
+        <v>297.5808333333334</v>
+      </c>
+      <c r="E1978" t="n">
+        <v>297.5858333333333</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1978"/>
+  <dimension ref="A1:E1981"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38023,6 +38023,63 @@
         <v>297.5858333333333</v>
       </c>
     </row>
+    <row r="1979">
+      <c r="A1979" t="inlineStr">
+        <is>
+          <t>31/05/2025</t>
+        </is>
+      </c>
+      <c r="B1979" t="n">
+        <v>235.0233333333333</v>
+      </c>
+      <c r="C1979" t="n">
+        <v>235.0308333333334</v>
+      </c>
+      <c r="D1979" t="n">
+        <v>234.3741666666667</v>
+      </c>
+      <c r="E1979" t="n">
+        <v>234.38</v>
+      </c>
+    </row>
+    <row r="1980">
+      <c r="A1980" t="inlineStr">
+        <is>
+          <t>01/06/2025</t>
+        </is>
+      </c>
+      <c r="B1980" t="n">
+        <v>190.58375</v>
+      </c>
+      <c r="C1980" t="n">
+        <v>190.5899999999999</v>
+      </c>
+      <c r="D1980" t="n">
+        <v>190.435</v>
+      </c>
+      <c r="E1980" t="n">
+        <v>190.4683333333333</v>
+      </c>
+    </row>
+    <row r="1981">
+      <c r="A1981" t="inlineStr">
+        <is>
+          <t>02/06/2025</t>
+        </is>
+      </c>
+      <c r="B1981" t="n">
+        <v>278.0741666666667</v>
+      </c>
+      <c r="C1981" t="n">
+        <v>278.7516666666667</v>
+      </c>
+      <c r="D1981" t="n">
+        <v>265.39875</v>
+      </c>
+      <c r="E1981" t="n">
+        <v>270.4424999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1981"/>
+  <dimension ref="A1:E1983"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38080,6 +38080,44 @@
         <v>270.4424999999999</v>
       </c>
     </row>
+    <row r="1982">
+      <c r="A1982" t="inlineStr">
+        <is>
+          <t>03/06/2025</t>
+        </is>
+      </c>
+      <c r="B1982" t="n">
+        <v>286.6658333333333</v>
+      </c>
+      <c r="C1982" t="n">
+        <v>301.9975</v>
+      </c>
+      <c r="D1982" t="n">
+        <v>256.5670833333333</v>
+      </c>
+      <c r="E1982" t="n">
+        <v>270.2187500000001</v>
+      </c>
+    </row>
+    <row r="1983">
+      <c r="A1983" t="inlineStr">
+        <is>
+          <t>04/06/2025</t>
+        </is>
+      </c>
+      <c r="B1983" t="n">
+        <v>307.6558333333333</v>
+      </c>
+      <c r="C1983" t="n">
+        <v>314.5066666666667</v>
+      </c>
+      <c r="D1983" t="n">
+        <v>304.5183333333333</v>
+      </c>
+      <c r="E1983" t="n">
+        <v>305.13375</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1983"/>
+  <dimension ref="A1:E1985"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38118,6 +38118,44 @@
         <v>305.13375</v>
       </c>
     </row>
+    <row r="1984">
+      <c r="A1984" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
+      </c>
+      <c r="B1984" t="n">
+        <v>313.0075</v>
+      </c>
+      <c r="C1984" t="n">
+        <v>315.85375</v>
+      </c>
+      <c r="D1984" t="n">
+        <v>312.5512499999999</v>
+      </c>
+      <c r="E1984" t="n">
+        <v>312.6487499999999</v>
+      </c>
+    </row>
+    <row r="1985">
+      <c r="A1985" t="inlineStr">
+        <is>
+          <t>06/06/2025</t>
+        </is>
+      </c>
+      <c r="B1985" t="n">
+        <v>311.8141666666667</v>
+      </c>
+      <c r="C1985" t="n">
+        <v>312.7025</v>
+      </c>
+      <c r="D1985" t="n">
+        <v>311.4829166666667</v>
+      </c>
+      <c r="E1985" t="n">
+        <v>311.5395833333334</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1985"/>
+  <dimension ref="A1:E1989"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38156,6 +38156,82 @@
         <v>311.5395833333334</v>
       </c>
     </row>
+    <row r="1986">
+      <c r="A1986" t="inlineStr">
+        <is>
+          <t>07/06/2025</t>
+        </is>
+      </c>
+      <c r="B1986" t="n">
+        <v>222.3666666666666</v>
+      </c>
+      <c r="C1986" t="n">
+        <v>222.3725</v>
+      </c>
+      <c r="D1986" t="n">
+        <v>222.2266666666667</v>
+      </c>
+      <c r="E1986" t="n">
+        <v>222.23375</v>
+      </c>
+    </row>
+    <row r="1987">
+      <c r="A1987" t="inlineStr">
+        <is>
+          <t>08/06/2025</t>
+        </is>
+      </c>
+      <c r="B1987" t="n">
+        <v>202.2441666666666</v>
+      </c>
+      <c r="C1987" t="n">
+        <v>202.2474999999999</v>
+      </c>
+      <c r="D1987" t="n">
+        <v>202.2391666666666</v>
+      </c>
+      <c r="E1987" t="n">
+        <v>202.2441666666666</v>
+      </c>
+    </row>
+    <row r="1988">
+      <c r="A1988" t="inlineStr">
+        <is>
+          <t>09/06/2025</t>
+        </is>
+      </c>
+      <c r="B1988" t="n">
+        <v>288.1204166666667</v>
+      </c>
+      <c r="C1988" t="n">
+        <v>288.1258333333334</v>
+      </c>
+      <c r="D1988" t="n">
+        <v>288.1166666666666</v>
+      </c>
+      <c r="E1988" t="n">
+        <v>288.1204166666667</v>
+      </c>
+    </row>
+    <row r="1989">
+      <c r="A1989" t="inlineStr">
+        <is>
+          <t>10/06/2025</t>
+        </is>
+      </c>
+      <c r="B1989" t="n">
+        <v>287.1433333333333</v>
+      </c>
+      <c r="C1989" t="n">
+        <v>287.1495833333333</v>
+      </c>
+      <c r="D1989" t="n">
+        <v>287.1370833333332</v>
+      </c>
+      <c r="E1989" t="n">
+        <v>287.1429166666666</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1989"/>
+  <dimension ref="A1:E1992"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38232,6 +38232,63 @@
         <v>287.1429166666666</v>
       </c>
     </row>
+    <row r="1990">
+      <c r="A1990" t="inlineStr">
+        <is>
+          <t>11/06/2025</t>
+        </is>
+      </c>
+      <c r="B1990" t="n">
+        <v>281.815</v>
+      </c>
+      <c r="C1990" t="n">
+        <v>281.82</v>
+      </c>
+      <c r="D1990" t="n">
+        <v>281.8070833333333</v>
+      </c>
+      <c r="E1990" t="n">
+        <v>281.8145833333334</v>
+      </c>
+    </row>
+    <row r="1991">
+      <c r="A1991" t="inlineStr">
+        <is>
+          <t>12/06/2025</t>
+        </is>
+      </c>
+      <c r="B1991" t="n">
+        <v>264.9025</v>
+      </c>
+      <c r="C1991" t="n">
+        <v>264.9095833333333</v>
+      </c>
+      <c r="D1991" t="n">
+        <v>264.5624999999999</v>
+      </c>
+      <c r="E1991" t="n">
+        <v>264.60625</v>
+      </c>
+    </row>
+    <row r="1992">
+      <c r="A1992" t="inlineStr">
+        <is>
+          <t>13/06/2025</t>
+        </is>
+      </c>
+      <c r="B1992" t="n">
+        <v>222.0799999999999</v>
+      </c>
+      <c r="C1992" t="n">
+        <v>222.2837499999999</v>
+      </c>
+      <c r="D1992" t="n">
+        <v>210.6783333333333</v>
+      </c>
+      <c r="E1992" t="n">
+        <v>217.0179166666667</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1992"/>
+  <dimension ref="A1:E1995"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38289,6 +38289,63 @@
         <v>217.0179166666667</v>
       </c>
     </row>
+    <row r="1993">
+      <c r="A1993" t="inlineStr">
+        <is>
+          <t>14/06/2025</t>
+        </is>
+      </c>
+      <c r="B1993" t="n">
+        <v>176.1883333333333</v>
+      </c>
+      <c r="C1993" t="n">
+        <v>176.1925</v>
+      </c>
+      <c r="D1993" t="n">
+        <v>175.0691666666666</v>
+      </c>
+      <c r="E1993" t="n">
+        <v>175.5841666666666</v>
+      </c>
+    </row>
+    <row r="1994">
+      <c r="A1994" t="inlineStr">
+        <is>
+          <t>15/06/2025</t>
+        </is>
+      </c>
+      <c r="B1994" t="n">
+        <v>190.1583333333333</v>
+      </c>
+      <c r="C1994" t="n">
+        <v>190.16125</v>
+      </c>
+      <c r="D1994" t="n">
+        <v>190.1545833333333</v>
+      </c>
+      <c r="E1994" t="n">
+        <v>190.1604166666666</v>
+      </c>
+    </row>
+    <row r="1995">
+      <c r="A1995" t="inlineStr">
+        <is>
+          <t>16/06/2025</t>
+        </is>
+      </c>
+      <c r="B1995" t="n">
+        <v>276.0654166666666</v>
+      </c>
+      <c r="C1995" t="n">
+        <v>276.0720833333333</v>
+      </c>
+      <c r="D1995" t="n">
+        <v>275.9558333333333</v>
+      </c>
+      <c r="E1995" t="n">
+        <v>275.9770833333333</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1995"/>
+  <dimension ref="A1:E1997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38346,6 +38346,44 @@
         <v>275.9770833333333</v>
       </c>
     </row>
+    <row r="1996">
+      <c r="A1996" t="inlineStr">
+        <is>
+          <t>17/06/2025</t>
+        </is>
+      </c>
+      <c r="B1996" t="n">
+        <v>247.2812499999999</v>
+      </c>
+      <c r="C1996" t="n">
+        <v>247.28875</v>
+      </c>
+      <c r="D1996" t="n">
+        <v>231.2783333333333</v>
+      </c>
+      <c r="E1996" t="n">
+        <v>233.61625</v>
+      </c>
+    </row>
+    <row r="1997">
+      <c r="A1997" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="B1997" t="n">
+        <v>249.56</v>
+      </c>
+      <c r="C1997" t="n">
+        <v>264.3441666666667</v>
+      </c>
+      <c r="D1997" t="n">
+        <v>230.4408333333333</v>
+      </c>
+      <c r="E1997" t="n">
+        <v>233.6425</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1997"/>
+  <dimension ref="A1:E2004"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38384,6 +38384,139 @@
         <v>233.6425</v>
       </c>
     </row>
+    <row r="1998">
+      <c r="A1998" t="inlineStr">
+        <is>
+          <t>19/06/2025</t>
+        </is>
+      </c>
+      <c r="B1998" t="n">
+        <v>212.5716666666666</v>
+      </c>
+      <c r="C1998" t="n">
+        <v>212.575</v>
+      </c>
+      <c r="D1998" t="n">
+        <v>212.5654166666667</v>
+      </c>
+      <c r="E1998" t="n">
+        <v>212.5704166666667</v>
+      </c>
+    </row>
+    <row r="1999">
+      <c r="A1999" t="inlineStr">
+        <is>
+          <t>20/06/2025</t>
+        </is>
+      </c>
+      <c r="B1999" t="n">
+        <v>250.9933333333333</v>
+      </c>
+      <c r="C1999" t="n">
+        <v>250.9979166666666</v>
+      </c>
+      <c r="D1999" t="n">
+        <v>246.2458333333334</v>
+      </c>
+      <c r="E1999" t="n">
+        <v>247.4641666666666</v>
+      </c>
+    </row>
+    <row r="2000">
+      <c r="A2000" t="inlineStr">
+        <is>
+          <t>21/06/2025</t>
+        </is>
+      </c>
+      <c r="B2000" t="n">
+        <v>193.8245833333333</v>
+      </c>
+      <c r="C2000" t="n">
+        <v>193.8266666666666</v>
+      </c>
+      <c r="D2000" t="n">
+        <v>193.8208333333333</v>
+      </c>
+      <c r="E2000" t="n">
+        <v>193.82625</v>
+      </c>
+    </row>
+    <row r="2001">
+      <c r="A2001" t="inlineStr">
+        <is>
+          <t>22/06/2025</t>
+        </is>
+      </c>
+      <c r="B2001" t="n">
+        <v>177.7029166666667</v>
+      </c>
+      <c r="C2001" t="n">
+        <v>177.7025</v>
+      </c>
+      <c r="D2001" t="n">
+        <v>177.6991666666667</v>
+      </c>
+      <c r="E2001" t="n">
+        <v>177.705</v>
+      </c>
+    </row>
+    <row r="2002">
+      <c r="A2002" t="inlineStr">
+        <is>
+          <t>23/06/2025</t>
+        </is>
+      </c>
+      <c r="B2002" t="n">
+        <v>224.6533333333332</v>
+      </c>
+      <c r="C2002" t="n">
+        <v>224.65125</v>
+      </c>
+      <c r="D2002" t="n">
+        <v>224.6491666666666</v>
+      </c>
+      <c r="E2002" t="n">
+        <v>224.6558333333333</v>
+      </c>
+    </row>
+    <row r="2003">
+      <c r="A2003" t="inlineStr">
+        <is>
+          <t>24/06/2025</t>
+        </is>
+      </c>
+      <c r="B2003" t="n">
+        <v>243.29375</v>
+      </c>
+      <c r="C2003" t="n">
+        <v>243.295</v>
+      </c>
+      <c r="D2003" t="n">
+        <v>243.2870833333334</v>
+      </c>
+      <c r="E2003" t="n">
+        <v>243.295</v>
+      </c>
+    </row>
+    <row r="2004">
+      <c r="A2004" t="inlineStr">
+        <is>
+          <t>25/06/2025</t>
+        </is>
+      </c>
+      <c r="B2004" t="n">
+        <v>206.7083333333333</v>
+      </c>
+      <c r="C2004" t="n">
+        <v>206.7108333333333</v>
+      </c>
+      <c r="D2004" t="n">
+        <v>205.5020833333333</v>
+      </c>
+      <c r="E2004" t="n">
+        <v>205.7070833333333</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2004"/>
+  <dimension ref="A1:E2009"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38517,6 +38517,101 @@
         <v>205.7070833333333</v>
       </c>
     </row>
+    <row r="2005">
+      <c r="A2005" t="inlineStr">
+        <is>
+          <t>26/06/2025</t>
+        </is>
+      </c>
+      <c r="B2005" t="n">
+        <v>201.6112499999999</v>
+      </c>
+      <c r="C2005" t="n">
+        <v>201.6120833333333</v>
+      </c>
+      <c r="D2005" t="n">
+        <v>188.5054166666667</v>
+      </c>
+      <c r="E2005" t="n">
+        <v>196.6812499999999</v>
+      </c>
+    </row>
+    <row r="2006">
+      <c r="A2006" t="inlineStr">
+        <is>
+          <t>27/06/2025</t>
+        </is>
+      </c>
+      <c r="B2006" t="n">
+        <v>241.0904166666666</v>
+      </c>
+      <c r="C2006" t="n">
+        <v>241.0925</v>
+      </c>
+      <c r="D2006" t="n">
+        <v>241.0829166666666</v>
+      </c>
+      <c r="E2006" t="n">
+        <v>241.0904166666666</v>
+      </c>
+    </row>
+    <row r="2007">
+      <c r="A2007" t="inlineStr">
+        <is>
+          <t>28/06/2025</t>
+        </is>
+      </c>
+      <c r="B2007" t="n">
+        <v>146.55375</v>
+      </c>
+      <c r="C2007" t="n">
+        <v>146.55125</v>
+      </c>
+      <c r="D2007" t="n">
+        <v>146.5479166666666</v>
+      </c>
+      <c r="E2007" t="n">
+        <v>146.5541666666666</v>
+      </c>
+    </row>
+    <row r="2008">
+      <c r="A2008" t="inlineStr">
+        <is>
+          <t>29/06/2025</t>
+        </is>
+      </c>
+      <c r="B2008" t="n">
+        <v>127.64</v>
+      </c>
+      <c r="C2008" t="n">
+        <v>127.6383333333333</v>
+      </c>
+      <c r="D2008" t="n">
+        <v>127.6383333333333</v>
+      </c>
+      <c r="E2008" t="n">
+        <v>127.6416666666667</v>
+      </c>
+    </row>
+    <row r="2009">
+      <c r="A2009" t="inlineStr">
+        <is>
+          <t>30/06/2025</t>
+        </is>
+      </c>
+      <c r="B2009" t="n">
+        <v>218.98375</v>
+      </c>
+      <c r="C2009" t="n">
+        <v>218.9841666666667</v>
+      </c>
+      <c r="D2009" t="n">
+        <v>218.9783333333334</v>
+      </c>
+      <c r="E2009" t="n">
+        <v>218.9883333333333</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2009"/>
+  <dimension ref="A1:E2011"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38612,6 +38612,44 @@
         <v>218.9883333333333</v>
       </c>
     </row>
+    <row r="2010">
+      <c r="A2010" t="inlineStr">
+        <is>
+          <t>01/07/2025</t>
+        </is>
+      </c>
+      <c r="B2010" t="n">
+        <v>205.4708333333333</v>
+      </c>
+      <c r="C2010" t="n">
+        <v>205.47</v>
+      </c>
+      <c r="D2010" t="n">
+        <v>205.46625</v>
+      </c>
+      <c r="E2010" t="n">
+        <v>205.4745833333333</v>
+      </c>
+    </row>
+    <row r="2011">
+      <c r="A2011" t="inlineStr">
+        <is>
+          <t>02/07/2025</t>
+        </is>
+      </c>
+      <c r="B2011" t="n">
+        <v>143.74625</v>
+      </c>
+      <c r="C2011" t="n">
+        <v>143.7475</v>
+      </c>
+      <c r="D2011" t="n">
+        <v>140.54375</v>
+      </c>
+      <c r="E2011" t="n">
+        <v>140.9962499999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2011"/>
+  <dimension ref="A1:E2012"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38650,6 +38650,25 @@
         <v>140.9962499999999</v>
       </c>
     </row>
+    <row r="2012">
+      <c r="A2012" t="inlineStr">
+        <is>
+          <t>03/07/2025</t>
+        </is>
+      </c>
+      <c r="B2012" t="n">
+        <v>158.72125</v>
+      </c>
+      <c r="C2012" t="n">
+        <v>158.7216666666667</v>
+      </c>
+      <c r="D2012" t="n">
+        <v>158.7154166666666</v>
+      </c>
+      <c r="E2012" t="n">
+        <v>158.7220833333333</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2012"/>
+  <dimension ref="A1:E2018"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38669,6 +38669,120 @@
         <v>158.7220833333333</v>
       </c>
     </row>
+    <row r="2013">
+      <c r="A2013" t="inlineStr">
+        <is>
+          <t>04/07/2025</t>
+        </is>
+      </c>
+      <c r="B2013" t="n">
+        <v>177.9879166666666</v>
+      </c>
+      <c r="C2013" t="n">
+        <v>177.98875</v>
+      </c>
+      <c r="D2013" t="n">
+        <v>177.9825</v>
+      </c>
+      <c r="E2013" t="n">
+        <v>177.99</v>
+      </c>
+    </row>
+    <row r="2014">
+      <c r="A2014" t="inlineStr">
+        <is>
+          <t>05/07/2025</t>
+        </is>
+      </c>
+      <c r="B2014" t="n">
+        <v>128.7654166666667</v>
+      </c>
+      <c r="C2014" t="n">
+        <v>128.7620833333333</v>
+      </c>
+      <c r="D2014" t="n">
+        <v>128.7616666666666</v>
+      </c>
+      <c r="E2014" t="n">
+        <v>128.7675</v>
+      </c>
+    </row>
+    <row r="2015">
+      <c r="A2015" t="inlineStr">
+        <is>
+          <t>06/07/2025</t>
+        </is>
+      </c>
+      <c r="B2015" t="n">
+        <v>99.09541666666667</v>
+      </c>
+      <c r="C2015" t="n">
+        <v>99.09250000000002</v>
+      </c>
+      <c r="D2015" t="n">
+        <v>99.09333333333336</v>
+      </c>
+      <c r="E2015" t="n">
+        <v>99.09625</v>
+      </c>
+    </row>
+    <row r="2016">
+      <c r="A2016" t="inlineStr">
+        <is>
+          <t>07/07/2025</t>
+        </is>
+      </c>
+      <c r="B2016" t="n">
+        <v>111.0316666666667</v>
+      </c>
+      <c r="C2016" t="n">
+        <v>111.03125</v>
+      </c>
+      <c r="D2016" t="n">
+        <v>111.02875</v>
+      </c>
+      <c r="E2016" t="n">
+        <v>111.03125</v>
+      </c>
+    </row>
+    <row r="2017">
+      <c r="A2017" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+      <c r="B2017" t="n">
+        <v>142.9129166666666</v>
+      </c>
+      <c r="C2017" t="n">
+        <v>142.9120833333333</v>
+      </c>
+      <c r="D2017" t="n">
+        <v>142.605</v>
+      </c>
+      <c r="E2017" t="n">
+        <v>142.61</v>
+      </c>
+    </row>
+    <row r="2018">
+      <c r="A2018" t="inlineStr">
+        <is>
+          <t>09/07/2025</t>
+        </is>
+      </c>
+      <c r="B2018" t="n">
+        <v>159.6925</v>
+      </c>
+      <c r="C2018" t="n">
+        <v>159.6895833333333</v>
+      </c>
+      <c r="D2018" t="n">
+        <v>159.6866666666666</v>
+      </c>
+      <c r="E2018" t="n">
+        <v>159.6937499999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2018"/>
+  <dimension ref="A1:E2026"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38783,6 +38783,158 @@
         <v>159.6937499999999</v>
       </c>
     </row>
+    <row r="2019">
+      <c r="A2019" t="inlineStr">
+        <is>
+          <t>10/07/2025</t>
+        </is>
+      </c>
+      <c r="B2019" t="n">
+        <v>194.6470833333333</v>
+      </c>
+      <c r="C2019" t="n">
+        <v>200.12</v>
+      </c>
+      <c r="D2019" t="n">
+        <v>188.3125</v>
+      </c>
+      <c r="E2019" t="n">
+        <v>191.0941666666666</v>
+      </c>
+    </row>
+    <row r="2020">
+      <c r="A2020" t="inlineStr">
+        <is>
+          <t>11/07/2025</t>
+        </is>
+      </c>
+      <c r="B2020" t="n">
+        <v>204.0508333333333</v>
+      </c>
+      <c r="C2020" t="n">
+        <v>221.5466666666666</v>
+      </c>
+      <c r="D2020" t="n">
+        <v>191.6708333333333</v>
+      </c>
+      <c r="E2020" t="n">
+        <v>201.72375</v>
+      </c>
+    </row>
+    <row r="2021">
+      <c r="A2021" t="inlineStr">
+        <is>
+          <t>12/07/2025</t>
+        </is>
+      </c>
+      <c r="B2021" t="n">
+        <v>122.6729166666667</v>
+      </c>
+      <c r="C2021" t="n">
+        <v>122.67</v>
+      </c>
+      <c r="D2021" t="n">
+        <v>122.67</v>
+      </c>
+      <c r="E2021" t="n">
+        <v>122.67375</v>
+      </c>
+    </row>
+    <row r="2022">
+      <c r="A2022" t="inlineStr">
+        <is>
+          <t>13/07/2025</t>
+        </is>
+      </c>
+      <c r="B2022" t="n">
+        <v>115.5345833333333</v>
+      </c>
+      <c r="C2022" t="n">
+        <v>115.5345833333334</v>
+      </c>
+      <c r="D2022" t="n">
+        <v>115.5325</v>
+      </c>
+      <c r="E2022" t="n">
+        <v>115.5354166666667</v>
+      </c>
+    </row>
+    <row r="2023">
+      <c r="A2023" t="inlineStr">
+        <is>
+          <t>14/07/2025</t>
+        </is>
+      </c>
+      <c r="B2023" t="n">
+        <v>215.6758333333333</v>
+      </c>
+      <c r="C2023" t="n">
+        <v>228.7104166666667</v>
+      </c>
+      <c r="D2023" t="n">
+        <v>208.5516666666666</v>
+      </c>
+      <c r="E2023" t="n">
+        <v>210.1629166666667</v>
+      </c>
+    </row>
+    <row r="2024">
+      <c r="A2024" t="inlineStr">
+        <is>
+          <t>15/07/2025</t>
+        </is>
+      </c>
+      <c r="B2024" t="n">
+        <v>219.9066666666666</v>
+      </c>
+      <c r="C2024" t="n">
+        <v>231.3558333333333</v>
+      </c>
+      <c r="D2024" t="n">
+        <v>208.2525</v>
+      </c>
+      <c r="E2024" t="n">
+        <v>208.2716666666666</v>
+      </c>
+    </row>
+    <row r="2025">
+      <c r="A2025" t="inlineStr">
+        <is>
+          <t>16/07/2025</t>
+        </is>
+      </c>
+      <c r="B2025" t="n">
+        <v>221.7341666666667</v>
+      </c>
+      <c r="C2025" t="n">
+        <v>221.7379166666667</v>
+      </c>
+      <c r="D2025" t="n">
+        <v>208.1091666666666</v>
+      </c>
+      <c r="E2025" t="n">
+        <v>209.56375</v>
+      </c>
+    </row>
+    <row r="2026">
+      <c r="A2026" t="inlineStr">
+        <is>
+          <t>17/07/2025</t>
+        </is>
+      </c>
+      <c r="B2026" t="n">
+        <v>249.525</v>
+      </c>
+      <c r="C2026" t="n">
+        <v>249.5299999999999</v>
+      </c>
+      <c r="D2026" t="n">
+        <v>249.5154166666667</v>
+      </c>
+      <c r="E2026" t="n">
+        <v>249.525</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2026"/>
+  <dimension ref="A1:E2032"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38935,6 +38935,120 @@
         <v>249.525</v>
       </c>
     </row>
+    <row r="2027">
+      <c r="A2027" t="inlineStr">
+        <is>
+          <t>18/07/2025</t>
+        </is>
+      </c>
+      <c r="B2027" t="n">
+        <v>252.5520833333335</v>
+      </c>
+      <c r="C2027" t="n">
+        <v>252.5566666666667</v>
+      </c>
+      <c r="D2027" t="n">
+        <v>252.5475000000001</v>
+      </c>
+      <c r="E2027" t="n">
+        <v>252.5541666666668</v>
+      </c>
+    </row>
+    <row r="2028">
+      <c r="A2028" t="inlineStr">
+        <is>
+          <t>19/07/2025</t>
+        </is>
+      </c>
+      <c r="B2028" t="n">
+        <v>210.78</v>
+      </c>
+      <c r="C2028" t="n">
+        <v>210.7804166666666</v>
+      </c>
+      <c r="D2028" t="n">
+        <v>210.7741666666667</v>
+      </c>
+      <c r="E2028" t="n">
+        <v>210.7816666666666</v>
+      </c>
+    </row>
+    <row r="2029">
+      <c r="A2029" t="inlineStr">
+        <is>
+          <t>20/07/2025</t>
+        </is>
+      </c>
+      <c r="B2029" t="n">
+        <v>188.875</v>
+      </c>
+      <c r="C2029" t="n">
+        <v>188.8766666666667</v>
+      </c>
+      <c r="D2029" t="n">
+        <v>188.8708333333333</v>
+      </c>
+      <c r="E2029" t="n">
+        <v>188.8770833333333</v>
+      </c>
+    </row>
+    <row r="2030">
+      <c r="A2030" t="inlineStr">
+        <is>
+          <t>21/07/2025</t>
+        </is>
+      </c>
+      <c r="B2030" t="n">
+        <v>267.4587500000001</v>
+      </c>
+      <c r="C2030" t="n">
+        <v>267.4633333333333</v>
+      </c>
+      <c r="D2030" t="n">
+        <v>267.4529166666667</v>
+      </c>
+      <c r="E2030" t="n">
+        <v>267.4629166666667</v>
+      </c>
+    </row>
+    <row r="2031">
+      <c r="A2031" t="inlineStr">
+        <is>
+          <t>22/07/2025</t>
+        </is>
+      </c>
+      <c r="B2031" t="n">
+        <v>268.13625</v>
+      </c>
+      <c r="C2031" t="n">
+        <v>268.8825</v>
+      </c>
+      <c r="D2031" t="n">
+        <v>267.3329166666667</v>
+      </c>
+      <c r="E2031" t="n">
+        <v>267.4995833333333</v>
+      </c>
+    </row>
+    <row r="2032">
+      <c r="A2032" t="inlineStr">
+        <is>
+          <t>23/07/2025</t>
+        </is>
+      </c>
+      <c r="B2032" t="n">
+        <v>270.59625</v>
+      </c>
+      <c r="C2032" t="n">
+        <v>270.5958333333334</v>
+      </c>
+      <c r="D2032" t="n">
+        <v>270.5879166666667</v>
+      </c>
+      <c r="E2032" t="n">
+        <v>270.5970833333333</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2032"/>
+  <dimension ref="A1:E2046"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39049,6 +39049,272 @@
         <v>270.5970833333333</v>
       </c>
     </row>
+    <row r="2033">
+      <c r="A2033" t="inlineStr">
+        <is>
+          <t>24/07/2025</t>
+        </is>
+      </c>
+      <c r="B2033" t="n">
+        <v>267.0945833333333</v>
+      </c>
+      <c r="C2033" t="n">
+        <v>267.1691666666667</v>
+      </c>
+      <c r="D2033" t="n">
+        <v>251.1620833333333</v>
+      </c>
+      <c r="E2033" t="n">
+        <v>254.9495833333334</v>
+      </c>
+    </row>
+    <row r="2034">
+      <c r="A2034" t="inlineStr">
+        <is>
+          <t>25/07/2025</t>
+        </is>
+      </c>
+      <c r="B2034" t="n">
+        <v>256.94</v>
+      </c>
+      <c r="C2034" t="n">
+        <v>259.86125</v>
+      </c>
+      <c r="D2034" t="n">
+        <v>227.0125</v>
+      </c>
+      <c r="E2034" t="n">
+        <v>241.5429166666667</v>
+      </c>
+    </row>
+    <row r="2035">
+      <c r="A2035" t="inlineStr">
+        <is>
+          <t>26/07/2025</t>
+        </is>
+      </c>
+      <c r="B2035" t="n">
+        <v>245.02375</v>
+      </c>
+      <c r="C2035" t="n">
+        <v>245.0270833333333</v>
+      </c>
+      <c r="D2035" t="n">
+        <v>232.90375</v>
+      </c>
+      <c r="E2035" t="n">
+        <v>245.0245833333333</v>
+      </c>
+    </row>
+    <row r="2036">
+      <c r="A2036" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
+        </is>
+      </c>
+      <c r="B2036" t="n">
+        <v>206.2104166666666</v>
+      </c>
+      <c r="C2036" t="n">
+        <v>206.20875</v>
+      </c>
+      <c r="D2036" t="n">
+        <v>206.2070833333333</v>
+      </c>
+      <c r="E2036" t="n">
+        <v>206.2133333333333</v>
+      </c>
+    </row>
+    <row r="2037">
+      <c r="A2037" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
+      <c r="B2037" t="n">
+        <v>314.3454166666667</v>
+      </c>
+      <c r="C2037" t="n">
+        <v>314.345</v>
+      </c>
+      <c r="D2037" t="n">
+        <v>314.3395833333333</v>
+      </c>
+      <c r="E2037" t="n">
+        <v>314.3487500000001</v>
+      </c>
+    </row>
+    <row r="2038">
+      <c r="A2038" t="inlineStr">
+        <is>
+          <t>29/07/2025</t>
+        </is>
+      </c>
+      <c r="B2038" t="n">
+        <v>316.4454166666666</v>
+      </c>
+      <c r="C2038" t="n">
+        <v>316.4445833333334</v>
+      </c>
+      <c r="D2038" t="n">
+        <v>316.4399999999999</v>
+      </c>
+      <c r="E2038" t="n">
+        <v>316.4483333333333</v>
+      </c>
+    </row>
+    <row r="2039">
+      <c r="A2039" t="inlineStr">
+        <is>
+          <t>30/07/2025</t>
+        </is>
+      </c>
+      <c r="B2039" t="n">
+        <v>311.38375</v>
+      </c>
+      <c r="C2039" t="n">
+        <v>311.3820833333334</v>
+      </c>
+      <c r="D2039" t="n">
+        <v>311.3779166666666</v>
+      </c>
+      <c r="E2039" t="n">
+        <v>311.3879166666667</v>
+      </c>
+    </row>
+    <row r="2040">
+      <c r="A2040" t="inlineStr">
+        <is>
+          <t>31/07/2025</t>
+        </is>
+      </c>
+      <c r="B2040" t="n">
+        <v>263.6416666666667</v>
+      </c>
+      <c r="C2040" t="n">
+        <v>263.6408333333333</v>
+      </c>
+      <c r="D2040" t="n">
+        <v>238.5983333333333</v>
+      </c>
+      <c r="E2040" t="n">
+        <v>263.64375</v>
+      </c>
+    </row>
+    <row r="2041">
+      <c r="A2041" t="inlineStr">
+        <is>
+          <t>01/08/2025</t>
+        </is>
+      </c>
+      <c r="B2041" t="n">
+        <v>264.1091666666667</v>
+      </c>
+      <c r="C2041" t="n">
+        <v>264.1087499999999</v>
+      </c>
+      <c r="D2041" t="n">
+        <v>239.5991666666666</v>
+      </c>
+      <c r="E2041" t="n">
+        <v>263.3179166666667</v>
+      </c>
+    </row>
+    <row r="2042">
+      <c r="A2042" t="inlineStr">
+        <is>
+          <t>02/08/2025</t>
+        </is>
+      </c>
+      <c r="B2042" t="n">
+        <v>247.5829166666666</v>
+      </c>
+      <c r="C2042" t="n">
+        <v>247.585</v>
+      </c>
+      <c r="D2042" t="n">
+        <v>241.21</v>
+      </c>
+      <c r="E2042" t="n">
+        <v>247.5833333333333</v>
+      </c>
+    </row>
+    <row r="2043">
+      <c r="A2043" t="inlineStr">
+        <is>
+          <t>03/08/2025</t>
+        </is>
+      </c>
+      <c r="B2043" t="n">
+        <v>224.47</v>
+      </c>
+      <c r="C2043" t="n">
+        <v>224.4691666666666</v>
+      </c>
+      <c r="D2043" t="n">
+        <v>224.4641666666666</v>
+      </c>
+      <c r="E2043" t="n">
+        <v>224.4704166666667</v>
+      </c>
+    </row>
+    <row r="2044">
+      <c r="A2044" t="inlineStr">
+        <is>
+          <t>04/08/2025</t>
+        </is>
+      </c>
+      <c r="B2044" t="n">
+        <v>334.975</v>
+      </c>
+      <c r="C2044" t="n">
+        <v>334.98</v>
+      </c>
+      <c r="D2044" t="n">
+        <v>294.84375</v>
+      </c>
+      <c r="E2044" t="n">
+        <v>330.51875</v>
+      </c>
+    </row>
+    <row r="2045">
+      <c r="A2045" t="inlineStr">
+        <is>
+          <t>05/08/2025</t>
+        </is>
+      </c>
+      <c r="B2045" t="n">
+        <v>339.65</v>
+      </c>
+      <c r="C2045" t="n">
+        <v>339.6529166666666</v>
+      </c>
+      <c r="D2045" t="n">
+        <v>339.2145833333334</v>
+      </c>
+      <c r="E2045" t="n">
+        <v>339.4041666666666</v>
+      </c>
+    </row>
+    <row r="2046">
+      <c r="A2046" t="inlineStr">
+        <is>
+          <t>06/08/2025</t>
+        </is>
+      </c>
+      <c r="B2046" t="n">
+        <v>331.2116666666666</v>
+      </c>
+      <c r="C2046" t="n">
+        <v>331.2170833333334</v>
+      </c>
+      <c r="D2046" t="n">
+        <v>295.53875</v>
+      </c>
+      <c r="E2046" t="n">
+        <v>331.1833333333333</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2046"/>
+  <dimension ref="A1:E2060"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39315,6 +39315,272 @@
         <v>331.1833333333333</v>
       </c>
     </row>
+    <row r="2047">
+      <c r="A2047" t="inlineStr">
+        <is>
+          <t>07/08/2025</t>
+        </is>
+      </c>
+      <c r="B2047" t="n">
+        <v>326.38125</v>
+      </c>
+      <c r="C2047" t="n">
+        <v>326.38375</v>
+      </c>
+      <c r="D2047" t="n">
+        <v>288.6070833333333</v>
+      </c>
+      <c r="E2047" t="n">
+        <v>321.4654166666666</v>
+      </c>
+    </row>
+    <row r="2048">
+      <c r="A2048" t="inlineStr">
+        <is>
+          <t>08/08/2025</t>
+        </is>
+      </c>
+      <c r="B2048" t="n">
+        <v>335.2424999999999</v>
+      </c>
+      <c r="C2048" t="n">
+        <v>335.2429166666667</v>
+      </c>
+      <c r="D2048" t="n">
+        <v>335.2345833333333</v>
+      </c>
+      <c r="E2048" t="n">
+        <v>335.2441666666666</v>
+      </c>
+    </row>
+    <row r="2049">
+      <c r="A2049" t="inlineStr">
+        <is>
+          <t>09/08/2025</t>
+        </is>
+      </c>
+      <c r="B2049" t="n">
+        <v>280.0404166666667</v>
+      </c>
+      <c r="C2049" t="n">
+        <v>280.03625</v>
+      </c>
+      <c r="D2049" t="n">
+        <v>280.03625</v>
+      </c>
+      <c r="E2049" t="n">
+        <v>280.0433333333334</v>
+      </c>
+    </row>
+    <row r="2050">
+      <c r="A2050" t="inlineStr">
+        <is>
+          <t>10/08/2025</t>
+        </is>
+      </c>
+      <c r="B2050" t="n">
+        <v>231.06875</v>
+      </c>
+      <c r="C2050" t="n">
+        <v>231.0662499999999</v>
+      </c>
+      <c r="D2050" t="n">
+        <v>231.0654166666667</v>
+      </c>
+      <c r="E2050" t="n">
+        <v>231.0716666666666</v>
+      </c>
+    </row>
+    <row r="2051">
+      <c r="A2051" t="inlineStr">
+        <is>
+          <t>11/08/2025</t>
+        </is>
+      </c>
+      <c r="B2051" t="n">
+        <v>300.1766666666667</v>
+      </c>
+      <c r="C2051" t="n">
+        <v>300.17875</v>
+      </c>
+      <c r="D2051" t="n">
+        <v>300.17125</v>
+      </c>
+      <c r="E2051" t="n">
+        <v>300.1783333333333</v>
+      </c>
+    </row>
+    <row r="2052">
+      <c r="A2052" t="inlineStr">
+        <is>
+          <t>12/08/2025</t>
+        </is>
+      </c>
+      <c r="B2052" t="n">
+        <v>299.5183333333333</v>
+      </c>
+      <c r="C2052" t="n">
+        <v>299.51875</v>
+      </c>
+      <c r="D2052" t="n">
+        <v>299.1366666666666</v>
+      </c>
+      <c r="E2052" t="n">
+        <v>299.24125</v>
+      </c>
+    </row>
+    <row r="2053">
+      <c r="A2053" t="inlineStr">
+        <is>
+          <t>13/08/2025</t>
+        </is>
+      </c>
+      <c r="B2053" t="n">
+        <v>282.9291666666666</v>
+      </c>
+      <c r="C2053" t="n">
+        <v>282.9295833333333</v>
+      </c>
+      <c r="D2053" t="n">
+        <v>267.025</v>
+      </c>
+      <c r="E2053" t="n">
+        <v>282.8854166666667</v>
+      </c>
+    </row>
+    <row r="2054">
+      <c r="A2054" t="inlineStr">
+        <is>
+          <t>14/08/2025</t>
+        </is>
+      </c>
+      <c r="B2054" t="n">
+        <v>314.8845833333333</v>
+      </c>
+      <c r="C2054" t="n">
+        <v>314.8858333333333</v>
+      </c>
+      <c r="D2054" t="n">
+        <v>297.335</v>
+      </c>
+      <c r="E2054" t="n">
+        <v>313.43375</v>
+      </c>
+    </row>
+    <row r="2055">
+      <c r="A2055" t="inlineStr">
+        <is>
+          <t>15/08/2025</t>
+        </is>
+      </c>
+      <c r="B2055" t="n">
+        <v>317.99</v>
+      </c>
+      <c r="C2055" t="n">
+        <v>317.99</v>
+      </c>
+      <c r="D2055" t="n">
+        <v>316.725</v>
+      </c>
+      <c r="E2055" t="n">
+        <v>316.9779166666667</v>
+      </c>
+    </row>
+    <row r="2056">
+      <c r="A2056" t="inlineStr">
+        <is>
+          <t>16/08/2025</t>
+        </is>
+      </c>
+      <c r="B2056" t="n">
+        <v>249.39125</v>
+      </c>
+      <c r="C2056" t="n">
+        <v>249.39125</v>
+      </c>
+      <c r="D2056" t="n">
+        <v>242.2779166666666</v>
+      </c>
+      <c r="E2056" t="n">
+        <v>249.3920833333334</v>
+      </c>
+    </row>
+    <row r="2057">
+      <c r="A2057" t="inlineStr">
+        <is>
+          <t>17/08/2025</t>
+        </is>
+      </c>
+      <c r="B2057" t="n">
+        <v>219.9116666666667</v>
+      </c>
+      <c r="C2057" t="n">
+        <v>219.91375</v>
+      </c>
+      <c r="D2057" t="n">
+        <v>219.0916666666667</v>
+      </c>
+      <c r="E2057" t="n">
+        <v>219.9116666666667</v>
+      </c>
+    </row>
+    <row r="2058">
+      <c r="A2058" t="inlineStr">
+        <is>
+          <t>18/08/2025</t>
+        </is>
+      </c>
+      <c r="B2058" t="n">
+        <v>306.5504166666667</v>
+      </c>
+      <c r="C2058" t="n">
+        <v>306.5533333333333</v>
+      </c>
+      <c r="D2058" t="n">
+        <v>268.0929166666667</v>
+      </c>
+      <c r="E2058" t="n">
+        <v>293.7491666666667</v>
+      </c>
+    </row>
+    <row r="2059">
+      <c r="A2059" t="inlineStr">
+        <is>
+          <t>19/08/2025</t>
+        </is>
+      </c>
+      <c r="B2059" t="n">
+        <v>277.4429166666666</v>
+      </c>
+      <c r="C2059" t="n">
+        <v>277.4425000000001</v>
+      </c>
+      <c r="D2059" t="n">
+        <v>249.8374999999999</v>
+      </c>
+      <c r="E2059" t="n">
+        <v>271.6166666666666</v>
+      </c>
+    </row>
+    <row r="2060">
+      <c r="A2060" t="inlineStr">
+        <is>
+          <t>20/08/2025</t>
+        </is>
+      </c>
+      <c r="B2060" t="n">
+        <v>318.5320833333334</v>
+      </c>
+      <c r="C2060" t="n">
+        <v>318.5333333333334</v>
+      </c>
+      <c r="D2060" t="n">
+        <v>281.2583333333333</v>
+      </c>
+      <c r="E2060" t="n">
+        <v>313.9720833333334</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2060"/>
+  <dimension ref="A1:E2065"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39581,6 +39581,101 @@
         <v>313.9720833333334</v>
       </c>
     </row>
+    <row r="2061">
+      <c r="A2061" t="inlineStr">
+        <is>
+          <t>21/08/2025</t>
+        </is>
+      </c>
+      <c r="B2061" t="n">
+        <v>326.2883333333334</v>
+      </c>
+      <c r="C2061" t="n">
+        <v>326.2887500000001</v>
+      </c>
+      <c r="D2061" t="n">
+        <v>290.6345833333334</v>
+      </c>
+      <c r="E2061" t="n">
+        <v>326.0175</v>
+      </c>
+    </row>
+    <row r="2062">
+      <c r="A2062" t="inlineStr">
+        <is>
+          <t>22/08/2025</t>
+        </is>
+      </c>
+      <c r="B2062" t="n">
+        <v>300.37375</v>
+      </c>
+      <c r="C2062" t="n">
+        <v>300.3716666666667</v>
+      </c>
+      <c r="D2062" t="n">
+        <v>258.5866666666666</v>
+      </c>
+      <c r="E2062" t="n">
+        <v>300.37375</v>
+      </c>
+    </row>
+    <row r="2063">
+      <c r="A2063" t="inlineStr">
+        <is>
+          <t>23/08/2025</t>
+        </is>
+      </c>
+      <c r="B2063" t="n">
+        <v>249.1916666666667</v>
+      </c>
+      <c r="C2063" t="n">
+        <v>249.1879166666666</v>
+      </c>
+      <c r="D2063" t="n">
+        <v>200.4141666666667</v>
+      </c>
+      <c r="E2063" t="n">
+        <v>249.1920833333334</v>
+      </c>
+    </row>
+    <row r="2064">
+      <c r="A2064" t="inlineStr">
+        <is>
+          <t>24/08/2025</t>
+        </is>
+      </c>
+      <c r="B2064" t="n">
+        <v>234.4845833333333</v>
+      </c>
+      <c r="C2064" t="n">
+        <v>234.4808333333333</v>
+      </c>
+      <c r="D2064" t="n">
+        <v>234.47875</v>
+      </c>
+      <c r="E2064" t="n">
+        <v>234.4854166666667</v>
+      </c>
+    </row>
+    <row r="2065">
+      <c r="A2065" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="B2065" t="n">
+        <v>329.1804166666666</v>
+      </c>
+      <c r="C2065" t="n">
+        <v>329.1816666666667</v>
+      </c>
+      <c r="D2065" t="n">
+        <v>277.6729166666666</v>
+      </c>
+      <c r="E2065" t="n">
+        <v>327.1762499999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2065"/>
+  <dimension ref="A1:E2076"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39676,6 +39676,215 @@
         <v>327.1762499999999</v>
       </c>
     </row>
+    <row r="2066">
+      <c r="A2066" t="inlineStr">
+        <is>
+          <t>26/08/2025</t>
+        </is>
+      </c>
+      <c r="B2066" t="n">
+        <v>326.1441666666666</v>
+      </c>
+      <c r="C2066" t="n">
+        <v>326.1437500000001</v>
+      </c>
+      <c r="D2066" t="n">
+        <v>287.175</v>
+      </c>
+      <c r="E2066" t="n">
+        <v>324.8558333333334</v>
+      </c>
+    </row>
+    <row r="2067">
+      <c r="A2067" t="inlineStr">
+        <is>
+          <t>27/08/2025</t>
+        </is>
+      </c>
+      <c r="B2067" t="n">
+        <v>288.4108333333333</v>
+      </c>
+      <c r="C2067" t="n">
+        <v>288.4058333333333</v>
+      </c>
+      <c r="D2067" t="n">
+        <v>270.51125</v>
+      </c>
+      <c r="E2067" t="n">
+        <v>288.4120833333333</v>
+      </c>
+    </row>
+    <row r="2068">
+      <c r="A2068" t="inlineStr">
+        <is>
+          <t>28/08/2025</t>
+        </is>
+      </c>
+      <c r="B2068" t="n">
+        <v>289.2558333333333</v>
+      </c>
+      <c r="C2068" t="n">
+        <v>289.2504166666667</v>
+      </c>
+      <c r="D2068" t="n">
+        <v>265.9833333333333</v>
+      </c>
+      <c r="E2068" t="n">
+        <v>289.2579166666666</v>
+      </c>
+    </row>
+    <row r="2069">
+      <c r="A2069" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="B2069" t="n">
+        <v>331.7316666666666</v>
+      </c>
+      <c r="C2069" t="n">
+        <v>331.7258333333334</v>
+      </c>
+      <c r="D2069" t="n">
+        <v>307.42</v>
+      </c>
+      <c r="E2069" t="n">
+        <v>331.7337499999999</v>
+      </c>
+    </row>
+    <row r="2070">
+      <c r="A2070" t="inlineStr">
+        <is>
+          <t>30/08/2025</t>
+        </is>
+      </c>
+      <c r="B2070" t="n">
+        <v>224.1208333333333</v>
+      </c>
+      <c r="C2070" t="n">
+        <v>224.1141666666666</v>
+      </c>
+      <c r="D2070" t="n">
+        <v>224.1170833333333</v>
+      </c>
+      <c r="E2070" t="n">
+        <v>224.1241666666666</v>
+      </c>
+    </row>
+    <row r="2071">
+      <c r="A2071" t="inlineStr">
+        <is>
+          <t>31/08/2025</t>
+        </is>
+      </c>
+      <c r="B2071" t="n">
+        <v>200.8920833333333</v>
+      </c>
+      <c r="C2071" t="n">
+        <v>200.8870833333333</v>
+      </c>
+      <c r="D2071" t="n">
+        <v>200.8883333333333</v>
+      </c>
+      <c r="E2071" t="n">
+        <v>200.89375</v>
+      </c>
+    </row>
+    <row r="2072">
+      <c r="A2072" t="inlineStr">
+        <is>
+          <t>01/09/2025</t>
+        </is>
+      </c>
+      <c r="B2072" t="n">
+        <v>247.9770833333333</v>
+      </c>
+      <c r="C2072" t="n">
+        <v>247.9699999999999</v>
+      </c>
+      <c r="D2072" t="n">
+        <v>229.1445833333333</v>
+      </c>
+      <c r="E2072" t="n">
+        <v>247.9804166666667</v>
+      </c>
+    </row>
+    <row r="2073">
+      <c r="A2073" t="inlineStr">
+        <is>
+          <t>02/09/2025</t>
+        </is>
+      </c>
+      <c r="B2073" t="n">
+        <v>244.47125</v>
+      </c>
+      <c r="C2073" t="n">
+        <v>244.4645833333333</v>
+      </c>
+      <c r="D2073" t="n">
+        <v>220.3070833333333</v>
+      </c>
+      <c r="E2073" t="n">
+        <v>244.47125</v>
+      </c>
+    </row>
+    <row r="2074">
+      <c r="A2074" t="inlineStr">
+        <is>
+          <t>03/09/2025</t>
+        </is>
+      </c>
+      <c r="B2074" t="n">
+        <v>256.2158333333333</v>
+      </c>
+      <c r="C2074" t="n">
+        <v>256.2099999999999</v>
+      </c>
+      <c r="D2074" t="n">
+        <v>229.6266666666667</v>
+      </c>
+      <c r="E2074" t="n">
+        <v>256.2174999999999</v>
+      </c>
+    </row>
+    <row r="2075">
+      <c r="A2075" t="inlineStr">
+        <is>
+          <t>04/09/2025</t>
+        </is>
+      </c>
+      <c r="B2075" t="n">
+        <v>270.8504166666667</v>
+      </c>
+      <c r="C2075" t="n">
+        <v>270.8454166666667</v>
+      </c>
+      <c r="D2075" t="n">
+        <v>249.5266666666666</v>
+      </c>
+      <c r="E2075" t="n">
+        <v>270.8533333333333</v>
+      </c>
+    </row>
+    <row r="2076">
+      <c r="A2076" t="inlineStr">
+        <is>
+          <t>05/09/2025</t>
+        </is>
+      </c>
+      <c r="B2076" t="n">
+        <v>304.9570833333333</v>
+      </c>
+      <c r="C2076" t="n">
+        <v>304.9529166666667</v>
+      </c>
+      <c r="D2076" t="n">
+        <v>270.72625</v>
+      </c>
+      <c r="E2076" t="n">
+        <v>304.54125</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2076"/>
+  <dimension ref="A1:E2086"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39885,6 +39885,196 @@
         <v>304.54125</v>
       </c>
     </row>
+    <row r="2077">
+      <c r="A2077" t="inlineStr">
+        <is>
+          <t>06/09/2025</t>
+        </is>
+      </c>
+      <c r="B2077" t="n">
+        <v>243.7570833333333</v>
+      </c>
+      <c r="C2077" t="n">
+        <v>243.7508333333334</v>
+      </c>
+      <c r="D2077" t="n">
+        <v>243.7520833333333</v>
+      </c>
+      <c r="E2077" t="n">
+        <v>243.75875</v>
+      </c>
+    </row>
+    <row r="2078">
+      <c r="A2078" t="inlineStr">
+        <is>
+          <t>07/09/2025</t>
+        </is>
+      </c>
+      <c r="B2078" t="n">
+        <v>213.0625</v>
+      </c>
+      <c r="C2078" t="n">
+        <v>213.0570833333333</v>
+      </c>
+      <c r="D2078" t="n">
+        <v>213.0575</v>
+      </c>
+      <c r="E2078" t="n">
+        <v>213.0633333333332</v>
+      </c>
+    </row>
+    <row r="2079">
+      <c r="A2079" t="inlineStr">
+        <is>
+          <t>08/09/2025</t>
+        </is>
+      </c>
+      <c r="B2079" t="n">
+        <v>306.66625</v>
+      </c>
+      <c r="C2079" t="n">
+        <v>306.6608333333333</v>
+      </c>
+      <c r="D2079" t="n">
+        <v>267.1620833333333</v>
+      </c>
+      <c r="E2079" t="n">
+        <v>298.3320833333333</v>
+      </c>
+    </row>
+    <row r="2080">
+      <c r="A2080" t="inlineStr">
+        <is>
+          <t>09/09/2025</t>
+        </is>
+      </c>
+      <c r="B2080" t="n">
+        <v>316.9370833333333</v>
+      </c>
+      <c r="C2080" t="n">
+        <v>316.9299999999999</v>
+      </c>
+      <c r="D2080" t="n">
+        <v>293.5145833333333</v>
+      </c>
+      <c r="E2080" t="n">
+        <v>305.3616666666666</v>
+      </c>
+    </row>
+    <row r="2081">
+      <c r="A2081" t="inlineStr">
+        <is>
+          <t>10/09/2025</t>
+        </is>
+      </c>
+      <c r="B2081" t="n">
+        <v>319.225</v>
+      </c>
+      <c r="C2081" t="n">
+        <v>319.2179166666666</v>
+      </c>
+      <c r="D2081" t="n">
+        <v>319.2187499999999</v>
+      </c>
+      <c r="E2081" t="n">
+        <v>319.2287499999999</v>
+      </c>
+    </row>
+    <row r="2082">
+      <c r="A2082" t="inlineStr">
+        <is>
+          <t>11/09/2025</t>
+        </is>
+      </c>
+      <c r="B2082" t="n">
+        <v>317.5533333333333</v>
+      </c>
+      <c r="C2082" t="n">
+        <v>317.5470833333334</v>
+      </c>
+      <c r="D2082" t="n">
+        <v>295.2345833333333</v>
+      </c>
+      <c r="E2082" t="n">
+        <v>312.6958333333333</v>
+      </c>
+    </row>
+    <row r="2083">
+      <c r="A2083" t="inlineStr">
+        <is>
+          <t>12/09/2025</t>
+        </is>
+      </c>
+      <c r="B2083" t="n">
+        <v>310.3475</v>
+      </c>
+      <c r="C2083" t="n">
+        <v>310.3391666666666</v>
+      </c>
+      <c r="D2083" t="n">
+        <v>308.6275</v>
+      </c>
+      <c r="E2083" t="n">
+        <v>308.9766666666667</v>
+      </c>
+    </row>
+    <row r="2084">
+      <c r="A2084" t="inlineStr">
+        <is>
+          <t>13/09/2025</t>
+        </is>
+      </c>
+      <c r="B2084" t="n">
+        <v>228.32625</v>
+      </c>
+      <c r="C2084" t="n">
+        <v>228.3191666666666</v>
+      </c>
+      <c r="D2084" t="n">
+        <v>228.32125</v>
+      </c>
+      <c r="E2084" t="n">
+        <v>228.3279166666667</v>
+      </c>
+    </row>
+    <row r="2085">
+      <c r="A2085" t="inlineStr">
+        <is>
+          <t>14/09/2025</t>
+        </is>
+      </c>
+      <c r="B2085" t="n">
+        <v>183.6012499999999</v>
+      </c>
+      <c r="C2085" t="n">
+        <v>183.5954166666667</v>
+      </c>
+      <c r="D2085" t="n">
+        <v>183.4866666666666</v>
+      </c>
+      <c r="E2085" t="n">
+        <v>183.6041666666666</v>
+      </c>
+    </row>
+    <row r="2086">
+      <c r="A2086" t="inlineStr">
+        <is>
+          <t>15/09/2025</t>
+        </is>
+      </c>
+      <c r="B2086" t="n">
+        <v>250.9254166666667</v>
+      </c>
+      <c r="C2086" t="n">
+        <v>250.9183333333333</v>
+      </c>
+      <c r="D2086" t="n">
+        <v>233.285</v>
+      </c>
+      <c r="E2086" t="n">
+        <v>250.9275</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2086"/>
+  <dimension ref="A1:E2100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40075,6 +40075,272 @@
         <v>250.9275</v>
       </c>
     </row>
+    <row r="2087">
+      <c r="A2087" t="inlineStr">
+        <is>
+          <t>16/09/2025</t>
+        </is>
+      </c>
+      <c r="B2087" t="n">
+        <v>295.6583333333334</v>
+      </c>
+      <c r="C2087" t="n">
+        <v>295.6508333333334</v>
+      </c>
+      <c r="D2087" t="n">
+        <v>273.76375</v>
+      </c>
+      <c r="E2087" t="n">
+        <v>295.66</v>
+      </c>
+    </row>
+    <row r="2088">
+      <c r="A2088" t="inlineStr">
+        <is>
+          <t>17/09/2025</t>
+        </is>
+      </c>
+      <c r="B2088" t="n">
+        <v>291.8925</v>
+      </c>
+      <c r="C2088" t="n">
+        <v>291.8841666666667</v>
+      </c>
+      <c r="D2088" t="n">
+        <v>286.5933333333334</v>
+      </c>
+      <c r="E2088" t="n">
+        <v>291.89375</v>
+      </c>
+    </row>
+    <row r="2089">
+      <c r="A2089" t="inlineStr">
+        <is>
+          <t>18/09/2025</t>
+        </is>
+      </c>
+      <c r="B2089" t="n">
+        <v>270.2908333333333</v>
+      </c>
+      <c r="C2089" t="n">
+        <v>270.2833333333334</v>
+      </c>
+      <c r="D2089" t="n">
+        <v>257.8120833333334</v>
+      </c>
+      <c r="E2089" t="n">
+        <v>270.2933333333333</v>
+      </c>
+    </row>
+    <row r="2090">
+      <c r="A2090" t="inlineStr">
+        <is>
+          <t>19/09/2025</t>
+        </is>
+      </c>
+      <c r="B2090" t="n">
+        <v>263.2970833333334</v>
+      </c>
+      <c r="C2090" t="n">
+        <v>263.2904166666667</v>
+      </c>
+      <c r="D2090" t="n">
+        <v>237.3925</v>
+      </c>
+      <c r="E2090" t="n">
+        <v>263.2975000000001</v>
+      </c>
+    </row>
+    <row r="2091">
+      <c r="A2091" t="inlineStr">
+        <is>
+          <t>20/09/2025</t>
+        </is>
+      </c>
+      <c r="B2091" t="n">
+        <v>242.9979166666667</v>
+      </c>
+      <c r="C2091" t="n">
+        <v>242.9933333333333</v>
+      </c>
+      <c r="D2091" t="n">
+        <v>227.8754166666667</v>
+      </c>
+      <c r="E2091" t="n">
+        <v>242.9991666666666</v>
+      </c>
+    </row>
+    <row r="2092">
+      <c r="A2092" t="inlineStr">
+        <is>
+          <t>21/09/2025</t>
+        </is>
+      </c>
+      <c r="B2092" t="n">
+        <v>222.5775</v>
+      </c>
+      <c r="C2092" t="n">
+        <v>222.5712499999999</v>
+      </c>
+      <c r="D2092" t="n">
+        <v>222.5733333333333</v>
+      </c>
+      <c r="E2092" t="n">
+        <v>222.57875</v>
+      </c>
+    </row>
+    <row r="2093">
+      <c r="A2093" t="inlineStr">
+        <is>
+          <t>22/09/2025</t>
+        </is>
+      </c>
+      <c r="B2093" t="n">
+        <v>320.38</v>
+      </c>
+      <c r="C2093" t="n">
+        <v>320.3716666666667</v>
+      </c>
+      <c r="D2093" t="n">
+        <v>314.0583333333333</v>
+      </c>
+      <c r="E2093" t="n">
+        <v>320.3833333333333</v>
+      </c>
+    </row>
+    <row r="2094">
+      <c r="A2094" t="inlineStr">
+        <is>
+          <t>23/09/2025</t>
+        </is>
+      </c>
+      <c r="B2094" t="n">
+        <v>311.2183333333333</v>
+      </c>
+      <c r="C2094" t="n">
+        <v>311.2108333333334</v>
+      </c>
+      <c r="D2094" t="n">
+        <v>295.2491666666667</v>
+      </c>
+      <c r="E2094" t="n">
+        <v>311.2124999999999</v>
+      </c>
+    </row>
+    <row r="2095">
+      <c r="A2095" t="inlineStr">
+        <is>
+          <t>24/09/2025</t>
+        </is>
+      </c>
+      <c r="B2095" t="n">
+        <v>261.2416666666667</v>
+      </c>
+      <c r="C2095" t="n">
+        <v>261.2341666666667</v>
+      </c>
+      <c r="D2095" t="n">
+        <v>234.6658333333334</v>
+      </c>
+      <c r="E2095" t="n">
+        <v>261.2441666666667</v>
+      </c>
+    </row>
+    <row r="2096">
+      <c r="A2096" t="inlineStr">
+        <is>
+          <t>25/09/2025</t>
+        </is>
+      </c>
+      <c r="B2096" t="n">
+        <v>248.8316666666667</v>
+      </c>
+      <c r="C2096" t="n">
+        <v>248.8245833333333</v>
+      </c>
+      <c r="D2096" t="n">
+        <v>232.6670833333333</v>
+      </c>
+      <c r="E2096" t="n">
+        <v>248.8358333333333</v>
+      </c>
+    </row>
+    <row r="2097">
+      <c r="A2097" t="inlineStr">
+        <is>
+          <t>26/09/2025</t>
+        </is>
+      </c>
+      <c r="B2097" t="n">
+        <v>188.7754166666666</v>
+      </c>
+      <c r="C2097" t="n">
+        <v>188.7683333333333</v>
+      </c>
+      <c r="D2097" t="n">
+        <v>186.6491666666667</v>
+      </c>
+      <c r="E2097" t="n">
+        <v>188.7770833333333</v>
+      </c>
+    </row>
+    <row r="2098">
+      <c r="A2098" t="inlineStr">
+        <is>
+          <t>27/09/2025</t>
+        </is>
+      </c>
+      <c r="B2098" t="n">
+        <v>171.6870833333333</v>
+      </c>
+      <c r="C2098" t="n">
+        <v>171.68125</v>
+      </c>
+      <c r="D2098" t="n">
+        <v>167.4083333333333</v>
+      </c>
+      <c r="E2098" t="n">
+        <v>171.6887499999999</v>
+      </c>
+    </row>
+    <row r="2099">
+      <c r="A2099" t="inlineStr">
+        <is>
+          <t>28/09/2025</t>
+        </is>
+      </c>
+      <c r="B2099" t="n">
+        <v>187.5833333333333</v>
+      </c>
+      <c r="C2099" t="n">
+        <v>187.5775</v>
+      </c>
+      <c r="D2099" t="n">
+        <v>187.16</v>
+      </c>
+      <c r="E2099" t="n">
+        <v>187.5845833333333</v>
+      </c>
+    </row>
+    <row r="2100">
+      <c r="A2100" t="inlineStr">
+        <is>
+          <t>29/09/2025</t>
+        </is>
+      </c>
+      <c r="B2100" t="n">
+        <v>246.4375</v>
+      </c>
+      <c r="C2100" t="n">
+        <v>246.4304166666666</v>
+      </c>
+      <c r="D2100" t="n">
+        <v>228.2995833333333</v>
+      </c>
+      <c r="E2100" t="n">
+        <v>246.43875</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2100"/>
+  <dimension ref="A1:E2110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40341,6 +40341,196 @@
         <v>246.43875</v>
       </c>
     </row>
+    <row r="2101">
+      <c r="A2101" t="inlineStr">
+        <is>
+          <t>30/09/2025</t>
+        </is>
+      </c>
+      <c r="B2101" t="n">
+        <v>272.6512499999999</v>
+      </c>
+      <c r="C2101" t="n">
+        <v>272.6470833333333</v>
+      </c>
+      <c r="D2101" t="n">
+        <v>238.7125</v>
+      </c>
+      <c r="E2101" t="n">
+        <v>272.6508333333333</v>
+      </c>
+    </row>
+    <row r="2102">
+      <c r="A2102" t="inlineStr">
+        <is>
+          <t>01/10/2025</t>
+        </is>
+      </c>
+      <c r="B2102" t="n">
+        <v>258.5908333333334</v>
+      </c>
+      <c r="C2102" t="n">
+        <v>258.585</v>
+      </c>
+      <c r="D2102" t="n">
+        <v>233.3445833333333</v>
+      </c>
+      <c r="E2102" t="n">
+        <v>258.5920833333333</v>
+      </c>
+    </row>
+    <row r="2103">
+      <c r="A2103" t="inlineStr">
+        <is>
+          <t>02/10/2025</t>
+        </is>
+      </c>
+      <c r="B2103" t="n">
+        <v>288.5254166666667</v>
+      </c>
+      <c r="C2103" t="n">
+        <v>288.5187500000001</v>
+      </c>
+      <c r="D2103" t="n">
+        <v>248.6279166666667</v>
+      </c>
+      <c r="E2103" t="n">
+        <v>288.5258333333334</v>
+      </c>
+    </row>
+    <row r="2104">
+      <c r="A2104" t="inlineStr">
+        <is>
+          <t>03/10/2025</t>
+        </is>
+      </c>
+      <c r="B2104" t="n">
+        <v>274.5979166666667</v>
+      </c>
+      <c r="C2104" t="n">
+        <v>274.5933333333333</v>
+      </c>
+      <c r="D2104" t="n">
+        <v>228.1704166666666</v>
+      </c>
+      <c r="E2104" t="n">
+        <v>274.5720833333334</v>
+      </c>
+    </row>
+    <row r="2105">
+      <c r="A2105" t="inlineStr">
+        <is>
+          <t>04/10/2025</t>
+        </is>
+      </c>
+      <c r="B2105" t="n">
+        <v>208.3033333333333</v>
+      </c>
+      <c r="C2105" t="n">
+        <v>208.2966666666667</v>
+      </c>
+      <c r="D2105" t="n">
+        <v>73.72833333333332</v>
+      </c>
+      <c r="E2105" t="n">
+        <v>208.3033333333333</v>
+      </c>
+    </row>
+    <row r="2106">
+      <c r="A2106" t="inlineStr">
+        <is>
+          <t>05/10/2025</t>
+        </is>
+      </c>
+      <c r="B2106" t="n">
+        <v>189.21</v>
+      </c>
+      <c r="C2106" t="n">
+        <v>189.2041666666667</v>
+      </c>
+      <c r="D2106" t="n">
+        <v>161.8137499999999</v>
+      </c>
+      <c r="E2106" t="n">
+        <v>189.2104166666666</v>
+      </c>
+    </row>
+    <row r="2107">
+      <c r="A2107" t="inlineStr">
+        <is>
+          <t>06/10/2025</t>
+        </is>
+      </c>
+      <c r="B2107" t="n">
+        <v>284.465</v>
+      </c>
+      <c r="C2107" t="n">
+        <v>284.4575</v>
+      </c>
+      <c r="D2107" t="n">
+        <v>220.285</v>
+      </c>
+      <c r="E2107" t="n">
+        <v>284.4658333333334</v>
+      </c>
+    </row>
+    <row r="2108">
+      <c r="A2108" t="inlineStr">
+        <is>
+          <t>07/10/2025</t>
+        </is>
+      </c>
+      <c r="B2108" t="n">
+        <v>305.1541666666667</v>
+      </c>
+      <c r="C2108" t="n">
+        <v>305.1458333333334</v>
+      </c>
+      <c r="D2108" t="n">
+        <v>271.87625</v>
+      </c>
+      <c r="E2108" t="n">
+        <v>304.7991666666667</v>
+      </c>
+    </row>
+    <row r="2109">
+      <c r="A2109" t="inlineStr">
+        <is>
+          <t>08/10/2025</t>
+        </is>
+      </c>
+      <c r="B2109" t="n">
+        <v>290.91375</v>
+      </c>
+      <c r="C2109" t="n">
+        <v>290.9058333333334</v>
+      </c>
+      <c r="D2109" t="n">
+        <v>273.4608333333334</v>
+      </c>
+      <c r="E2109" t="n">
+        <v>290.6633333333334</v>
+      </c>
+    </row>
+    <row r="2110">
+      <c r="A2110" t="inlineStr">
+        <is>
+          <t>09/10/2025</t>
+        </is>
+      </c>
+      <c r="B2110" t="n">
+        <v>257.4866666666667</v>
+      </c>
+      <c r="C2110" t="n">
+        <v>257.4795833333333</v>
+      </c>
+      <c r="D2110" t="n">
+        <v>236.5745833333334</v>
+      </c>
+      <c r="E2110" t="n">
+        <v>257.4066666666666</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/testepld.xlsx
+++ b/assets/testepld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2110"/>
+  <dimension ref="A1:E2121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40531,6 +40531,215 @@
         <v>257.4066666666666</v>
       </c>
     </row>
+    <row r="2111">
+      <c r="A2111" t="inlineStr">
+        <is>
+          <t>10/10/2025</t>
+        </is>
+      </c>
+      <c r="B2111" t="n">
+        <v>272.7783333333333</v>
+      </c>
+      <c r="C2111" t="n">
+        <v>272.7704166666667</v>
+      </c>
+      <c r="D2111" t="n">
+        <v>246.8566666666667</v>
+      </c>
+      <c r="E2111" t="n">
+        <v>272.7245833333333</v>
+      </c>
+    </row>
+    <row r="2112">
+      <c r="A2112" t="inlineStr">
+        <is>
+          <t>11/10/2025</t>
+        </is>
+      </c>
+      <c r="B2112" t="n">
+        <v>203.2295833333333</v>
+      </c>
+      <c r="C2112" t="n">
+        <v>203.2233333333333</v>
+      </c>
+      <c r="D2112" t="n">
+        <v>203.2229166666666</v>
+      </c>
+      <c r="E2112" t="n">
+        <v>203.23</v>
+      </c>
+    </row>
+    <row r="2113">
+      <c r="A2113" t="inlineStr">
+        <is>
+          <t>12/10/2025</t>
+        </is>
+      </c>
+      <c r="B2113" t="n">
+        <v>199.2133333333333</v>
+      </c>
+      <c r="C2113" t="n">
+        <v>199.2075</v>
+      </c>
+      <c r="D2113" t="n">
+        <v>196.60375</v>
+      </c>
+      <c r="E2113" t="n">
+        <v>199.2154166666666</v>
+      </c>
+    </row>
+    <row r="2114">
+      <c r="A2114" t="inlineStr">
+        <is>
+          <t>13/10/2025</t>
+        </is>
+      </c>
+      <c r="B2114" t="n">
+        <v>279.5616666666667</v>
+      </c>
+      <c r="C2114" t="n">
+        <v>279.4704166666667</v>
+      </c>
+      <c r="D2114" t="n">
+        <v>258.205</v>
+      </c>
+      <c r="E2114" t="n">
+        <v>279.035</v>
+      </c>
+    </row>
+    <row r="2115">
+      <c r="A2115" t="inlineStr">
+        <is>
+          <t>14/10/2025</t>
+        </is>
+      </c>
+      <c r="B2115" t="n">
+        <v>273.9166666666667</v>
+      </c>
+      <c r="C2115" t="n">
+        <v>273.9075</v>
+      </c>
+      <c r="D2115" t="n">
+        <v>252.4166666666667</v>
+      </c>
+      <c r="E2115" t="n">
+        <v>273.885</v>
+      </c>
+    </row>
+    <row r="2116">
+      <c r="A2116" t="inlineStr">
+        <is>
+          <t>15/10/2025</t>
+        </is>
+      </c>
+      <c r="B2116" t="n">
+        <v>252.7970833333333</v>
+      </c>
+      <c r="C2116" t="n">
+        <v>252.7883333333333</v>
+      </c>
+      <c r="D2116" t="n">
+        <v>238.0899999999999</v>
+      </c>
+      <c r="E2116" t="n">
+        <v>252.7979166666667</v>
+      </c>
+    </row>
+    <row r="2117">
+      <c r="A2117" t="inlineStr">
+        <is>
+          <t>16/10/2025</t>
+        </is>
+      </c>
+      <c r="B2117" t="n">
+        <v>259.7095833333333</v>
+      </c>
+      <c r="C2117" t="n">
+        <v>259.7020833333334</v>
+      </c>
+      <c r="D2117" t="n">
+        <v>238.7629166666667</v>
+      </c>
+      <c r="E2117" t="n">
+        <v>259.7095833333333</v>
+      </c>
+    </row>
+    <row r="2118">
+      <c r="A2118" t="inlineStr">
+        <is>
+          <t>17/10/2025</t>
+        </is>
+      </c>
+      <c r="B2118" t="n">
+        <v>251.9841666666667</v>
+      </c>
+      <c r="C2118" t="n">
+        <v>251.97625</v>
+      </c>
+      <c r="D2118" t="n">
+        <v>242.01375</v>
+      </c>
+      <c r="E2118" t="n">
+        <v>251.9854166666667</v>
+      </c>
+    </row>
+    <row r="2119">
+      <c r="A2119" t="inlineStr">
+        <is>
+          <t>18/10/2025</t>
+        </is>
+      </c>
+      <c r="B2119" t="n">
+        <v>227.61375</v>
+      </c>
+      <c r="C2119" t="n">
+        <v>227.6058333333333</v>
+      </c>
+      <c r="D2119" t="n">
+        <v>217.5808333333333</v>
+      </c>
+      <c r="E2119" t="n">
+        <v>227.61125</v>
+      </c>
+    </row>
+    <row r="2120">
+      <c r="A2120" t="inlineStr">
+        <is>
+          <t>19/10/2025</t>
+        </is>
+      </c>
+      <c r="B2120" t="n">
+        <v>208.1625</v>
+      </c>
+      <c r="C2120" t="n">
+        <v>208.1554166666667</v>
+      </c>
+      <c r="D2120" t="n">
+        <v>208.1583333333333</v>
+      </c>
+      <c r="E2120" t="n">
+        <v>208.1629166666667</v>
+      </c>
+    </row>
+    <row r="2121">
+      <c r="A2121" t="inlineStr">
+        <is>
+          <t>20/10/2025</t>
+        </is>
+      </c>
+      <c r="B2121" t="n">
+        <v>227.39875</v>
+      </c>
+      <c r="C2121" t="n">
+        <v>227.39125</v>
+      </c>
+      <c r="D2121" t="n">
+        <v>216.6566666666666</v>
+      </c>
+      <c r="E2121" t="n">
+        <v>227.3383333333333</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
